--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A753E678-BB25-44D1-822A-C8D5591746C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8612B0-2CDB-4F34-8474-EC68198177C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="282">
   <si>
     <t>Le commencement</t>
   </si>
@@ -3022,7 +3022,7 @@
   <dimension ref="A2:AZ195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT10" sqref="AT10"/>
+      <selection activeCell="AT11" sqref="AT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3799,7 +3799,9 @@
       <c r="AF10" s="210" t="s">
         <v>281</v>
       </c>
-      <c r="AG10" s="194"/>
+      <c r="AG10" s="194">
+        <v>7</v>
+      </c>
       <c r="AH10" s="194"/>
       <c r="AI10" s="194"/>
       <c r="AJ10" s="194"/>
@@ -3816,6 +3818,9 @@
       </c>
       <c r="AS10" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="AT10" s="209" t="s">
+        <v>279</v>
       </c>
       <c r="AX10" s="191">
         <v>0.2</v>
@@ -18336,7 +18341,9 @@
   </sheetPr>
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18385,11 +18392,11 @@
       </c>
       <c r="D3" s="4">
         <f>SUM(D4:D27)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" s="6">
         <f>SUM(E4:E27)/COUNTA(B4:B27)</f>
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="F3" s="5">
         <f>IF(MIN(F4:F27)=0,"-",MIN(F4:F27))</f>
@@ -18401,7 +18408,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM(H4:H27)</f>
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -18555,13 +18562,22 @@
       <c r="C10" s="14">
         <v>8</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14">
+        <v>3</v>
+      </c>
       <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="42">
+        <v>43864</v>
+      </c>
+      <c r="G10" s="42">
+        <v>43864</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
@@ -22576,11 +22592,11 @@
       </c>
       <c r="D3" s="54">
         <f>SUM(D4:D7)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E3" s="55">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>7.9117063492063489E-2</v>
+        <v>0.10863095238095237</v>
       </c>
       <c r="F3" s="56">
         <f>IF(MIN(F4:F7)=0,"-",MIN(F4:F7))</f>
@@ -22592,7 +22608,7 @@
       </c>
       <c r="H3" s="54">
         <f>SUM(H4:H7)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -22605,11 +22621,11 @@
       </c>
       <c r="D4" s="58">
         <f t="shared" ref="D4:H4" si="0">D10</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="59">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="F4" s="60">
         <f>IF(F10="-","",F10)</f>
@@ -22621,7 +22637,7 @@
       </c>
       <c r="H4" s="61">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -22634,11 +22650,11 @@
       </c>
       <c r="D5" s="63">
         <f>D29</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" s="64">
         <f>E29</f>
-        <v>0.1111111111111111</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F5" s="63">
         <f>IF(F29="-","",F29)</f>
@@ -22650,7 +22666,7 @@
       </c>
       <c r="H5" s="65">
         <f>H29</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -22742,11 +22758,11 @@
       </c>
       <c r="D10" s="54">
         <f>SUM(D11:D26)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="55">
         <f>SUM(E11:E26)/COUNTA(B11:B26)</f>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="F10" s="56">
         <f>IF(MIN(F11:F26)=0,"-",MIN(F11:F26))</f>
@@ -22758,7 +22774,7 @@
       </c>
       <c r="H10" s="54">
         <f>SUM(H11:H26)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -22802,23 +22818,23 @@
       </c>
       <c r="D12" s="63">
         <f>'LE COMMENCEMENT'!D10</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="64">
         <f>'LE COMMENCEMENT'!E10</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="89" t="str">
+        <v>1</v>
+      </c>
+      <c r="F12" s="89">
         <f>IF('LE COMMENCEMENT'!F10="","",'LE COMMENCEMENT'!F10)</f>
-        <v/>
-      </c>
-      <c r="G12" s="89" t="str">
+        <v>43864</v>
+      </c>
+      <c r="G12" s="89">
         <f>IF('LE COMMENCEMENT'!G10="","",'LE COMMENCEMENT'!G10)</f>
-        <v/>
-      </c>
-      <c r="H12" s="65" t="str">
+        <v>43864</v>
+      </c>
+      <c r="H12" s="65">
         <f t="shared" ref="H12:H14" si="1">IF(D12=0,"",C12-D12)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -23236,11 +23252,11 @@
       </c>
       <c r="D29" s="54">
         <f>SUM(D30:D47)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E29" s="55">
         <f>SUM(E30:E47)/COUNTA(B30:B47)</f>
-        <v>0.1111111111111111</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F29" s="56">
         <f>IF(MIN(F30:F47)=0,"-",MIN(F30:F47))</f>
@@ -23252,7 +23268,7 @@
       </c>
       <c r="H29" s="54">
         <f>SUM(H30:H47)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -23296,23 +23312,23 @@
       </c>
       <c r="D31" s="63">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="64">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="89" t="str">
+        <v>1</v>
+      </c>
+      <c r="F31" s="89">
         <f t="shared" ref="F31:G33" si="15">IF(F12="","",F12)</f>
-        <v/>
-      </c>
-      <c r="G31" s="89" t="str">
+        <v>43864</v>
+      </c>
+      <c r="G31" s="89">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H31" s="65" t="str">
+        <v>43864</v>
+      </c>
+      <c r="H31" s="65">
         <f>IF(D31=0,"",C31-D31)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8612B0-2CDB-4F34-8474-EC68198177C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2201AAE-2D38-4650-A2F0-DED767364328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="282">
   <si>
     <t>Le commencement</t>
   </si>
@@ -3022,7 +3022,7 @@
   <dimension ref="A2:AZ195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT11" sqref="AT11"/>
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3802,7 +3802,9 @@
       <c r="AG10" s="194">
         <v>7</v>
       </c>
-      <c r="AH10" s="194"/>
+      <c r="AH10" s="194">
+        <v>8</v>
+      </c>
       <c r="AI10" s="194"/>
       <c r="AJ10" s="194"/>
       <c r="AK10" s="194"/>
@@ -3955,6 +3957,9 @@
       </c>
       <c r="AS11" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="AT11" s="209" t="s">
+        <v>279</v>
       </c>
       <c r="AX11" s="191">
         <v>0.4</v>
@@ -18342,7 +18347,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -18392,11 +18397,11 @@
       </c>
       <c r="D3" s="4">
         <f>SUM(D4:D27)</f>
-        <v>29</v>
+        <v>31.5</v>
       </c>
       <c r="E3" s="6">
         <f>SUM(E4:E27)/COUNTA(B4:B27)</f>
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F3" s="5">
         <f>IF(MIN(F4:F27)=0,"-",MIN(F4:F27))</f>
@@ -18408,7 +18413,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM(H4:H27)</f>
-        <v>41</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -18586,13 +18591,22 @@
       <c r="C11" s="14">
         <v>8</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="14">
+        <v>2.5</v>
+      </c>
       <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="42">
+        <v>43865</v>
+      </c>
+      <c r="G11" s="42">
+        <v>43865</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
@@ -22592,11 +22606,11 @@
       </c>
       <c r="D3" s="54">
         <f>SUM(D4:D7)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3" s="55">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>0.10863095238095237</v>
+        <v>0.13814484126984128</v>
       </c>
       <c r="F3" s="56">
         <f>IF(MIN(F4:F7)=0,"-",MIN(F4:F7))</f>
@@ -22608,7 +22622,7 @@
       </c>
       <c r="H3" s="54">
         <f>SUM(H4:H7)</f>
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -22621,11 +22635,11 @@
       </c>
       <c r="D4" s="58">
         <f t="shared" ref="D4:H4" si="0">D10</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E4" s="59">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="F4" s="60">
         <f>IF(F10="-","",F10)</f>
@@ -22637,7 +22651,7 @@
       </c>
       <c r="H4" s="61">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -22650,11 +22664,11 @@
       </c>
       <c r="D5" s="63">
         <f>D29</f>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="E5" s="64">
         <f>E29</f>
-        <v>0.16666666666666666</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F5" s="63">
         <f>IF(F29="-","",F29)</f>
@@ -22666,7 +22680,7 @@
       </c>
       <c r="H5" s="65">
         <f>H29</f>
-        <v>20</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -22758,11 +22772,11 @@
       </c>
       <c r="D10" s="54">
         <f>SUM(D11:D26)</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E10" s="55">
         <f>SUM(E11:E26)/COUNTA(B11:B26)</f>
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="F10" s="56">
         <f>IF(MIN(F11:F26)=0,"-",MIN(F11:F26))</f>
@@ -22774,7 +22788,7 @@
       </c>
       <c r="H10" s="54">
         <f>SUM(H11:H26)</f>
-        <v>11</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -22848,23 +22862,23 @@
       </c>
       <c r="D13" s="63">
         <f>'LE COMMENCEMENT'!D11</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E13" s="64">
         <f>'LE COMMENCEMENT'!E11</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="89" t="str">
+        <v>1</v>
+      </c>
+      <c r="F13" s="89">
         <f>IF('LE COMMENCEMENT'!F11="","",'LE COMMENCEMENT'!F11)</f>
-        <v/>
-      </c>
-      <c r="G13" s="89" t="str">
+        <v>43865</v>
+      </c>
+      <c r="G13" s="89">
         <f>IF('LE COMMENCEMENT'!G11="","",'LE COMMENCEMENT'!G11)</f>
-        <v/>
-      </c>
-      <c r="H13" s="65" t="str">
+        <v>43865</v>
+      </c>
+      <c r="H13" s="65">
         <f t="shared" si="1"/>
-        <v/>
+        <v>5.5</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -23252,11 +23266,11 @@
       </c>
       <c r="D29" s="54">
         <f>SUM(D30:D47)</f>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="E29" s="55">
         <f>SUM(E30:E47)/COUNTA(B30:B47)</f>
-        <v>0.16666666666666666</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F29" s="56">
         <f>IF(MIN(F30:F47)=0,"-",MIN(F30:F47))</f>
@@ -23268,7 +23282,7 @@
       </c>
       <c r="H29" s="54">
         <f>SUM(H30:H47)</f>
-        <v>20</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -23342,23 +23356,23 @@
       </c>
       <c r="D32" s="63">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E32" s="64">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="89" t="str">
+        <v>1</v>
+      </c>
+      <c r="F32" s="89">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G32" s="89" t="str">
+        <v>43865</v>
+      </c>
+      <c r="G32" s="89">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H32" s="65" t="str">
+        <v>43865</v>
+      </c>
+      <c r="H32" s="65">
         <f t="shared" ref="H32:H47" si="16">IF(D32=0,"",C32-D32)</f>
-        <v/>
+        <v>5.5</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2201AAE-2D38-4650-A2F0-DED767364328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308DEE96-9088-434F-BC30-0DD0958C5577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="282">
   <si>
     <t>Le commencement</t>
   </si>
@@ -3022,7 +3022,7 @@
   <dimension ref="A2:AZ195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+      <selection activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3805,10 +3805,18 @@
       <c r="AH10" s="194">
         <v>8</v>
       </c>
-      <c r="AI10" s="194"/>
-      <c r="AJ10" s="194"/>
-      <c r="AK10" s="194"/>
-      <c r="AL10" s="197"/>
+      <c r="AI10" s="194">
+        <v>9</v>
+      </c>
+      <c r="AJ10" s="194" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK10" s="194" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL10" s="197" t="s">
+        <v>257</v>
+      </c>
       <c r="AP10" s="13" t="s">
         <v>144</v>
       </c>
@@ -4044,7 +4052,9 @@
       <c r="AD12" s="197">
         <v>10</v>
       </c>
-      <c r="AF12" s="197"/>
+      <c r="AF12" s="197" t="s">
+        <v>257</v>
+      </c>
       <c r="AG12" s="194"/>
       <c r="AH12" s="194"/>
       <c r="AI12" s="194"/>
@@ -4062,6 +4072,9 @@
       </c>
       <c r="AS12" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="AT12" s="209" t="s">
+        <v>279</v>
       </c>
       <c r="AX12" s="191">
         <v>0.5</v>
@@ -18347,7 +18360,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -18397,11 +18410,11 @@
       </c>
       <c r="D3" s="4">
         <f>SUM(D4:D27)</f>
-        <v>31.5</v>
+        <v>34.5</v>
       </c>
       <c r="E3" s="6">
         <f>SUM(E4:E27)/COUNTA(B4:B27)</f>
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="F3" s="5">
         <f>IF(MIN(F4:F27)=0,"-",MIN(F4:F27))</f>
@@ -18413,7 +18426,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM(H4:H27)</f>
-        <v>46.5</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -18615,13 +18628,22 @@
       <c r="C12" s="14">
         <v>8</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14">
+        <v>3</v>
+      </c>
       <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="42">
+        <v>43866</v>
+      </c>
+      <c r="G12" s="42">
+        <v>43866</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
@@ -22606,11 +22628,11 @@
       </c>
       <c r="D3" s="54">
         <f>SUM(D4:D7)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E3" s="55">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>0.13814484126984128</v>
+        <v>0.16765873015873017</v>
       </c>
       <c r="F3" s="56">
         <f>IF(MIN(F4:F7)=0,"-",MIN(F4:F7))</f>
@@ -22622,7 +22644,7 @@
       </c>
       <c r="H3" s="54">
         <f>SUM(H4:H7)</f>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -22635,11 +22657,11 @@
       </c>
       <c r="D4" s="58">
         <f t="shared" ref="D4:H4" si="0">D10</f>
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="E4" s="59">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="F4" s="60">
         <f>IF(F10="-","",F10)</f>
@@ -22651,7 +22673,7 @@
       </c>
       <c r="H4" s="61">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -22664,11 +22686,11 @@
       </c>
       <c r="D5" s="63">
         <f>D29</f>
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="E5" s="64">
         <f>E29</f>
-        <v>0.22222222222222221</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="F5" s="63">
         <f>IF(F29="-","",F29)</f>
@@ -22680,7 +22702,7 @@
       </c>
       <c r="H5" s="65">
         <f>H29</f>
-        <v>25.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -22772,11 +22794,11 @@
       </c>
       <c r="D10" s="54">
         <f>SUM(D11:D26)</f>
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="E10" s="55">
         <f>SUM(E11:E26)/COUNTA(B11:B26)</f>
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="F10" s="56">
         <f>IF(MIN(F11:F26)=0,"-",MIN(F11:F26))</f>
@@ -22788,7 +22810,7 @@
       </c>
       <c r="H10" s="54">
         <f>SUM(H11:H26)</f>
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -22892,23 +22914,23 @@
       </c>
       <c r="D14" s="63">
         <f>'LE COMMENCEMENT'!D12</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="64">
         <f>'LE COMMENCEMENT'!E12</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="89" t="str">
+        <v>1</v>
+      </c>
+      <c r="F14" s="89">
         <f>IF('LE COMMENCEMENT'!F12="","",'LE COMMENCEMENT'!F12)</f>
-        <v/>
-      </c>
-      <c r="G14" s="89" t="str">
+        <v>43866</v>
+      </c>
+      <c r="G14" s="89">
         <f>IF('LE COMMENCEMENT'!G12="","",'LE COMMENCEMENT'!G12)</f>
-        <v/>
-      </c>
-      <c r="H14" s="65" t="str">
+        <v>43866</v>
+      </c>
+      <c r="H14" s="65">
         <f t="shared" si="1"/>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -23266,11 +23288,11 @@
       </c>
       <c r="D29" s="54">
         <f>SUM(D30:D47)</f>
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="E29" s="55">
         <f>SUM(E30:E47)/COUNTA(B30:B47)</f>
-        <v>0.22222222222222221</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="F29" s="56">
         <f>IF(MIN(F30:F47)=0,"-",MIN(F30:F47))</f>
@@ -23282,7 +23304,7 @@
       </c>
       <c r="H29" s="54">
         <f>SUM(H30:H47)</f>
-        <v>25.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -23386,23 +23408,23 @@
       </c>
       <c r="D33" s="63">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" s="64">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="89" t="str">
+        <v>1</v>
+      </c>
+      <c r="F33" s="89">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G33" s="89" t="str">
+        <v>43866</v>
+      </c>
+      <c r="G33" s="89">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H33" s="65" t="str">
+        <v>43866</v>
+      </c>
+      <c r="H33" s="65">
         <f t="shared" si="16"/>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308DEE96-9088-434F-BC30-0DD0958C5577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E6B2DC-04DB-4E3E-BF23-F24EC5C08A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="282">
   <si>
     <t>Le commencement</t>
   </si>
@@ -3022,7 +3022,7 @@
   <dimension ref="A2:AZ195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT13" sqref="AT13"/>
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4055,12 +4055,24 @@
       <c r="AF12" s="197" t="s">
         <v>257</v>
       </c>
-      <c r="AG12" s="194"/>
-      <c r="AH12" s="194"/>
-      <c r="AI12" s="194"/>
-      <c r="AJ12" s="194"/>
-      <c r="AK12" s="194"/>
-      <c r="AL12" s="197"/>
+      <c r="AG12" s="194" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH12" s="194" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI12" s="194">
+        <v>10</v>
+      </c>
+      <c r="AJ12" s="194">
+        <v>10</v>
+      </c>
+      <c r="AK12" s="194" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL12" s="197" t="s">
+        <v>257</v>
+      </c>
       <c r="AP12" s="13" t="s">
         <v>146</v>
       </c>
@@ -4215,6 +4227,9 @@
       </c>
       <c r="AS13" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="AT13" s="209" t="s">
+        <v>279</v>
       </c>
       <c r="AX13" s="191">
         <v>0.6</v>
@@ -4296,24 +4311,26 @@
       <c r="AD14" s="197" t="s">
         <v>257</v>
       </c>
-      <c r="AF14" s="197"/>
+      <c r="AF14" s="197">
+        <v>10</v>
+      </c>
       <c r="AG14" s="194"/>
       <c r="AH14" s="194"/>
       <c r="AI14" s="194"/>
       <c r="AJ14" s="194"/>
       <c r="AK14" s="194"/>
       <c r="AL14" s="197"/>
-      <c r="AP14" s="13" t="s">
+      <c r="AP14" s="158" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ14" s="170">
         <v>6</v>
       </c>
-      <c r="AQ14" s="14">
-        <v>12</v>
-      </c>
       <c r="AR14" s="176">
-        <v>11</v>
-      </c>
-      <c r="AS14" s="4" t="s">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="AS14" s="157" t="s">
+        <v>141</v>
       </c>
       <c r="AX14" s="191">
         <v>0.8</v>
@@ -4437,16 +4454,16 @@
         <f t="shared" ref="AL15" si="48">AK15+1</f>
         <v>43890</v>
       </c>
-      <c r="AP15" s="158" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ15" s="170">
+      <c r="AP15" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ15" s="76">
         <v>6</v>
       </c>
       <c r="AR15" s="176">
-        <v>113</v>
-      </c>
-      <c r="AS15" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS15" s="54" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4533,13 +4550,13 @@
       <c r="AK16" s="194"/>
       <c r="AL16" s="197"/>
       <c r="AP16" s="75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AQ16" s="76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR16" s="176">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AS16" s="54" t="s">
         <v>141</v>
@@ -4666,13 +4683,13 @@
         <v>43897</v>
       </c>
       <c r="AP17" s="75" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AQ17" s="76">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AR17" s="176">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AS17" s="54" t="s">
         <v>141</v>
@@ -4767,13 +4784,13 @@
       <c r="AK18" s="194"/>
       <c r="AL18" s="197"/>
       <c r="AP18" s="75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AQ18" s="76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR18" s="176">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AS18" s="54" t="s">
         <v>141</v>
@@ -4898,13 +4915,13 @@
         <v>43904</v>
       </c>
       <c r="AP19" s="75" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AQ19" s="76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR19" s="176">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AS19" s="54" t="s">
         <v>141</v>
@@ -4998,14 +5015,14 @@
       <c r="AJ20" s="194"/>
       <c r="AK20" s="194"/>
       <c r="AL20" s="197"/>
-      <c r="AP20" s="75" t="s">
-        <v>159</v>
+      <c r="AP20" s="80" t="s">
+        <v>152</v>
       </c>
       <c r="AQ20" s="76">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR20" s="176">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AS20" s="54" t="s">
         <v>141</v>
@@ -5131,14 +5148,14 @@
         <f t="shared" ref="AL21" si="79">AK21+1</f>
         <v>43911</v>
       </c>
-      <c r="AP21" s="80" t="s">
-        <v>152</v>
+      <c r="AP21" s="75" t="s">
+        <v>160</v>
       </c>
       <c r="AQ21" s="76">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR21" s="176">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS21" s="54" t="s">
         <v>141</v>
@@ -5230,13 +5247,13 @@
       <c r="AK22" s="194"/>
       <c r="AL22" s="197"/>
       <c r="AP22" s="75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AQ22" s="76">
         <v>8</v>
       </c>
       <c r="AR22" s="176">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AS22" s="54" t="s">
         <v>141</v>
@@ -5360,13 +5377,13 @@
         <v>43918</v>
       </c>
       <c r="AP23" s="75" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="AQ23" s="76">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AR23" s="176">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AS23" s="54" t="s">
         <v>141</v>
@@ -5457,14 +5474,14 @@
       <c r="AJ24" s="194"/>
       <c r="AK24" s="194"/>
       <c r="AL24" s="197"/>
-      <c r="AP24" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ24" s="76">
+      <c r="AP24" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ24" s="81">
         <v>20</v>
       </c>
       <c r="AR24" s="176">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AS24" s="54" t="s">
         <v>141</v>
@@ -5587,17 +5604,17 @@
         <f t="shared" ref="AL25" si="100">AK25+1</f>
         <v>43925</v>
       </c>
-      <c r="AP25" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ25" s="81">
-        <v>20</v>
+      <c r="AP25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ25" s="14">
+        <v>8</v>
       </c>
       <c r="AR25" s="176">
-        <v>123</v>
-      </c>
-      <c r="AS25" s="54" t="s">
-        <v>141</v>
+        <v>12</v>
+      </c>
+      <c r="AS25" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5683,13 +5700,13 @@
       <c r="AK26" s="194"/>
       <c r="AL26" s="197"/>
       <c r="AP26" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ26" s="14">
         <v>8</v>
       </c>
       <c r="AR26" s="176">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS26" s="4" t="s">
         <v>0</v>
@@ -5813,13 +5830,13 @@
         <v>43932</v>
       </c>
       <c r="AP27" s="13" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="AQ27" s="14">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AR27" s="176">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS27" s="4" t="s">
         <v>0</v>
@@ -5912,13 +5929,13 @@
       <c r="AK28" s="194"/>
       <c r="AL28" s="197"/>
       <c r="AP28" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AQ28" s="14">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AR28" s="176">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS28" s="4" t="s">
         <v>0</v>
@@ -6045,17 +6062,17 @@
         <f t="shared" ref="AL29" si="120">AK29+1</f>
         <v>43939</v>
       </c>
-      <c r="AP29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ29" s="14">
+      <c r="AP29" s="153" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ29" s="169">
         <v>12</v>
       </c>
       <c r="AR29" s="176">
-        <v>15</v>
-      </c>
-      <c r="AS29" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AS29" s="154" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6144,16 +6161,16 @@
       <c r="AJ30" s="194"/>
       <c r="AK30" s="194"/>
       <c r="AL30" s="197"/>
-      <c r="AP30" s="153" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ30" s="169">
+      <c r="AP30" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ30" s="30">
         <v>12</v>
       </c>
       <c r="AR30" s="176">
-        <v>35</v>
-      </c>
-      <c r="AS30" s="154" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS30" s="21" t="s">
         <v>135</v>
       </c>
       <c r="AZ30" s="206" t="s">
@@ -6272,13 +6289,13 @@
         <v>43946</v>
       </c>
       <c r="AP31" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ31" s="30">
         <v>12</v>
       </c>
       <c r="AR31" s="176">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AS31" s="21" t="s">
         <v>135</v>
@@ -6367,13 +6384,13 @@
       <c r="AK32" s="194"/>
       <c r="AL32" s="197"/>
       <c r="AP32" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AQ32" s="30">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AR32" s="176">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AS32" s="21" t="s">
         <v>135</v>
@@ -6497,13 +6514,13 @@
         <v>43953</v>
       </c>
       <c r="AP33" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ33" s="30">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AR33" s="176">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AS33" s="21" t="s">
         <v>135</v>
@@ -6594,17 +6611,17 @@
       <c r="AJ34" s="194"/>
       <c r="AK34" s="194"/>
       <c r="AL34" s="197"/>
-      <c r="AP34" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ34" s="30">
+      <c r="AP34" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AQ34" s="14">
+        <v>12</v>
+      </c>
       <c r="AR34" s="176">
-        <v>39</v>
-      </c>
-      <c r="AS34" s="21" t="s">
-        <v>135</v>
+        <v>11</v>
+      </c>
+      <c r="AS34" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18359,9 +18376,7 @@
   </sheetPr>
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18410,11 +18425,11 @@
       </c>
       <c r="D3" s="4">
         <f>SUM(D4:D27)</f>
-        <v>34.5</v>
+        <v>44.5</v>
       </c>
       <c r="E3" s="6">
         <f>SUM(E4:E27)/COUNTA(B4:B27)</f>
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F3" s="5">
         <f>IF(MIN(F4:F27)=0,"-",MIN(F4:F27))</f>
@@ -18426,7 +18441,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM(H4:H27)</f>
-        <v>51.5</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -18652,13 +18667,22 @@
       <c r="C13" s="14">
         <v>20</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14">
+        <v>10</v>
+      </c>
       <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="42">
+        <v>43873</v>
+      </c>
+      <c r="G13" s="42">
+        <v>43877</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
@@ -22628,11 +22652,11 @@
       </c>
       <c r="D3" s="54">
         <f>SUM(D4:D7)</f>
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E3" s="55">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>0.16765873015873017</v>
+        <v>0.23288690476190474</v>
       </c>
       <c r="F3" s="56">
         <f>IF(MIN(F4:F7)=0,"-",MIN(F4:F7))</f>
@@ -22644,7 +22668,7 @@
       </c>
       <c r="H3" s="54">
         <f>SUM(H4:H7)</f>
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -22657,11 +22681,11 @@
       </c>
       <c r="D4" s="58">
         <f t="shared" ref="D4:H4" si="0">D10</f>
-        <v>10.5</v>
+        <v>20.5</v>
       </c>
       <c r="E4" s="59">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="F4" s="60">
         <f>IF(F10="-","",F10)</f>
@@ -22673,7 +22697,7 @@
       </c>
       <c r="H4" s="61">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -22686,11 +22710,11 @@
       </c>
       <c r="D5" s="63">
         <f>D29</f>
-        <v>15.5</v>
+        <v>25.5</v>
       </c>
       <c r="E5" s="64">
         <f>E29</f>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F5" s="63">
         <f>IF(F29="-","",F29)</f>
@@ -22702,7 +22726,7 @@
       </c>
       <c r="H5" s="65">
         <f>H29</f>
-        <v>30.5</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -22715,11 +22739,11 @@
       </c>
       <c r="D6" s="63">
         <f>D50</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E6" s="64">
         <f>E50</f>
-        <v>0.14285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F6" s="63">
         <f>IF(F50="-","",F50)</f>
@@ -22731,7 +22755,7 @@
       </c>
       <c r="H6" s="65">
         <f>H50</f>
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -22794,11 +22818,11 @@
       </c>
       <c r="D10" s="54">
         <f>SUM(D11:D26)</f>
-        <v>10.5</v>
+        <v>20.5</v>
       </c>
       <c r="E10" s="55">
         <f>SUM(E11:E26)/COUNTA(B11:B26)</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="F10" s="56">
         <f>IF(MIN(F11:F26)=0,"-",MIN(F11:F26))</f>
@@ -22810,7 +22834,7 @@
       </c>
       <c r="H10" s="54">
         <f>SUM(H11:H26)</f>
-        <v>21.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -22944,23 +22968,23 @@
       </c>
       <c r="D15" s="63">
         <f>'LE COMMENCEMENT'!D13</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E15" s="64">
         <f>'LE COMMENCEMENT'!E13</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="89" t="str">
+        <v>1</v>
+      </c>
+      <c r="F15" s="89">
         <f>IF('LE COMMENCEMENT'!F13="","",'LE COMMENCEMENT'!F13)</f>
-        <v/>
-      </c>
-      <c r="G15" s="89" t="str">
+        <v>43873</v>
+      </c>
+      <c r="G15" s="89">
         <f>IF('LE COMMENCEMENT'!G13="","",'LE COMMENCEMENT'!G13)</f>
-        <v/>
-      </c>
-      <c r="H15" s="65" t="str">
+        <v>43877</v>
+      </c>
+      <c r="H15" s="65">
         <f t="shared" ref="H15" si="2">IF(D15=0,"",C15-D15)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -23288,11 +23312,11 @@
       </c>
       <c r="D29" s="54">
         <f>SUM(D30:D47)</f>
-        <v>15.5</v>
+        <v>25.5</v>
       </c>
       <c r="E29" s="55">
         <f>SUM(E30:E47)/COUNTA(B30:B47)</f>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F29" s="56">
         <f>IF(MIN(F30:F47)=0,"-",MIN(F30:F47))</f>
@@ -23304,7 +23328,7 @@
       </c>
       <c r="H29" s="54">
         <f>SUM(H30:H47)</f>
-        <v>30.5</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -23492,23 +23516,23 @@
       </c>
       <c r="D37" s="63">
         <f>D15</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E37" s="64">
         <f>E15</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="89" t="str">
+        <v>1</v>
+      </c>
+      <c r="F37" s="89">
         <f>IF(F15="","",F15)</f>
-        <v/>
-      </c>
-      <c r="G37" s="89" t="str">
+        <v>43873</v>
+      </c>
+      <c r="G37" s="89">
         <f>IF(G15="","",G15)</f>
-        <v/>
-      </c>
-      <c r="H37" s="65" t="str">
+        <v>43877</v>
+      </c>
+      <c r="H37" s="65">
         <f t="shared" si="16"/>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -23734,11 +23758,11 @@
       </c>
       <c r="D50" s="54">
         <f>SUM(D51:D57)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E50" s="55">
         <f>SUM(E51:E57)/COUNTA(B51:B57)</f>
-        <v>0.14285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F50" s="56">
         <f>IF(MIN(F51:F57)=0,"-",MIN(F51:F57))</f>
@@ -23750,7 +23774,7 @@
       </c>
       <c r="H50" s="54">
         <f>SUM(H51:H57)</f>
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -23795,23 +23819,23 @@
       </c>
       <c r="D52" s="63">
         <f>D15</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E52" s="64">
         <f>E15</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="89" t="str">
+        <v>1</v>
+      </c>
+      <c r="F52" s="89">
         <f>IF(F15="","",F15)</f>
-        <v/>
-      </c>
-      <c r="G52" s="89" t="str">
+        <v>43873</v>
+      </c>
+      <c r="G52" s="89">
         <f>IF(G15="","",G15)</f>
-        <v/>
-      </c>
-      <c r="H52" s="65" t="str">
+        <v>43877</v>
+      </c>
+      <c r="H52" s="65">
         <f t="shared" ref="H52:H57" si="17">IF(D52=0,"",C52-D52)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC8C4A5-01BD-45A9-B344-79B0B0C95633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A2FEF4-AD96-4FBD-9C9D-9903F8A1C3A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="283">
   <si>
     <t>Le commencement</t>
   </si>
@@ -3061,7 +3061,7 @@
   <dimension ref="A2:AZ196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT16" sqref="AT16"/>
+      <selection activeCell="AT17" sqref="AT17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4369,9 +4369,15 @@
       <c r="AI14" s="166" t="s">
         <v>255</v>
       </c>
-      <c r="AJ14" s="166"/>
-      <c r="AK14" s="166"/>
-      <c r="AL14" s="169"/>
+      <c r="AJ14" s="166" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK14" s="166">
+        <v>37</v>
+      </c>
+      <c r="AL14" s="169">
+        <v>37</v>
+      </c>
       <c r="AP14" s="12" t="s">
         <v>280</v>
       </c>
@@ -4618,6 +4624,9 @@
       </c>
       <c r="AS16" s="45" t="s">
         <v>140</v>
+      </c>
+      <c r="AT16" s="180" t="s">
+        <v>277</v>
       </c>
       <c r="AX16" s="176" t="s">
         <v>256</v>
@@ -19537,8 +19546,8 @@
   </sheetPr>
   <dimension ref="B2:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -19584,11 +19593,11 @@
       </c>
       <c r="D3" s="45">
         <f>SUM(D4:D7)</f>
-        <v>63.5</v>
+        <v>69.5</v>
       </c>
       <c r="E3" s="46">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>0.24677579365079363</v>
+        <v>0.26066468253968256</v>
       </c>
       <c r="F3" s="47">
         <f>IF(MIN(F4:F7)=0,"-",MIN(F4:F7))</f>
@@ -19642,11 +19651,11 @@
       </c>
       <c r="D5" s="53">
         <f>D29</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E5" s="54">
         <f>E29</f>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F5" s="53">
         <f>IF(F29="-","",F29)</f>
@@ -20244,11 +20253,11 @@
       </c>
       <c r="D29" s="45">
         <f>SUM(D30:D47)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E29" s="46">
         <f>SUM(E30:E47)/COUNTA(B30:B47)</f>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F29" s="47">
         <f>IF(MIN(F30:F47)=0,"-",MIN(F30:F47))</f>
@@ -20260,7 +20269,7 @@
       </c>
       <c r="H29" s="187">
         <f>AVERAGE(H30:H47)</f>
-        <v>0.63052721088435371</v>
+        <v>0.55171130952380953</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -20414,15 +20423,21 @@
       <c r="C35" s="63">
         <v>6</v>
       </c>
-      <c r="D35" s="63"/>
+      <c r="D35" s="63">
+        <v>6</v>
+      </c>
       <c r="E35" s="64">
-        <v>0</v>
-      </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="192" t="str">
+        <v>1</v>
+      </c>
+      <c r="F35" s="65">
+        <v>43882</v>
+      </c>
+      <c r="G35" s="65">
+        <v>43883</v>
+      </c>
+      <c r="H35" s="192">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A2FEF4-AD96-4FBD-9C9D-9903F8A1C3A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582887AD-32A6-4FAF-9D9D-CB6D1C089366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="283">
   <si>
     <t>Le commencement</t>
   </si>
@@ -3061,7 +3061,7 @@
   <dimension ref="A2:AZ196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT17" sqref="AT17"/>
+      <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4605,8 +4605,12 @@
       <c r="AD16" s="169">
         <v>40</v>
       </c>
-      <c r="AF16" s="169"/>
-      <c r="AG16" s="166"/>
+      <c r="AF16" s="169" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG16" s="166">
+        <v>38</v>
+      </c>
       <c r="AH16" s="166"/>
       <c r="AI16" s="166"/>
       <c r="AJ16" s="166"/>
@@ -4761,6 +4765,9 @@
       </c>
       <c r="AS17" s="45" t="s">
         <v>140</v>
+      </c>
+      <c r="AT17" s="180" t="s">
+        <v>277</v>
       </c>
       <c r="AX17" s="164" t="s">
         <v>257</v>
@@ -19547,7 +19554,7 @@
   <dimension ref="B2:I68"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -19593,11 +19600,11 @@
       </c>
       <c r="D3" s="45">
         <f>SUM(D4:D7)</f>
-        <v>69.5</v>
+        <v>74.5</v>
       </c>
       <c r="E3" s="46">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>0.26066468253968256</v>
+        <v>0.2745535714285714</v>
       </c>
       <c r="F3" s="47">
         <f>IF(MIN(F4:F7)=0,"-",MIN(F4:F7))</f>
@@ -19651,11 +19658,11 @@
       </c>
       <c r="D5" s="53">
         <f>D29</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E5" s="54">
         <f>E29</f>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="53">
         <f>IF(F29="-","",F29)</f>
@@ -20253,11 +20260,11 @@
       </c>
       <c r="D29" s="45">
         <f>SUM(D30:D47)</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E29" s="46">
         <f>SUM(E30:E47)/COUNTA(B30:B47)</f>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="47">
         <f>IF(MIN(F30:F47)=0,"-",MIN(F30:F47))</f>
@@ -20269,7 +20276,7 @@
       </c>
       <c r="H29" s="187">
         <f>AVERAGE(H30:H47)</f>
-        <v>0.55171130952380953</v>
+        <v>0.46263227513227512</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -20447,15 +20454,21 @@
       <c r="C36" s="63">
         <v>4</v>
       </c>
-      <c r="D36" s="63"/>
+      <c r="D36" s="63">
+        <v>5</v>
+      </c>
       <c r="E36" s="64">
-        <v>0</v>
-      </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="192" t="str">
+        <v>1</v>
+      </c>
+      <c r="F36" s="65">
+        <v>43885</v>
+      </c>
+      <c r="G36" s="65">
+        <v>43885</v>
+      </c>
+      <c r="H36" s="192">
         <f t="shared" si="11"/>
-        <v/>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582887AD-32A6-4FAF-9D9D-CB6D1C089366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64FBC9D-732C-4358-A068-C418DE59CDB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="283">
   <si>
     <t>Le commencement</t>
   </si>
@@ -3061,7 +3061,7 @@
   <dimension ref="A2:AZ196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16"/>
+      <selection activeCell="AT19" sqref="AT19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4611,10 +4611,18 @@
       <c r="AG16" s="166">
         <v>38</v>
       </c>
-      <c r="AH16" s="166"/>
-      <c r="AI16" s="166"/>
-      <c r="AJ16" s="166"/>
-      <c r="AK16" s="166"/>
+      <c r="AH16" s="166" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI16" s="166">
+        <v>39</v>
+      </c>
+      <c r="AJ16" s="166" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK16" s="166">
+        <v>39</v>
+      </c>
       <c r="AL16" s="169"/>
       <c r="AP16" s="62" t="s">
         <v>156</v>
@@ -4870,6 +4878,9 @@
       </c>
       <c r="AS18" s="45" t="s">
         <v>140</v>
+      </c>
+      <c r="AT18" s="180" t="s">
+        <v>277</v>
       </c>
       <c r="AX18" s="164" t="s">
         <v>258</v>
@@ -19554,7 +19565,7 @@
   <dimension ref="B2:I68"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -19600,11 +19611,11 @@
       </c>
       <c r="D3" s="45">
         <f>SUM(D4:D7)</f>
-        <v>74.5</v>
+        <v>84.5</v>
       </c>
       <c r="E3" s="46">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>0.2745535714285714</v>
+        <v>0.30406746031746035</v>
       </c>
       <c r="F3" s="47">
         <f>IF(MIN(F4:F7)=0,"-",MIN(F4:F7))</f>
@@ -19629,11 +19640,11 @@
       </c>
       <c r="D4" s="49">
         <f t="shared" ref="D4:E4" si="0">D10</f>
-        <v>20.5</v>
+        <v>25.5</v>
       </c>
       <c r="E4" s="50">
         <f t="shared" si="0"/>
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="F4" s="51">
         <f>IF(F10="-","",F10)</f>
@@ -19658,11 +19669,11 @@
       </c>
       <c r="D5" s="53">
         <f>D29</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E5" s="54">
         <f>E29</f>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F5" s="53">
         <f>IF(F29="-","",F29)</f>
@@ -19766,11 +19777,11 @@
       </c>
       <c r="D10" s="45">
         <f>SUM(D11:D26)</f>
-        <v>20.5</v>
+        <v>25.5</v>
       </c>
       <c r="E10" s="46">
         <f>SUM(E11:E26)/COUNTA(B11:B26)</f>
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="F10" s="47">
         <f>IF(MIN(F11:F26)=0,"-",MIN(F11:F26))</f>
@@ -19782,7 +19793,7 @@
       </c>
       <c r="H10" s="187">
         <f>AVERAGE(H11:H26)</f>
-        <v>0.63749999999999996</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -19982,23 +19993,23 @@
       </c>
       <c r="D18" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="54">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="74" t="str">
+        <v>1</v>
+      </c>
+      <c r="F18" s="74">
         <f>IF(F38="","",F38)</f>
-        <v/>
-      </c>
-      <c r="G18" s="74" t="str">
+        <v>43887</v>
+      </c>
+      <c r="G18" s="74">
         <f>IF(G38="","",G38)</f>
-        <v/>
-      </c>
-      <c r="H18" s="189" t="str">
+        <v>43889</v>
+      </c>
+      <c r="H18" s="189">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.375</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -20260,11 +20271,11 @@
       </c>
       <c r="D29" s="45">
         <f>SUM(D30:D47)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E29" s="46">
         <f>SUM(E30:E47)/COUNTA(B30:B47)</f>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F29" s="47">
         <f>IF(MIN(F30:F47)=0,"-",MIN(F30:F47))</f>
@@ -20276,7 +20287,7 @@
       </c>
       <c r="H29" s="187">
         <f>AVERAGE(H30:H47)</f>
-        <v>0.46263227513227512</v>
+        <v>0.45386904761904762</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -20508,15 +20519,21 @@
       <c r="C38" s="63">
         <v>8</v>
       </c>
-      <c r="D38" s="63"/>
+      <c r="D38" s="63">
+        <v>5</v>
+      </c>
       <c r="E38" s="64">
-        <v>0</v>
-      </c>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="192" t="str">
+        <v>1</v>
+      </c>
+      <c r="F38" s="65">
+        <v>43887</v>
+      </c>
+      <c r="G38" s="65">
+        <v>43889</v>
+      </c>
+      <c r="H38" s="192">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0.375</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64FBC9D-732C-4358-A068-C418DE59CDB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187301C1-74E1-4174-A46C-330372E50BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" activeTab="3" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="283">
   <si>
     <t>Le commencement</t>
   </si>
@@ -3060,8 +3060,8 @@
   </sheetPr>
   <dimension ref="A2:AZ196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT19" sqref="AT19"/>
+    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4623,7 +4623,9 @@
       <c r="AK16" s="166">
         <v>39</v>
       </c>
-      <c r="AL16" s="169"/>
+      <c r="AL16" s="169" t="s">
+        <v>255</v>
+      </c>
       <c r="AP16" s="62" t="s">
         <v>156</v>
       </c>
@@ -4859,7 +4861,9 @@
       <c r="AD18" s="169">
         <v>44</v>
       </c>
-      <c r="AF18" s="169"/>
+      <c r="AF18" s="169">
+        <v>40</v>
+      </c>
       <c r="AG18" s="166"/>
       <c r="AH18" s="166"/>
       <c r="AI18" s="166"/>
@@ -5013,6 +5017,9 @@
       </c>
       <c r="AS19" s="45" t="s">
         <v>140</v>
+      </c>
+      <c r="AT19" s="180" t="s">
+        <v>277</v>
       </c>
       <c r="AX19" s="164" t="s">
         <v>259</v>
@@ -19564,8 +19571,8 @@
   </sheetPr>
   <dimension ref="B2:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -19611,11 +19618,11 @@
       </c>
       <c r="D3" s="45">
         <f>SUM(D4:D7)</f>
-        <v>84.5</v>
+        <v>92.5</v>
       </c>
       <c r="E3" s="46">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>0.30406746031746035</v>
+        <v>0.33358134920634919</v>
       </c>
       <c r="F3" s="47">
         <f>IF(MIN(F4:F7)=0,"-",MIN(F4:F7))</f>
@@ -19640,11 +19647,11 @@
       </c>
       <c r="D4" s="49">
         <f t="shared" ref="D4:E4" si="0">D10</f>
-        <v>25.5</v>
+        <v>29.5</v>
       </c>
       <c r="E4" s="50">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="F4" s="51">
         <f>IF(F10="-","",F10)</f>
@@ -19669,11 +19676,11 @@
       </c>
       <c r="D5" s="53">
         <f>D29</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E5" s="54">
         <f>E29</f>
-        <v>0.55555555555555558</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="F5" s="53">
         <f>IF(F29="-","",F29)</f>
@@ -19777,11 +19784,11 @@
       </c>
       <c r="D10" s="45">
         <f>SUM(D11:D26)</f>
-        <v>25.5</v>
+        <v>29.5</v>
       </c>
       <c r="E10" s="46">
         <f>SUM(E11:E26)/COUNTA(B11:B26)</f>
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="F10" s="47">
         <f>IF(MIN(F11:F26)=0,"-",MIN(F11:F26))</f>
@@ -19793,7 +19800,7 @@
       </c>
       <c r="H10" s="187">
         <f>AVERAGE(H11:H26)</f>
-        <v>0.59375</v>
+        <v>0.58829365079365081</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -20023,23 +20030,23 @@
       </c>
       <c r="D19" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19" s="54">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="74" t="str">
+        <v>1</v>
+      </c>
+      <c r="F19" s="74">
         <f>IF(F39="","",F39)</f>
-        <v/>
-      </c>
-      <c r="G19" s="74" t="str">
+        <v>43891</v>
+      </c>
+      <c r="G19" s="74">
         <f>IF(G39="","",G39)</f>
-        <v/>
-      </c>
-      <c r="H19" s="189" t="str">
+        <v>43891</v>
+      </c>
+      <c r="H19" s="189">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -20271,11 +20278,11 @@
       </c>
       <c r="D29" s="45">
         <f>SUM(D30:D47)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E29" s="46">
         <f>SUM(E30:E47)/COUNTA(B30:B47)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="F29" s="47">
         <f>IF(MIN(F30:F47)=0,"-",MIN(F30:F47))</f>
@@ -20287,7 +20294,7 @@
       </c>
       <c r="H29" s="187">
         <f>AVERAGE(H30:H47)</f>
-        <v>0.45386904761904762</v>
+        <v>0.46311327561327559</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -20543,15 +20550,21 @@
       <c r="C39" s="63">
         <v>9</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="63">
+        <v>4</v>
+      </c>
       <c r="E39" s="64">
-        <v>0</v>
-      </c>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="192" t="str">
+        <v>1</v>
+      </c>
+      <c r="F39" s="65">
+        <v>43891</v>
+      </c>
+      <c r="G39" s="65">
+        <v>43891</v>
+      </c>
+      <c r="H39" s="192">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187301C1-74E1-4174-A46C-330372E50BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BCC9D6-72D9-4A4F-9E37-B0F7E686705A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" activeTab="3" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="283">
   <si>
     <t>Le commencement</t>
   </si>
@@ -895,7 +895,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,6 +958,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1850,7 +1857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2495,6 +2502,9 @@
     <xf numFmtId="9" fontId="2" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3060,8 +3070,8 @@
   </sheetPr>
   <dimension ref="A2:AZ196"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT21" sqref="AT21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4864,9 +4874,15 @@
       <c r="AF18" s="169">
         <v>40</v>
       </c>
-      <c r="AG18" s="166"/>
-      <c r="AH18" s="166"/>
-      <c r="AI18" s="166"/>
+      <c r="AG18" s="166" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH18" s="166">
+        <v>41</v>
+      </c>
+      <c r="AI18" s="166" t="s">
+        <v>255</v>
+      </c>
       <c r="AJ18" s="166"/>
       <c r="AK18" s="166"/>
       <c r="AL18" s="169"/>
@@ -5123,6 +5139,9 @@
       <c r="AS20" s="45" t="s">
         <v>140</v>
       </c>
+      <c r="AT20" s="180" t="s">
+        <v>277</v>
+      </c>
       <c r="AX20" s="164" t="s">
         <v>260</v>
       </c>
@@ -5257,6 +5276,7 @@
       <c r="AS21" s="45" t="s">
         <v>140</v>
       </c>
+      <c r="AT21" s="216"/>
       <c r="AX21" s="164" t="s">
         <v>261</v>
       </c>
@@ -19571,8 +19591,8 @@
   </sheetPr>
   <dimension ref="B2:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -19618,11 +19638,11 @@
       </c>
       <c r="D3" s="45">
         <f>SUM(D4:D7)</f>
-        <v>92.5</v>
+        <v>96.5</v>
       </c>
       <c r="E3" s="46">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>0.33358134920634919</v>
+        <v>0.34747023809523803</v>
       </c>
       <c r="F3" s="47">
         <f>IF(MIN(F4:F7)=0,"-",MIN(F4:F7))</f>
@@ -19676,11 +19696,11 @@
       </c>
       <c r="D5" s="53">
         <f>D29</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E5" s="54">
         <f>E29</f>
-        <v>0.61111111111111116</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F5" s="53">
         <f>IF(F29="-","",F29)</f>
@@ -20278,11 +20298,11 @@
       </c>
       <c r="D29" s="45">
         <f>SUM(D30:D47)</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E29" s="46">
         <f>SUM(E30:E47)/COUNTA(B30:B47)</f>
-        <v>0.61111111111111116</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F29" s="47">
         <f>IF(MIN(F30:F47)=0,"-",MIN(F30:F47))</f>
@@ -20294,7 +20314,7 @@
       </c>
       <c r="H29" s="187">
         <f>AVERAGE(H30:H47)</f>
-        <v>0.46311327561327559</v>
+        <v>0.4661871693121693</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -20574,15 +20594,21 @@
       <c r="C40" s="63">
         <v>8</v>
       </c>
-      <c r="D40" s="63"/>
+      <c r="D40" s="63">
+        <v>4</v>
+      </c>
       <c r="E40" s="64">
-        <v>0</v>
-      </c>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="192" t="str">
+        <v>1</v>
+      </c>
+      <c r="F40" s="65">
+        <v>43893</v>
+      </c>
+      <c r="G40" s="65">
+        <v>43893</v>
+      </c>
+      <c r="H40" s="192">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BCC9D6-72D9-4A4F-9E37-B0F7E686705A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA05948A-00E3-4B24-BC2B-02FE7306F059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="283">
   <si>
     <t>Le commencement</t>
   </si>
@@ -895,7 +895,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,13 +958,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1857,7 +1850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2502,9 +2495,6 @@
     <xf numFmtId="9" fontId="2" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3071,7 +3061,7 @@
   <dimension ref="A2:AZ196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT21" sqref="AT21"/>
+      <selection activeCell="AT22" sqref="AT22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4883,7 +4873,9 @@
       <c r="AI18" s="166" t="s">
         <v>255</v>
       </c>
-      <c r="AJ18" s="166"/>
+      <c r="AJ18" s="166">
+        <v>42</v>
+      </c>
       <c r="AK18" s="166"/>
       <c r="AL18" s="169"/>
       <c r="AP18" s="62" t="s">
@@ -5276,7 +5268,9 @@
       <c r="AS21" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="AT21" s="216"/>
+      <c r="AT21" s="180" t="s">
+        <v>277</v>
+      </c>
       <c r="AX21" s="164" t="s">
         <v>261</v>
       </c>
@@ -19592,7 +19586,7 @@
   <dimension ref="B2:I68"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -19638,11 +19632,11 @@
       </c>
       <c r="D3" s="45">
         <f>SUM(D4:D7)</f>
-        <v>96.5</v>
+        <v>104.5</v>
       </c>
       <c r="E3" s="46">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>0.34747023809523803</v>
+        <v>0.37698412698412698</v>
       </c>
       <c r="F3" s="47">
         <f>IF(MIN(F4:F7)=0,"-",MIN(F4:F7))</f>
@@ -19667,11 +19661,11 @@
       </c>
       <c r="D4" s="49">
         <f t="shared" ref="D4:E4" si="0">D10</f>
-        <v>29.5</v>
+        <v>33.5</v>
       </c>
       <c r="E4" s="50">
         <f t="shared" si="0"/>
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="51">
         <f>IF(F10="-","",F10)</f>
@@ -19696,11 +19690,11 @@
       </c>
       <c r="D5" s="53">
         <f>D29</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E5" s="54">
         <f>E29</f>
-        <v>0.66666666666666663</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F5" s="53">
         <f>IF(F29="-","",F29)</f>
@@ -19804,11 +19798,11 @@
       </c>
       <c r="D10" s="45">
         <f>SUM(D11:D26)</f>
-        <v>29.5</v>
+        <v>33.5</v>
       </c>
       <c r="E10" s="46">
         <f>SUM(E11:E26)/COUNTA(B11:B26)</f>
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="47">
         <f>IF(MIN(F11:F26)=0,"-",MIN(F11:F26))</f>
@@ -19820,7 +19814,7 @@
       </c>
       <c r="H10" s="187">
         <f>AVERAGE(H11:H26)</f>
-        <v>0.58829365079365081</v>
+        <v>0.58975694444444438</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -20080,23 +20074,23 @@
       </c>
       <c r="D20" s="53">
         <f>D41</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20" s="54">
         <f>E41</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="74" t="str">
+        <v>1</v>
+      </c>
+      <c r="F20" s="74">
         <f>IF(F41="","",F41)</f>
-        <v/>
-      </c>
-      <c r="G20" s="74" t="str">
+        <v>43895</v>
+      </c>
+      <c r="G20" s="74">
         <f>IF(G41="","",G41)</f>
-        <v/>
-      </c>
-      <c r="H20" s="189" t="str">
+        <v>43895</v>
+      </c>
+      <c r="H20" s="189">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -20298,11 +20292,11 @@
       </c>
       <c r="D29" s="45">
         <f>SUM(D30:D47)</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E29" s="46">
         <f>SUM(E30:E47)/COUNTA(B30:B47)</f>
-        <v>0.66666666666666663</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F29" s="47">
         <f>IF(MIN(F30:F47)=0,"-",MIN(F30:F47))</f>
@@ -20314,7 +20308,7 @@
       </c>
       <c r="H29" s="187">
         <f>AVERAGE(H30:H47)</f>
-        <v>0.4661871693121693</v>
+        <v>0.47648046398046395</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -20618,15 +20612,21 @@
       <c r="C41" s="63">
         <v>10</v>
       </c>
-      <c r="D41" s="63"/>
+      <c r="D41" s="63">
+        <v>4</v>
+      </c>
       <c r="E41" s="64">
-        <v>0</v>
-      </c>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="192" t="str">
+        <v>1</v>
+      </c>
+      <c r="F41" s="65">
+        <v>43895</v>
+      </c>
+      <c r="G41" s="65">
+        <v>43895</v>
+      </c>
+      <c r="H41" s="192">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA05948A-00E3-4B24-BC2B-02FE7306F059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3682BD28-BA91-480F-9C11-95467F087071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="283">
   <si>
     <t>Le commencement</t>
   </si>
@@ -895,7 +895,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,6 +958,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1850,7 +1857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2495,6 +2502,9 @@
     <xf numFmtId="9" fontId="2" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3061,7 +3071,7 @@
   <dimension ref="A2:AZ196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT22" sqref="AT22"/>
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4876,8 +4886,12 @@
       <c r="AJ18" s="166">
         <v>42</v>
       </c>
-      <c r="AK18" s="166"/>
-      <c r="AL18" s="169"/>
+      <c r="AK18" s="166" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL18" s="169">
+        <v>43</v>
+      </c>
       <c r="AP18" s="62" t="s">
         <v>149</v>
       </c>
@@ -5111,7 +5125,9 @@
       <c r="AD20" s="169">
         <v>13</v>
       </c>
-      <c r="AF20" s="169"/>
+      <c r="AF20" s="169">
+        <v>43</v>
+      </c>
       <c r="AG20" s="166"/>
       <c r="AH20" s="166"/>
       <c r="AI20" s="166"/>
@@ -5372,6 +5388,9 @@
       </c>
       <c r="AS22" s="45" t="s">
         <v>140</v>
+      </c>
+      <c r="AT22" s="180" t="s">
+        <v>277</v>
       </c>
       <c r="AZ22" s="179" t="s">
         <v>266</v>
@@ -19586,7 +19605,7 @@
   <dimension ref="B2:I68"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -19632,11 +19651,11 @@
       </c>
       <c r="D3" s="45">
         <f>SUM(D4:D7)</f>
-        <v>104.5</v>
+        <v>108.5</v>
       </c>
       <c r="E3" s="46">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>0.37698412698412698</v>
+        <v>0.39087301587301582</v>
       </c>
       <c r="F3" s="47">
         <f>IF(MIN(F4:F7)=0,"-",MIN(F4:F7))</f>
@@ -19690,11 +19709,11 @@
       </c>
       <c r="D5" s="53">
         <f>D29</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E5" s="54">
         <f>E29</f>
-        <v>0.72222222222222221</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F5" s="53">
         <f>IF(F29="-","",F29)</f>
@@ -20292,11 +20311,11 @@
       </c>
       <c r="D29" s="45">
         <f>SUM(D30:D47)</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E29" s="46">
         <f>SUM(E30:E47)/COUNTA(B30:B47)</f>
-        <v>0.72222222222222221</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F29" s="47">
         <f>IF(MIN(F30:F47)=0,"-",MIN(F30:F47))</f>
@@ -20308,7 +20327,7 @@
       </c>
       <c r="H29" s="187">
         <f>AVERAGE(H30:H47)</f>
-        <v>0.47648046398046395</v>
+        <v>0.47816043083900223</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -20636,15 +20655,21 @@
       <c r="C42" s="63">
         <v>8</v>
       </c>
-      <c r="D42" s="63"/>
+      <c r="D42" s="63">
+        <v>4</v>
+      </c>
       <c r="E42" s="64">
-        <v>0</v>
-      </c>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="192" t="str">
+        <v>1</v>
+      </c>
+      <c r="F42" s="65">
+        <v>43897</v>
+      </c>
+      <c r="G42" s="65">
+        <v>43898</v>
+      </c>
+      <c r="H42" s="192">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -20654,7 +20679,7 @@
       <c r="C43" s="63">
         <v>8</v>
       </c>
-      <c r="D43" s="63"/>
+      <c r="D43" s="216"/>
       <c r="E43" s="64">
         <v>0</v>
       </c>
@@ -21160,6 +21185,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3682BD28-BA91-480F-9C11-95467F087071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7175BE40-3CBB-45AA-8DAF-36236445C0BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="284">
   <si>
     <t>Le commencement</t>
   </si>
@@ -889,13 +889,16 @@
   </si>
   <si>
     <t>Tempo reduzido em</t>
+  </si>
+  <si>
+    <t>43/44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,13 +961,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1857,7 +1853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2502,9 +2498,6 @@
     <xf numFmtId="9" fontId="2" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3071,7 +3064,7 @@
   <dimension ref="A2:AZ196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+      <selection activeCell="AT24" sqref="AT24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5125,8 +5118,8 @@
       <c r="AD20" s="169">
         <v>13</v>
       </c>
-      <c r="AF20" s="169">
-        <v>43</v>
+      <c r="AF20" s="169" t="s">
+        <v>283</v>
       </c>
       <c r="AG20" s="166"/>
       <c r="AH20" s="166"/>
@@ -5519,6 +5512,9 @@
       </c>
       <c r="AS23" s="45" t="s">
         <v>140</v>
+      </c>
+      <c r="AT23" s="180" t="s">
+        <v>277</v>
       </c>
       <c r="AZ23" s="179" t="s">
         <v>275</v>
@@ -19604,8 +19600,8 @@
   </sheetPr>
   <dimension ref="B2:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -19651,11 +19647,11 @@
       </c>
       <c r="D3" s="45">
         <f>SUM(D4:D7)</f>
-        <v>108.5</v>
+        <v>111.5</v>
       </c>
       <c r="E3" s="46">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>0.39087301587301582</v>
+        <v>0.40476190476190477</v>
       </c>
       <c r="F3" s="47">
         <f>IF(MIN(F4:F7)=0,"-",MIN(F4:F7))</f>
@@ -19709,11 +19705,11 @@
       </c>
       <c r="D5" s="53">
         <f>D29</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E5" s="54">
         <f>E29</f>
-        <v>0.77777777777777779</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F5" s="53">
         <f>IF(F29="-","",F29)</f>
@@ -20311,11 +20307,11 @@
       </c>
       <c r="D29" s="45">
         <f>SUM(D30:D47)</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E29" s="46">
         <f>SUM(E30:E47)/COUNTA(B30:B47)</f>
-        <v>0.77777777777777779</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F29" s="47">
         <f>IF(MIN(F30:F47)=0,"-",MIN(F30:F47))</f>
@@ -20327,7 +20323,7 @@
       </c>
       <c r="H29" s="187">
         <f>AVERAGE(H30:H47)</f>
-        <v>0.47816043083900223</v>
+        <v>0.48794973544973541</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -20679,15 +20675,21 @@
       <c r="C43" s="63">
         <v>8</v>
       </c>
-      <c r="D43" s="216"/>
+      <c r="D43" s="63">
+        <v>3</v>
+      </c>
       <c r="E43" s="64">
-        <v>0</v>
-      </c>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="192" t="str">
+        <v>1</v>
+      </c>
+      <c r="F43" s="65">
+        <v>43898</v>
+      </c>
+      <c r="G43" s="65">
+        <v>43898</v>
+      </c>
+      <c r="H43" s="192">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0.625</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7175BE40-3CBB-45AA-8DAF-36236445C0BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF2AEF5-F86A-485E-81B1-0C2070ED629F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -3064,7 +3064,7 @@
   <dimension ref="A2:AZ196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT24" sqref="AT24"/>
+      <selection activeCell="AT25" sqref="AT25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5121,8 +5121,12 @@
       <c r="AF20" s="169" t="s">
         <v>283</v>
       </c>
-      <c r="AG20" s="166"/>
-      <c r="AH20" s="166"/>
+      <c r="AG20" s="166">
+        <v>45</v>
+      </c>
+      <c r="AH20" s="166">
+        <v>45</v>
+      </c>
       <c r="AI20" s="166"/>
       <c r="AJ20" s="166"/>
       <c r="AK20" s="166"/>
@@ -5614,6 +5618,9 @@
       </c>
       <c r="AS24" s="45" t="s">
         <v>140</v>
+      </c>
+      <c r="AT24" s="180" t="s">
+        <v>277</v>
       </c>
       <c r="AZ24" s="179" t="s">
         <v>267</v>
@@ -19598,10 +19605,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B2:I68"/>
+  <dimension ref="B2:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -19643,15 +19650,15 @@
       </c>
       <c r="C3" s="45">
         <f>SUM(C4:C7)</f>
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="D3" s="45">
         <f>SUM(D4:D7)</f>
-        <v>111.5</v>
+        <v>117.5</v>
       </c>
       <c r="E3" s="46">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>0.40476190476190477</v>
+        <v>0.43172268907563027</v>
       </c>
       <c r="F3" s="47">
         <f>IF(MIN(F4:F7)=0,"-",MIN(F4:F7))</f>
@@ -19701,15 +19708,15 @@
       </c>
       <c r="C5" s="53">
         <f>C29</f>
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D5" s="53">
         <f>D29</f>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E5" s="54">
         <f>E29</f>
-        <v>0.83333333333333337</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="F5" s="53">
         <f>IF(F29="-","",F29)</f>
@@ -19729,23 +19736,23 @@
         <v>141</v>
       </c>
       <c r="C6" s="53">
-        <f>C50</f>
+        <f>C49</f>
         <v>80</v>
       </c>
       <c r="D6" s="53">
-        <f>D50</f>
+        <f>D49</f>
         <v>15</v>
       </c>
       <c r="E6" s="54">
-        <f>E50</f>
+        <f>E49</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="F6" s="53">
-        <f>IF(F50="-","",F50)</f>
+        <f>IF(F49="-","",F49)</f>
         <v>43863</v>
       </c>
       <c r="G6" s="53" t="str">
-        <f>IF(G50="-","",G50)</f>
+        <f>IF(G49="-","",G49)</f>
         <v/>
       </c>
       <c r="H6" s="189" t="str">
@@ -19758,23 +19765,23 @@
         <v>142</v>
       </c>
       <c r="C7" s="56">
-        <f>C60</f>
+        <f>C59</f>
         <v>74</v>
       </c>
       <c r="D7" s="56">
-        <f>D60</f>
+        <f>D59</f>
         <v>0</v>
       </c>
       <c r="E7" s="57">
-        <f>E60</f>
+        <f>E59</f>
         <v>0</v>
       </c>
       <c r="F7" s="56" t="str">
-        <f>IF(F60="-","",F60)</f>
+        <f>IF(F59="-","",F59)</f>
         <v/>
       </c>
       <c r="G7" s="56" t="str">
-        <f>IF(G60="-","",G60)</f>
+        <f>IF(G59="-","",G59)</f>
         <v/>
       </c>
       <c r="H7" s="190" t="str">
@@ -20110,7 +20117,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="52" t="str">
-        <f t="shared" ref="B21:E22" si="3">B61</f>
+        <f t="shared" ref="B21:E22" si="3">B60</f>
         <v>JavaScript Avançado I</v>
       </c>
       <c r="C21" s="53">
@@ -20126,11 +20133,11 @@
         <v>0</v>
       </c>
       <c r="F21" s="74" t="str">
-        <f>IF(F61="","",F61)</f>
+        <f>IF(F60="","",F60)</f>
         <v/>
       </c>
       <c r="G21" s="74" t="str">
-        <f>IF(G61="","",G61)</f>
+        <f>IF(G60="","",G60)</f>
         <v/>
       </c>
       <c r="H21" s="189" t="str">
@@ -20156,11 +20163,11 @@
         <v>0</v>
       </c>
       <c r="F22" s="74" t="str">
-        <f>IF(F62="","",F62)</f>
+        <f>IF(F61="","",F61)</f>
         <v/>
       </c>
       <c r="G22" s="74" t="str">
-        <f>IF(G62="","",G62)</f>
+        <f>IF(G61="","",G61)</f>
         <v/>
       </c>
       <c r="H22" s="189" t="str">
@@ -20170,11 +20177,11 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="str">
-        <f>B65</f>
+        <f>B64</f>
         <v>React parte 1</v>
       </c>
       <c r="C23" s="53">
-        <f t="shared" ref="C23:E23" si="4">C65</f>
+        <f t="shared" ref="C23:E23" si="4">C64</f>
         <v>10</v>
       </c>
       <c r="D23" s="53">
@@ -20186,11 +20193,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="74" t="str">
-        <f>IF(F65="","",F65)</f>
+        <f>IF(F64="","",F64)</f>
         <v/>
       </c>
       <c r="G23" s="74" t="str">
-        <f t="shared" ref="G23:G25" si="5">IF(G65="","",G65)</f>
+        <f t="shared" ref="G23:G25" si="5">IF(G64="","",G64)</f>
         <v/>
       </c>
       <c r="H23" s="189" t="str">
@@ -20200,7 +20207,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="str">
-        <f t="shared" ref="B24:E24" si="6">B66</f>
+        <f t="shared" ref="B24:E24" si="6">B65</f>
         <v>React parte 2</v>
       </c>
       <c r="C24" s="53">
@@ -20216,7 +20223,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="74" t="str">
-        <f t="shared" ref="F24" si="7">IF(F66="","",F66)</f>
+        <f t="shared" ref="F24" si="7">IF(F65="","",F65)</f>
         <v/>
       </c>
       <c r="G24" s="74" t="str">
@@ -20230,7 +20237,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="52" t="str">
-        <f t="shared" ref="B25:E25" si="8">B67</f>
+        <f t="shared" ref="B25:E25" si="8">B66</f>
         <v>React parte 3</v>
       </c>
       <c r="C25" s="53">
@@ -20246,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="74" t="str">
-        <f t="shared" ref="F25" si="9">IF(F67="","",F67)</f>
+        <f t="shared" ref="F25" si="9">IF(F66="","",F66)</f>
         <v/>
       </c>
       <c r="G25" s="74" t="str">
@@ -20302,28 +20309,28 @@
         <v>HTML e CSS</v>
       </c>
       <c r="C29" s="45">
-        <f>SUM(C30:C47)</f>
-        <v>188</v>
+        <f>SUM(C30:C46)</f>
+        <v>173</v>
       </c>
       <c r="D29" s="45">
-        <f>SUM(D30:D47)</f>
-        <v>63</v>
+        <f>SUM(D30:D46)</f>
+        <v>69</v>
       </c>
       <c r="E29" s="46">
-        <f>SUM(E30:E47)/COUNTA(B30:B47)</f>
-        <v>0.83333333333333337</v>
+        <f>SUM(E30:E46)/COUNTA(B30:B46)</f>
+        <v>0.94117647058823528</v>
       </c>
       <c r="F29" s="47">
-        <f>IF(MIN(F30:F47)=0,"-",MIN(F30:F47))</f>
+        <f>IF(MIN(F30:F46)=0,"-",MIN(F30:F46))</f>
         <v>43863</v>
       </c>
       <c r="G29" s="45" t="str">
-        <f>IF(COUNTBLANK(G30:G47)&lt;&gt;0,"-",MAX(G30:G47))</f>
+        <f>IF(COUNTBLANK(G30:G46)&lt;&gt;0,"-",MAX(G30:G46))</f>
         <v>-</v>
       </c>
       <c r="H29" s="187">
-        <f>AVERAGE(H30:H47)</f>
-        <v>0.48794973544973541</v>
+        <f>AVERAGE(H30:H46)</f>
+        <v>0.50120287698412691</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -20352,7 +20359,7 @@
         <v>43863</v>
       </c>
       <c r="H30" s="188">
-        <f t="shared" ref="H30:H47" si="11">IF(G30="","",1-D30/C30)</f>
+        <f t="shared" ref="H30:H46" si="11">IF(G30="","",1-D30/C30)</f>
         <v>0.75</v>
       </c>
     </row>
@@ -20729,15 +20736,21 @@
       <c r="C45" s="63">
         <v>20</v>
       </c>
-      <c r="D45" s="63"/>
+      <c r="D45" s="63">
+        <v>6</v>
+      </c>
       <c r="E45" s="64">
-        <v>0</v>
-      </c>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="192" t="str">
+        <v>1</v>
+      </c>
+      <c r="F45" s="65">
+        <v>43899</v>
+      </c>
+      <c r="G45" s="65">
+        <v>43900</v>
+      </c>
+      <c r="H45" s="192">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -20758,141 +20771,141 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="67">
-        <v>15</v>
-      </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="68">
-        <v>0</v>
-      </c>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="193" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="45" t="str">
+      <c r="B49" s="45" t="str">
         <f>B6</f>
         <v>Node.js</v>
       </c>
-      <c r="C50" s="45">
-        <f>SUM(C51:C57)</f>
+      <c r="C49" s="45">
+        <f>SUM(C50:C56)</f>
         <v>80</v>
       </c>
-      <c r="D50" s="45">
-        <f>SUM(D51:D57)</f>
+      <c r="D49" s="45">
+        <f>SUM(D50:D56)</f>
         <v>15</v>
       </c>
-      <c r="E50" s="46">
-        <f>SUM(E51:E57)/COUNTA(B51:B57)</f>
+      <c r="E49" s="46">
+        <f>SUM(E50:E56)/COUNTA(B50:B56)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F50" s="47">
-        <f>IF(MIN(F51:F57)=0,"-",MIN(F51:F57))</f>
+      <c r="F49" s="47">
+        <f>IF(MIN(F50:F56)=0,"-",MIN(F50:F56))</f>
         <v>43863</v>
       </c>
-      <c r="G50" s="45" t="str">
-        <f>IF(COUNTBLANK(G51:G57)&lt;&gt;0,"-",MAX(G51:G57))</f>
+      <c r="G49" s="45" t="str">
+        <f>IF(COUNTBLANK(G50:G56)&lt;&gt;0,"-",MAX(G50:G56))</f>
         <v>-</v>
       </c>
-      <c r="H50" s="187">
-        <f>AVERAGE(H51:H57)</f>
+      <c r="H49" s="187">
+        <f>AVERAGE(H50:H56)</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="48" t="str">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="48" t="str">
         <f>'LE COMMENCEMENT'!B8</f>
         <v>HTTP: web por baixo dos panos</v>
       </c>
-      <c r="C51" s="49">
+      <c r="C50" s="49">
         <f>'LE COMMENCEMENT'!C8</f>
         <v>14</v>
       </c>
-      <c r="D51" s="49">
+      <c r="D50" s="49">
         <f>'LE COMMENCEMENT'!D8</f>
         <v>5</v>
       </c>
-      <c r="E51" s="50">
+      <c r="E50" s="50">
         <f>'LE COMMENCEMENT'!E8</f>
         <v>1</v>
       </c>
-      <c r="F51" s="51">
+      <c r="F50" s="51">
         <f>IF('LE COMMENCEMENT'!F8="","",'LE COMMENCEMENT'!F8)</f>
         <v>43863</v>
       </c>
-      <c r="G51" s="51">
+      <c r="G50" s="51">
         <f>IF('LE COMMENCEMENT'!G8="","",'LE COMMENCEMENT'!G8)</f>
         <v>43863</v>
       </c>
-      <c r="H51" s="188">
-        <f t="shared" ref="H51:H57" si="14">IF(G51="","",1-D51/C51)</f>
+      <c r="H50" s="188">
+        <f t="shared" ref="H50:H56" si="14">IF(G50="","",1-D50/C50)</f>
         <v>0.64285714285714279</v>
       </c>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="52" t="str">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="52" t="str">
         <f>B15</f>
         <v>Javascript: prog. na linguagem web</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C51" s="53">
         <f>C15</f>
         <v>20</v>
       </c>
-      <c r="D52" s="53">
+      <c r="D51" s="53">
         <f>D15</f>
         <v>10</v>
       </c>
-      <c r="E52" s="54">
+      <c r="E51" s="54">
         <f>E15</f>
         <v>1</v>
       </c>
-      <c r="F52" s="74">
+      <c r="F51" s="74">
         <f>IF(F15="","",F15)</f>
         <v>43873</v>
       </c>
-      <c r="G52" s="74">
+      <c r="G51" s="74">
         <f>IF(G15="","",G15)</f>
         <v>43877</v>
       </c>
-      <c r="H52" s="189">
+      <c r="H51" s="189">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
     </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="63">
+        <v>12</v>
+      </c>
+      <c r="D52" s="63"/>
+      <c r="E52" s="64">
+        <v>0</v>
+      </c>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="192" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C53" s="63">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D53" s="63"/>
       <c r="E53" s="64">
@@ -20907,10 +20920,10 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="62" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="C54" s="63">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D54" s="63"/>
       <c r="E54" s="64">
@@ -20925,10 +20938,10 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="62" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="C55" s="63">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D55" s="63"/>
       <c r="E55" s="64">
@@ -20942,112 +20955,112 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="63">
-        <v>6</v>
-      </c>
-      <c r="D56" s="63"/>
-      <c r="E56" s="64">
-        <v>0</v>
-      </c>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="192" t="str">
+      <c r="B56" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="67">
+        <v>4</v>
+      </c>
+      <c r="D56" s="67"/>
+      <c r="E56" s="68">
+        <v>0</v>
+      </c>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="193" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="67">
-        <v>4</v>
-      </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="68">
-        <v>0</v>
-      </c>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="193" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="45" t="str">
+      <c r="B59" s="45" t="str">
         <f>B7</f>
         <v>React</v>
       </c>
-      <c r="C60" s="45">
-        <f>SUM(C61:C68)</f>
+      <c r="C59" s="45">
+        <f>SUM(C60:C67)</f>
         <v>74</v>
       </c>
-      <c r="D60" s="45">
-        <f>SUM(D61:D68)</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="46">
-        <f>SUM(E61:E68)/COUNTA(B61:B68)</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="47" t="str">
-        <f>IF(MIN(F61:F68)=0,"-",MIN(F61:F68))</f>
+      <c r="D59" s="45">
+        <f>SUM(D60:D67)</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="46">
+        <f>SUM(E60:E67)/COUNTA(B60:B67)</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="47" t="str">
+        <f>IF(MIN(F60:F67)=0,"-",MIN(F60:F67))</f>
         <v>-</v>
       </c>
-      <c r="G60" s="45" t="str">
-        <f>IF(COUNTBLANK(G61:G68)&lt;&gt;0,"-",MAX(G61:G68))</f>
+      <c r="G59" s="45" t="str">
+        <f>IF(COUNTBLANK(G60:G67)&lt;&gt;0,"-",MAX(G60:G67))</f>
         <v>-</v>
       </c>
-      <c r="H60" s="187" t="e">
-        <f>AVERAGE(H61:H68)</f>
+      <c r="H59" s="187" t="e">
+        <f>AVERAGE(H60:H67)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="59">
+        <v>12</v>
+      </c>
+      <c r="D60" s="59"/>
+      <c r="E60" s="60">
+        <v>0</v>
+      </c>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="191" t="str">
+        <f t="shared" ref="H60:H67" si="15">IF(G60="","",1-D60/C60)</f>
+        <v/>
+      </c>
+    </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="59">
+      <c r="B61" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="63">
         <v>12</v>
       </c>
-      <c r="D61" s="59"/>
-      <c r="E61" s="60">
-        <v>0</v>
-      </c>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="191" t="str">
-        <f t="shared" ref="H61:H68" si="15">IF(G61="","",1-D61/C61)</f>
+      <c r="D61" s="63"/>
+      <c r="E61" s="64">
+        <v>0</v>
+      </c>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="192" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C62" s="63">
         <v>12</v>
@@ -21065,10 +21078,10 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C63" s="63">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D63" s="63"/>
       <c r="E63" s="64">
@@ -21083,10 +21096,10 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="62" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C64" s="63">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D64" s="63"/>
       <c r="E64" s="64">
@@ -21101,7 +21114,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C65" s="63">
         <v>10</v>
@@ -21119,10 +21132,10 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C66" s="63">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D66" s="63"/>
       <c r="E66" s="64">
@@ -21136,37 +21149,19 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" s="63">
-        <v>8</v>
-      </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="64">
-        <v>0</v>
-      </c>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="192" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="66" t="s">
+      <c r="B67" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="67">
+      <c r="C67" s="67">
         <v>2</v>
       </c>
-      <c r="D68" s="67"/>
-      <c r="E68" s="68">
-        <v>0</v>
-      </c>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="193" t="str">
+      <c r="D67" s="67"/>
+      <c r="E67" s="68">
+        <v>0</v>
+      </c>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="193" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
@@ -21415,11 +21410,11 @@
       </c>
       <c r="D8" s="43">
         <f t="shared" ref="D8:E8" si="0">D79</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E8" s="44">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F8" s="70">
         <f>IF(F79="-","",F79)</f>
@@ -22758,11 +22753,11 @@
       </c>
       <c r="D79" s="18">
         <f>SUM(D80:D90)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E79" s="19">
         <f>SUM(E80:E90)/COUNTA(B80:B90)</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F79" s="20">
         <f>IF(MIN(F80:F90)=0,"-",MIN(F80:F90))</f>
@@ -22774,7 +22769,7 @@
       </c>
       <c r="H79" s="199">
         <f>AVERAGE(H80:H90)</f>
-        <v>0.64285714285714279</v>
+        <v>0.67142857142857137</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
@@ -22818,23 +22813,23 @@
       </c>
       <c r="D81" s="39">
         <f>'FRONT-END'!D45</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E81" s="40">
         <f>'FRONT-END'!E45</f>
-        <v>0</v>
-      </c>
-      <c r="F81" s="41" t="str">
+        <v>1</v>
+      </c>
+      <c r="F81" s="41">
         <f>IF('FRONT-END'!F45="","",'FRONT-END'!F45)</f>
-        <v/>
-      </c>
-      <c r="G81" s="41" t="str">
+        <v>43899</v>
+      </c>
+      <c r="G81" s="41">
         <f>IF('FRONT-END'!G45="","",'FRONT-END'!G45)</f>
-        <v/>
-      </c>
-      <c r="H81" s="195" t="str">
+        <v>43900</v>
+      </c>
+      <c r="H81" s="195">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
@@ -22869,27 +22864,27 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="38" t="str">
-        <f>'FRONT-END'!B53</f>
+        <f>'FRONT-END'!B52</f>
         <v>Node.js parte 1</v>
       </c>
       <c r="C83" s="39">
-        <f>'FRONT-END'!C53</f>
+        <f>'FRONT-END'!C52</f>
         <v>12</v>
       </c>
       <c r="D83" s="39">
-        <f>'FRONT-END'!D53</f>
+        <f>'FRONT-END'!D52</f>
         <v>0</v>
       </c>
       <c r="E83" s="40">
-        <f>'FRONT-END'!E53</f>
+        <f>'FRONT-END'!E52</f>
         <v>0</v>
       </c>
       <c r="F83" s="41" t="str">
-        <f>IF('FRONT-END'!F53="","",'FRONT-END'!F53)</f>
+        <f>IF('FRONT-END'!F52="","",'FRONT-END'!F52)</f>
         <v/>
       </c>
       <c r="G83" s="41" t="str">
-        <f>IF('FRONT-END'!G53="","",'FRONT-END'!G53)</f>
+        <f>IF('FRONT-END'!G52="","",'FRONT-END'!G52)</f>
         <v/>
       </c>
       <c r="H83" s="195" t="str">
@@ -22899,27 +22894,27 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="38" t="str">
-        <f>'FRONT-END'!B54</f>
+        <f>'FRONT-END'!B53</f>
         <v>Node.js parte 2</v>
       </c>
       <c r="C84" s="39">
-        <f>'FRONT-END'!C54</f>
+        <f>'FRONT-END'!C53</f>
         <v>8</v>
       </c>
       <c r="D84" s="39">
-        <f>'FRONT-END'!D54</f>
+        <f>'FRONT-END'!D53</f>
         <v>0</v>
       </c>
       <c r="E84" s="40">
-        <f>'FRONT-END'!E54</f>
+        <f>'FRONT-END'!E53</f>
         <v>0</v>
       </c>
       <c r="F84" s="41" t="str">
-        <f>IF('FRONT-END'!F54="","",'FRONT-END'!F54)</f>
+        <f>IF('FRONT-END'!F53="","",'FRONT-END'!F53)</f>
         <v/>
       </c>
       <c r="G84" s="41" t="str">
-        <f>IF('FRONT-END'!G54="","",'FRONT-END'!G54)</f>
+        <f>IF('FRONT-END'!G53="","",'FRONT-END'!G53)</f>
         <v/>
       </c>
       <c r="H84" s="195" t="str">
@@ -22983,27 +22978,27 @@
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="38" t="str">
-        <f>'FRONT-END'!B56</f>
+        <f>'FRONT-END'!B55</f>
         <v>MongoDB</v>
       </c>
       <c r="C88" s="39">
-        <f>'FRONT-END'!C56</f>
+        <f>'FRONT-END'!C55</f>
         <v>6</v>
       </c>
       <c r="D88" s="39">
-        <f>'FRONT-END'!D56</f>
+        <f>'FRONT-END'!D55</f>
         <v>0</v>
       </c>
       <c r="E88" s="40">
-        <f>'FRONT-END'!E56</f>
+        <f>'FRONT-END'!E55</f>
         <v>0</v>
       </c>
       <c r="F88" s="41" t="str">
-        <f>IF('FRONT-END'!F56="","",'FRONT-END'!F56)</f>
+        <f>IF('FRONT-END'!F55="","",'FRONT-END'!F55)</f>
         <v/>
       </c>
       <c r="G88" s="41" t="str">
-        <f>IF('FRONT-END'!G56="","",'FRONT-END'!G56)</f>
+        <f>IF('FRONT-END'!G55="","",'FRONT-END'!G55)</f>
         <v/>
       </c>
       <c r="H88" s="195" t="str">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF2AEF5-F86A-485E-81B1-0C2070ED629F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D320323D-AABC-4879-B5F5-F0F23804252E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="284">
   <si>
     <t>Le commencement</t>
   </si>
@@ -3063,8 +3063,8 @@
   </sheetPr>
   <dimension ref="A2:AZ196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT25" sqref="AT25"/>
+    <sheetView tabSelected="1" topLeftCell="U7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT26" sqref="AT26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5127,10 +5127,18 @@
       <c r="AH20" s="166">
         <v>45</v>
       </c>
-      <c r="AI20" s="166"/>
-      <c r="AJ20" s="166"/>
-      <c r="AK20" s="166"/>
-      <c r="AL20" s="169"/>
+      <c r="AI20" s="166" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ20" s="166">
+        <v>46</v>
+      </c>
+      <c r="AK20" s="166" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL20" s="169" t="s">
+        <v>255</v>
+      </c>
       <c r="AP20" s="62" t="s">
         <v>158</v>
       </c>
@@ -5366,7 +5374,9 @@
       <c r="AD22" s="169" t="s">
         <v>255</v>
       </c>
-      <c r="AF22" s="169"/>
+      <c r="AF22" s="183">
+        <v>46</v>
+      </c>
       <c r="AG22" s="166"/>
       <c r="AH22" s="166"/>
       <c r="AI22" s="166"/>
@@ -5752,6 +5762,9 @@
       </c>
       <c r="AS25" s="45" t="s">
         <v>140</v>
+      </c>
+      <c r="AT25" s="180" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="2:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19607,9 +19620,7 @@
   </sheetPr>
   <dimension ref="B2:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19654,11 +19665,11 @@
       </c>
       <c r="D3" s="45">
         <f>SUM(D4:D7)</f>
-        <v>117.5</v>
+        <v>123.5</v>
       </c>
       <c r="E3" s="46">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>0.43172268907563027</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="F3" s="47">
         <f>IF(MIN(F4:F7)=0,"-",MIN(F4:F7))</f>
@@ -19668,9 +19679,9 @@
         <f>IF(COUNTBLANK(G4:G7)&lt;&gt;0,"-",MAX(G4:G7))</f>
         <v>-</v>
       </c>
-      <c r="H3" s="187" t="e">
+      <c r="H3" s="187">
         <f>AVERAGE(H4:H7)</f>
-        <v>#DIV/0!</v>
+        <v>0.56647398843930641</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -19712,23 +19723,23 @@
       </c>
       <c r="D5" s="53">
         <f>D29</f>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E5" s="54">
         <f>E29</f>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="F5" s="53">
         <f>IF(F29="-","",F29)</f>
         <v>43863</v>
       </c>
-      <c r="G5" s="53" t="str">
+      <c r="G5" s="53">
         <f>IF(G29="-","",G29)</f>
-        <v/>
-      </c>
-      <c r="H5" s="189" t="str">
+        <v>43905</v>
+      </c>
+      <c r="H5" s="189">
         <f>IF(G5="","",1-D5/C5)</f>
-        <v/>
+        <v>0.56647398843930641</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -20035,7 +20046,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="53">
-        <f t="shared" si="2"/>
+        <f>D38</f>
         <v>5</v>
       </c>
       <c r="E18" s="54">
@@ -20125,7 +20136,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="53">
-        <f t="shared" si="3"/>
+        <f>D60</f>
         <v>0</v>
       </c>
       <c r="E21" s="54">
@@ -20314,23 +20325,23 @@
       </c>
       <c r="D29" s="45">
         <f>SUM(D30:D46)</f>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E29" s="46">
         <f>SUM(E30:E46)/COUNTA(B30:B46)</f>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="F29" s="47">
         <f>IF(MIN(F30:F46)=0,"-",MIN(F30:F46))</f>
         <v>43863</v>
       </c>
-      <c r="G29" s="45" t="str">
+      <c r="G29" s="45">
         <f>IF(COUNTBLANK(G30:G46)&lt;&gt;0,"-",MAX(G30:G46))</f>
-        <v>-</v>
+        <v>43905</v>
       </c>
       <c r="H29" s="187">
         <f>AVERAGE(H30:H46)</f>
-        <v>0.50120287698412691</v>
+        <v>0.51289682539682524</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -20760,15 +20771,21 @@
       <c r="C46" s="63">
         <v>20</v>
       </c>
-      <c r="D46" s="63"/>
+      <c r="D46" s="63">
+        <v>6</v>
+      </c>
       <c r="E46" s="64">
-        <v>0</v>
-      </c>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="192" t="str">
+        <v>1</v>
+      </c>
+      <c r="F46" s="65">
+        <v>43902</v>
+      </c>
+      <c r="G46" s="65">
+        <v>43905</v>
+      </c>
+      <c r="H46" s="192">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -21410,11 +21427,11 @@
       </c>
       <c r="D8" s="43">
         <f t="shared" ref="D8:E8" si="0">D79</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E8" s="44">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="F8" s="70">
         <f>IF(F79="-","",F79)</f>
@@ -22753,11 +22770,11 @@
       </c>
       <c r="D79" s="18">
         <f>SUM(D80:D90)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E79" s="19">
         <f>SUM(E80:E90)/COUNTA(B80:B90)</f>
-        <v>0.18181818181818182</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="F79" s="20">
         <f>IF(MIN(F80:F90)=0,"-",MIN(F80:F90))</f>
@@ -22769,7 +22786,7 @@
       </c>
       <c r="H79" s="199">
         <f>AVERAGE(H80:H90)</f>
-        <v>0.67142857142857137</v>
+        <v>0.68095238095238086</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
@@ -22843,23 +22860,23 @@
       </c>
       <c r="D82" s="39">
         <f>'FRONT-END'!D46</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E82" s="40">
         <f>'FRONT-END'!E46</f>
-        <v>0</v>
-      </c>
-      <c r="F82" s="41" t="str">
+        <v>1</v>
+      </c>
+      <c r="F82" s="41">
         <f>IF('FRONT-END'!F46="","",'FRONT-END'!F46)</f>
-        <v/>
-      </c>
-      <c r="G82" s="41" t="str">
+        <v>43902</v>
+      </c>
+      <c r="G82" s="41">
         <f>IF('FRONT-END'!G46="","",'FRONT-END'!G46)</f>
-        <v/>
-      </c>
-      <c r="H82" s="195" t="str">
+        <v>43905</v>
+      </c>
+      <c r="H82" s="195">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D320323D-AABC-4879-B5F5-F0F23804252E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4405F56B-369F-4E17-B047-0F42094343C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="284">
   <si>
     <t>Le commencement</t>
   </si>
@@ -3063,8 +3063,8 @@
   </sheetPr>
   <dimension ref="A2:AZ196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT26" sqref="AT26"/>
+    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5377,8 +5377,12 @@
       <c r="AF22" s="183">
         <v>46</v>
       </c>
-      <c r="AG22" s="166"/>
-      <c r="AH22" s="166"/>
+      <c r="AG22" s="166">
+        <v>13</v>
+      </c>
+      <c r="AH22" s="166">
+        <v>13</v>
+      </c>
       <c r="AI22" s="166"/>
       <c r="AJ22" s="166"/>
       <c r="AK22" s="166"/>
@@ -5861,6 +5865,9 @@
       </c>
       <c r="AS26" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="AT26" s="180" t="s">
+        <v>277</v>
       </c>
       <c r="AZ26" s="178" t="s">
         <v>92</v>
@@ -18686,11 +18693,11 @@
       </c>
       <c r="D3" s="4">
         <f>SUM(D4:D28)</f>
-        <v>50.5</v>
+        <v>53.5</v>
       </c>
       <c r="E3" s="6">
         <f>SUM(E4:E28)/COUNTA(B4:B28)</f>
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="F3" s="5">
         <f>IF(MIN(F4:F28)=0,"-",MIN(F4:F28))</f>
@@ -18702,7 +18709,7 @@
       </c>
       <c r="H3" s="185">
         <f>AVERAGE(H4:H28)</f>
-        <v>0.58685064935064934</v>
+        <v>0.59002976190476186</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -18994,15 +19001,21 @@
       <c r="C16" s="13">
         <v>8</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="13">
+        <v>3</v>
+      </c>
       <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="184" t="str">
+        <v>1</v>
+      </c>
+      <c r="F16" s="35">
+        <v>43906</v>
+      </c>
+      <c r="G16" s="35">
+        <v>43907</v>
+      </c>
+      <c r="H16" s="184">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.625</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -21282,11 +21295,11 @@
       </c>
       <c r="D3" s="18">
         <f>SUM(D4:D7)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="19">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>0</v>
+        <v>1.4705882352941176E-2</v>
       </c>
       <c r="F3" s="20">
         <f>IF(MIN(F4:F8)=0,"-",MIN(F4:F8))</f>
@@ -21311,15 +21324,15 @@
       </c>
       <c r="D4" s="32">
         <f>D11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="33">
         <f>E11</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="34" t="str">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="F4" s="34">
         <f>IF(F11="-","",F11)</f>
-        <v/>
+        <v>43906</v>
       </c>
       <c r="G4" s="34" t="str">
         <f>IF(G11="-","",G11)</f>
@@ -21480,23 +21493,23 @@
       </c>
       <c r="D11" s="18">
         <f>SUM(D12:D28)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="19">
         <f>SUM(E12:E28)/COUNTA(B12:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="20" t="str">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="F11" s="20">
         <f>IF(MIN(F12:F28)=0,"-",MIN(F12:F28))</f>
-        <v>-</v>
+        <v>43906</v>
       </c>
       <c r="G11" s="18" t="str">
         <f>IF(COUNTBLANK(G12:G28)&lt;&gt;0,"-",MAX(G12:G28))</f>
         <v>-</v>
       </c>
-      <c r="H11" s="199" t="e">
+      <c r="H11" s="199">
         <f>AVERAGE(H12:H28)</f>
-        <v>#DIV/0!</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -21510,23 +21523,23 @@
       </c>
       <c r="D12" s="32">
         <f>'LE COMMENCEMENT'!D16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="33">
         <f>'LE COMMENCEMENT'!E16</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="34" t="str">
+        <v>1</v>
+      </c>
+      <c r="F12" s="34">
         <f>IF('LE COMMENCEMENT'!F16="","",'LE COMMENCEMENT'!F16)</f>
-        <v/>
-      </c>
-      <c r="G12" s="34" t="str">
+        <v>43906</v>
+      </c>
+      <c r="G12" s="34">
         <f>IF('LE COMMENCEMENT'!G16="","",'LE COMMENCEMENT'!G16)</f>
-        <v/>
-      </c>
-      <c r="H12" s="194" t="str">
+        <v>43907</v>
+      </c>
+      <c r="H12" s="194">
         <f t="shared" ref="H12:H28" si="1">IF(G12="","",1-D12/C12)</f>
-        <v/>
+        <v>0.625</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4405F56B-369F-4E17-B047-0F42094343C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD5D989-DAD9-41F1-B905-EDFC3D9C52EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="284">
   <si>
     <t>Le commencement</t>
   </si>
@@ -3064,7 +3064,7 @@
   <dimension ref="A2:AZ196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI22" sqref="AI22"/>
+      <selection activeCell="AT28" sqref="AT28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5383,10 +5383,18 @@
       <c r="AH22" s="166">
         <v>13</v>
       </c>
-      <c r="AI22" s="166"/>
-      <c r="AJ22" s="166"/>
-      <c r="AK22" s="166"/>
-      <c r="AL22" s="169"/>
+      <c r="AI22" s="166" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ22" s="166" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK22" s="166" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL22" s="169" t="s">
+        <v>255</v>
+      </c>
       <c r="AP22" s="62" t="s">
         <v>159</v>
       </c>
@@ -5613,8 +5621,12 @@
       <c r="AD24" s="169">
         <v>51</v>
       </c>
-      <c r="AF24" s="169"/>
-      <c r="AG24" s="166"/>
+      <c r="AF24" s="169" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG24" s="166">
+        <v>14</v>
+      </c>
       <c r="AH24" s="166"/>
       <c r="AI24" s="166"/>
       <c r="AJ24" s="166"/>
@@ -5999,6 +6011,9 @@
       </c>
       <c r="AS27" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="AT27" s="180" t="s">
+        <v>277</v>
       </c>
       <c r="AZ27" s="1" t="s">
         <v>268</v>
@@ -18644,7 +18659,9 @@
   </sheetPr>
   <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18693,11 +18710,11 @@
       </c>
       <c r="D3" s="4">
         <f>SUM(D4:D28)</f>
-        <v>53.5</v>
+        <v>56.5</v>
       </c>
       <c r="E3" s="6">
         <f>SUM(E4:E28)/COUNTA(B4:B28)</f>
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="F3" s="5">
         <f>IF(MIN(F4:F28)=0,"-",MIN(F4:F28))</f>
@@ -18709,7 +18726,7 @@
       </c>
       <c r="H3" s="185">
         <f>AVERAGE(H4:H28)</f>
-        <v>0.59002976190476186</v>
+        <v>0.59271978021978022</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -19025,15 +19042,21 @@
       <c r="C17" s="13">
         <v>8</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="13">
+        <v>3</v>
+      </c>
       <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="184" t="str">
+        <v>1</v>
+      </c>
+      <c r="F17" s="35">
+        <v>43913</v>
+      </c>
+      <c r="G17" s="35">
+        <v>43913</v>
+      </c>
+      <c r="H17" s="184">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.625</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -21295,11 +21318,11 @@
       </c>
       <c r="D3" s="18">
         <f>SUM(D4:D7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="19">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>1.4705882352941176E-2</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="F3" s="20">
         <f>IF(MIN(F4:F8)=0,"-",MIN(F4:F8))</f>
@@ -21324,11 +21347,11 @@
       </c>
       <c r="D4" s="32">
         <f>D11</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" s="33">
         <f>E11</f>
-        <v>5.8823529411764705E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="F4" s="34">
         <f>IF(F11="-","",F11)</f>
@@ -21493,11 +21516,11 @@
       </c>
       <c r="D11" s="18">
         <f>SUM(D12:D28)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E11" s="19">
         <f>SUM(E12:E28)/COUNTA(B12:B28)</f>
-        <v>5.8823529411764705E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="F11" s="20">
         <f>IF(MIN(F12:F28)=0,"-",MIN(F12:F28))</f>
@@ -21553,23 +21576,23 @@
       </c>
       <c r="D13" s="39">
         <f>'LE COMMENCEMENT'!D17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="40">
         <f>'LE COMMENCEMENT'!E17</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="41" t="str">
+        <v>1</v>
+      </c>
+      <c r="F13" s="41">
         <f>IF('LE COMMENCEMENT'!F17="","",'LE COMMENCEMENT'!F17)</f>
-        <v/>
-      </c>
-      <c r="G13" s="41" t="str">
+        <v>43913</v>
+      </c>
+      <c r="G13" s="41">
         <f>IF('LE COMMENCEMENT'!G17="","",'LE COMMENCEMENT'!G17)</f>
-        <v/>
-      </c>
-      <c r="H13" s="195" t="str">
+        <v>43913</v>
+      </c>
+      <c r="H13" s="195">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.625</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD5D989-DAD9-41F1-B905-EDFC3D9C52EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0A764A-B174-4AA8-8279-7BF925B6DF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="284">
   <si>
     <t>Le commencement</t>
   </si>
@@ -2501,7 +2501,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -3064,7 +3064,7 @@
   <dimension ref="A2:AZ196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT28" sqref="AT28"/>
+      <selection activeCell="AT29" sqref="AT29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5627,7 +5627,9 @@
       <c r="AG24" s="166">
         <v>14</v>
       </c>
-      <c r="AH24" s="166"/>
+      <c r="AH24" s="166">
+        <v>15</v>
+      </c>
       <c r="AI24" s="166"/>
       <c r="AJ24" s="166"/>
       <c r="AK24" s="166"/>
@@ -6113,6 +6115,9 @@
       </c>
       <c r="AS28" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="AT28" s="180" t="s">
+        <v>277</v>
       </c>
       <c r="AZ28" s="179" t="s">
         <v>269</v>
@@ -18660,7 +18665,7 @@
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -18710,11 +18715,11 @@
       </c>
       <c r="D3" s="4">
         <f>SUM(D4:D28)</f>
-        <v>56.5</v>
+        <v>66.5</v>
       </c>
       <c r="E3" s="6">
         <f>SUM(E4:E28)/COUNTA(B4:B28)</f>
-        <v>0.52</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F3" s="5">
         <f>IF(MIN(F4:F28)=0,"-",MIN(F4:F28))</f>
@@ -18726,7 +18731,7 @@
       </c>
       <c r="H3" s="185">
         <f>AVERAGE(H4:H28)</f>
-        <v>0.59271978021978022</v>
+        <v>0.57716836734693877</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -19066,15 +19071,21 @@
       <c r="C18" s="13">
         <v>16</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13">
+        <v>10</v>
+      </c>
       <c r="E18" s="14">
-        <v>0</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="184" t="str">
+        <v>1</v>
+      </c>
+      <c r="F18" s="35">
+        <v>43914</v>
+      </c>
+      <c r="G18" s="35">
+        <v>43916</v>
+      </c>
+      <c r="H18" s="184">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.375</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -21318,11 +21329,11 @@
       </c>
       <c r="D3" s="18">
         <f>SUM(D4:D7)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3" s="19">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>4.4117647058823532E-2</v>
       </c>
       <c r="F3" s="20">
         <f>IF(MIN(F4:F8)=0,"-",MIN(F4:F8))</f>
@@ -21347,11 +21358,11 @@
       </c>
       <c r="D4" s="32">
         <f>D11</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E4" s="33">
         <f>E11</f>
-        <v>0.11764705882352941</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="F4" s="34">
         <f>IF(F11="-","",F11)</f>
@@ -21516,11 +21527,11 @@
       </c>
       <c r="D11" s="18">
         <f>SUM(D12:D28)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E11" s="19">
         <f>SUM(E12:E28)/COUNTA(B12:B28)</f>
-        <v>0.11764705882352941</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="F11" s="20">
         <f>IF(MIN(F12:F28)=0,"-",MIN(F12:F28))</f>
@@ -21532,7 +21543,7 @@
       </c>
       <c r="H11" s="199">
         <f>AVERAGE(H12:H28)</f>
-        <v>0.625</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -21606,23 +21617,23 @@
       </c>
       <c r="D14" s="39">
         <f>'LE COMMENCEMENT'!D18</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E14" s="40">
         <f>'LE COMMENCEMENT'!E18</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="41" t="str">
+        <v>1</v>
+      </c>
+      <c r="F14" s="41">
         <f>IF('LE COMMENCEMENT'!F18="","",'LE COMMENCEMENT'!F18)</f>
-        <v/>
-      </c>
-      <c r="G14" s="41" t="str">
+        <v>43914</v>
+      </c>
+      <c r="G14" s="41">
         <f>IF('LE COMMENCEMENT'!G18="","",'LE COMMENCEMENT'!G18)</f>
-        <v/>
-      </c>
-      <c r="H14" s="195" t="str">
+        <v>43916</v>
+      </c>
+      <c r="H14" s="195">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.375</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0A764A-B174-4AA8-8279-7BF925B6DF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D577C2E9-7A8B-461E-93B8-F29411FC02E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="284">
   <si>
     <t>Le commencement</t>
   </si>
@@ -3064,7 +3064,7 @@
   <dimension ref="A2:AZ196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT29" sqref="AT29"/>
+      <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5630,10 +5630,18 @@
       <c r="AH24" s="166">
         <v>15</v>
       </c>
-      <c r="AI24" s="166"/>
-      <c r="AJ24" s="166"/>
-      <c r="AK24" s="166"/>
-      <c r="AL24" s="169"/>
+      <c r="AI24" s="166">
+        <v>15</v>
+      </c>
+      <c r="AJ24" s="166">
+        <v>15</v>
+      </c>
+      <c r="AK24" s="166" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL24" s="169" t="s">
+        <v>255</v>
+      </c>
       <c r="AP24" s="62" t="s">
         <v>82</v>
       </c>
@@ -5860,9 +5868,15 @@
       <c r="AD26" s="169">
         <v>54</v>
       </c>
-      <c r="AF26" s="169"/>
-      <c r="AG26" s="166"/>
-      <c r="AH26" s="166"/>
+      <c r="AF26" s="169" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG26" s="166" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH26" s="166">
+        <v>16</v>
+      </c>
       <c r="AI26" s="166"/>
       <c r="AJ26" s="166"/>
       <c r="AK26" s="166"/>
@@ -6249,6 +6263,9 @@
       </c>
       <c r="AS29" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="AT29" s="180" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="2:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18665,7 +18682,7 @@
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -18715,11 +18732,11 @@
       </c>
       <c r="D3" s="4">
         <f>SUM(D4:D28)</f>
-        <v>66.5</v>
+        <v>70.5</v>
       </c>
       <c r="E3" s="6">
         <f>SUM(E4:E28)/COUNTA(B4:B28)</f>
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="F3" s="5">
         <f>IF(MIN(F4:F28)=0,"-",MIN(F4:F28))</f>
@@ -18731,7 +18748,7 @@
       </c>
       <c r="H3" s="185">
         <f>AVERAGE(H4:H28)</f>
-        <v>0.57716836734693877</v>
+        <v>0.58313492063492056</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -19095,15 +19112,21 @@
       <c r="C19" s="13">
         <v>12</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="13">
+        <v>4</v>
+      </c>
       <c r="E19" s="14">
-        <v>0</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="184" t="str">
+        <v>1</v>
+      </c>
+      <c r="F19" s="35">
+        <v>43921</v>
+      </c>
+      <c r="G19" s="35">
+        <v>43921</v>
+      </c>
+      <c r="H19" s="184">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -21280,7 +21303,9 @@
   </sheetPr>
   <dimension ref="B1:I90"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21329,11 +21354,11 @@
       </c>
       <c r="D3" s="18">
         <f>SUM(D4:D7)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="19">
         <f>SUM(E4:E7)/COUNTA(B4:B7)</f>
-        <v>4.4117647058823532E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="F3" s="20">
         <f>IF(MIN(F4:F8)=0,"-",MIN(F4:F8))</f>
@@ -21358,11 +21383,11 @@
       </c>
       <c r="D4" s="32">
         <f>D11</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E4" s="33">
         <f>E11</f>
-        <v>0.17647058823529413</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="F4" s="34">
         <f>IF(F11="-","",F11)</f>
@@ -21527,11 +21552,11 @@
       </c>
       <c r="D11" s="18">
         <f>SUM(D12:D28)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E11" s="19">
         <f>SUM(E12:E28)/COUNTA(B12:B28)</f>
-        <v>0.17647058823529413</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="F11" s="20">
         <f>IF(MIN(F12:F28)=0,"-",MIN(F12:F28))</f>
@@ -21543,7 +21568,7 @@
       </c>
       <c r="H11" s="199">
         <f>AVERAGE(H12:H28)</f>
-        <v>0.54166666666666663</v>
+        <v>0.57291666666666674</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -21647,23 +21672,23 @@
       </c>
       <c r="D15" s="39">
         <f>'LE COMMENCEMENT'!D19</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="40">
         <f>'LE COMMENCEMENT'!E19</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="41" t="str">
+        <v>1</v>
+      </c>
+      <c r="F15" s="41">
         <f>IF('LE COMMENCEMENT'!F19="","",'LE COMMENCEMENT'!F19)</f>
-        <v/>
-      </c>
-      <c r="G15" s="41" t="str">
+        <v>43921</v>
+      </c>
+      <c r="G15" s="41">
         <f>IF('LE COMMENCEMENT'!G19="","",'LE COMMENCEMENT'!G19)</f>
-        <v/>
-      </c>
-      <c r="H15" s="195" t="str">
+        <v>43921</v>
+      </c>
+      <c r="H15" s="195">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB8741-7AD4-4D68-A8BE-CDCC0A02D587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB10C8AC-26E2-438E-AD51-AC9764E7336F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="267">
   <si>
     <t>Le commencement</t>
   </si>
@@ -2458,8 +2452,8 @@
   </sheetPr>
   <dimension ref="A2:AZ208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG32" sqref="AG32"/>
+    <sheetView tabSelected="1" topLeftCell="O16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP42" sqref="AP42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6079,9 +6073,15 @@
       <c r="AF32" s="76">
         <v>139</v>
       </c>
-      <c r="AG32" s="73"/>
-      <c r="AH32" s="73"/>
-      <c r="AI32" s="73"/>
+      <c r="AG32" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH32" s="73">
+        <v>30</v>
+      </c>
+      <c r="AI32" s="73">
+        <v>31</v>
+      </c>
       <c r="AJ32" s="73"/>
       <c r="AK32" s="73"/>
       <c r="AL32" s="76"/>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="AT40" s="87" t="str">
         <f t="shared" si="153"/>
-        <v/>
+        <v>OK</v>
       </c>
     </row>
     <row r="41" spans="2:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="AT41" s="87" t="str">
         <f t="shared" si="153"/>
-        <v/>
+        <v>OK</v>
       </c>
     </row>
     <row r="42" spans="2:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB10C8AC-26E2-438E-AD51-AC9764E7336F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF506E44-089E-4466-B924-21BC0E084DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="267">
   <si>
     <t>Le commencement</t>
   </si>
@@ -2453,7 +2453,7 @@
   <dimension ref="A2:AZ208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP42" sqref="AP42"/>
+      <selection activeCell="AT43" sqref="AT43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6082,9 +6082,15 @@
       <c r="AI32" s="73">
         <v>31</v>
       </c>
-      <c r="AJ32" s="73"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="76"/>
+      <c r="AJ32" s="73">
+        <v>32</v>
+      </c>
+      <c r="AK32" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL32" s="76" t="s">
+        <v>231</v>
+      </c>
       <c r="AP32" s="12" t="s">
         <v>261</v>
       </c>
@@ -6317,9 +6323,15 @@
       <c r="AD34" s="76">
         <v>33</v>
       </c>
-      <c r="AF34" s="76"/>
-      <c r="AG34" s="73"/>
-      <c r="AH34" s="73"/>
+      <c r="AF34" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG34" s="73">
+        <v>32</v>
+      </c>
+      <c r="AH34" s="73">
+        <v>32</v>
+      </c>
       <c r="AI34" s="73"/>
       <c r="AJ34" s="73"/>
       <c r="AK34" s="73"/>
@@ -7294,7 +7306,7 @@
       </c>
       <c r="AT42" s="87" t="str">
         <f t="shared" si="153"/>
-        <v/>
+        <v>OK</v>
       </c>
     </row>
     <row r="43" spans="2:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF506E44-089E-4466-B924-21BC0E084DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3D77A1-EE27-40E4-A170-8AE5B384DBD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -2453,7 +2453,7 @@
   <dimension ref="A2:AZ208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT43" sqref="AT43"/>
+      <selection activeCell="AJ34" sqref="AJ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6332,7 +6332,9 @@
       <c r="AH34" s="73">
         <v>32</v>
       </c>
-      <c r="AI34" s="73"/>
+      <c r="AI34" s="73">
+        <v>33</v>
+      </c>
       <c r="AJ34" s="73"/>
       <c r="AK34" s="73"/>
       <c r="AL34" s="76"/>
@@ -7440,7 +7442,7 @@
       </c>
       <c r="AT43" s="87" t="str">
         <f t="shared" si="153"/>
-        <v/>
+        <v>OK</v>
       </c>
     </row>
     <row r="44" spans="2:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3D77A1-EE27-40E4-A170-8AE5B384DBD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5FDD20-BE26-4E21-B4C3-57C0E854744B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="267">
   <si>
     <t>Le commencement</t>
   </si>
@@ -1916,33 +1916,19 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2020,11 +2006,25 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2452,8 +2452,8 @@
   </sheetPr>
   <dimension ref="A2:AZ208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ34" sqref="AJ34"/>
+    <sheetView tabSelected="1" topLeftCell="P27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5474,7 +5474,7 @@
         <v>8</v>
       </c>
       <c r="AQ27" s="8">
-        <f t="shared" ref="AQ27:AQ56" si="119">INDEX(E:E,MATCH(AP27,D:D,0))</f>
+        <f t="shared" ref="AQ27:AQ37" si="119">INDEX(E:E,MATCH(AP27,D:D,0))</f>
         <v>8</v>
       </c>
       <c r="AR27" s="56">
@@ -5482,7 +5482,7 @@
         <v>14</v>
       </c>
       <c r="AS27" s="3" t="str">
-        <f t="shared" ref="AS27:AS56" si="120">INDEX(G:G,MATCH(AP27,D:D,0))</f>
+        <f t="shared" ref="AS27:AS37" si="120">INDEX(G:G,MATCH(AP27,D:D,0))</f>
         <v>Le commencement</v>
       </c>
       <c r="AT27" s="87" t="str">
@@ -5991,7 +5991,7 @@
         <v>Excel VBA</v>
       </c>
       <c r="AT31" s="87" t="str">
-        <f t="shared" ref="AT31:AT94" si="153">IF(COUNTIF(AF:AL,AR31)&lt;&gt;0,"OK","")</f>
+        <f t="shared" ref="AT31:AT45" si="153">IF(COUNTIF(AF:AL,AR31)&lt;&gt;0,"OK","")</f>
         <v>OK</v>
       </c>
       <c r="AZ31" s="1" t="s">
@@ -6335,9 +6335,15 @@
       <c r="AI34" s="73">
         <v>33</v>
       </c>
-      <c r="AJ34" s="73"/>
-      <c r="AK34" s="73"/>
-      <c r="AL34" s="76"/>
+      <c r="AJ34" s="73">
+        <v>34</v>
+      </c>
+      <c r="AK34" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL34" s="76">
+        <v>35</v>
+      </c>
       <c r="AP34" s="12" t="s">
         <v>263</v>
       </c>
@@ -6559,16 +6565,16 @@
         <v>35</v>
       </c>
       <c r="AA36" s="73">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="AB36" s="73">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="AC36" s="73">
-        <v>72</v>
-      </c>
-      <c r="AD36" s="76">
-        <v>73</v>
+        <v>47</v>
+      </c>
+      <c r="AD36" s="76" t="s">
+        <v>231</v>
       </c>
       <c r="AF36" s="76"/>
       <c r="AG36" s="73"/>
@@ -6789,25 +6795,25 @@
         <v>22</v>
       </c>
       <c r="X38" s="76">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="Y38" s="73">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="Z38" s="73">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="AA38" s="73">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AB38" s="73">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AC38" s="73">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AD38" s="76">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="AF38" s="76"/>
       <c r="AG38" s="73"/>
@@ -7025,22 +7031,22 @@
         <v>22</v>
       </c>
       <c r="X40" s="76">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="Y40" s="73">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="Z40" s="73">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="AA40" s="73">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="AB40" s="73">
-        <v>47</v>
-      </c>
-      <c r="AC40" s="73">
-        <v>47</v>
+        <v>126</v>
+      </c>
+      <c r="AC40" s="73" t="s">
+        <v>231</v>
       </c>
       <c r="AD40" s="76" t="s">
         <v>231</v>
@@ -7270,19 +7276,19 @@
         <v>231</v>
       </c>
       <c r="Z42" s="73">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="AA42" s="73">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="AB42" s="73">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="AC42" s="73">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="AD42" s="76">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="AF42" s="76"/>
       <c r="AG42" s="73"/>
@@ -7505,9 +7511,7 @@
         <f t="shared" ref="V44" si="254">SUM(O44:U44)</f>
         <v>22</v>
       </c>
-      <c r="X44" s="76">
-        <v>50</v>
-      </c>
+      <c r="X44" s="76"/>
       <c r="Y44" s="73"/>
       <c r="Z44" s="73"/>
       <c r="AA44" s="73"/>
@@ -7538,7 +7542,7 @@
       </c>
       <c r="AT44" s="87" t="str">
         <f t="shared" si="153"/>
-        <v/>
+        <v>OK</v>
       </c>
     </row>
     <row r="45" spans="2:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7672,7 +7676,7 @@
       </c>
       <c r="AT45" s="87" t="str">
         <f t="shared" si="153"/>
-        <v/>
+        <v>OK</v>
       </c>
     </row>
     <row r="46" spans="2:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7743,23 +7747,23 @@
       <c r="AJ46" s="73"/>
       <c r="AK46" s="73"/>
       <c r="AL46" s="76"/>
-      <c r="AP46" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ46" s="49">
-        <f t="shared" si="119"/>
+      <c r="AP46" s="91" t="s">
         <v>6</v>
       </c>
+      <c r="AQ46" s="92">
+        <f t="shared" ref="AQ46:AQ109" si="271">INDEX(E:E,MATCH(AP46,D:D,0))</f>
+        <v>12</v>
+      </c>
       <c r="AR46" s="56">
-        <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="AS46" s="38" t="str">
-        <f t="shared" si="120"/>
-        <v>Data Science</v>
+        <f t="shared" ref="AR46:AR109" si="272">INDEX(F:F,MATCH(AP46,D:D,0))</f>
+        <v>12</v>
+      </c>
+      <c r="AS46" s="93" t="str">
+        <f t="shared" ref="AS46:AS109" si="273">INDEX(G:G,MATCH(AP46,D:D,0))</f>
+        <v>Le commencement</v>
       </c>
       <c r="AT46" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" ref="AT46:AT109" si="274">IF(COUNTIF(AF:AL,AR46)&lt;&gt;0,"OK","")</f>
         <v/>
       </c>
     </row>
@@ -7801,99 +7805,99 @@
         <v>43997</v>
       </c>
       <c r="Q47" s="75">
-        <f t="shared" ref="Q47:U47" si="271">P47+1</f>
+        <f t="shared" ref="Q47:U47" si="275">P47+1</f>
         <v>43998</v>
       </c>
       <c r="R47" s="75">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>43999</v>
       </c>
       <c r="S47" s="75">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>44000</v>
       </c>
       <c r="T47" s="75">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>44001</v>
       </c>
       <c r="U47" s="75">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>44002</v>
       </c>
       <c r="V47" s="54"/>
       <c r="X47" s="74">
-        <f t="shared" ref="X47" si="272">AD45+1</f>
+        <f t="shared" ref="X47" si="276">AD45+1</f>
         <v>44101</v>
       </c>
       <c r="Y47" s="74">
-        <f t="shared" ref="Y47" si="273">X47+1</f>
+        <f t="shared" ref="Y47" si="277">X47+1</f>
         <v>44102</v>
       </c>
       <c r="Z47" s="74">
-        <f t="shared" ref="Z47" si="274">Y47+1</f>
+        <f t="shared" ref="Z47" si="278">Y47+1</f>
         <v>44103</v>
       </c>
       <c r="AA47" s="74">
-        <f t="shared" ref="AA47" si="275">Z47+1</f>
+        <f t="shared" ref="AA47" si="279">Z47+1</f>
         <v>44104</v>
       </c>
       <c r="AB47" s="74">
-        <f t="shared" ref="AB47" si="276">AA47+1</f>
+        <f t="shared" ref="AB47" si="280">AA47+1</f>
         <v>44105</v>
       </c>
       <c r="AC47" s="74">
-        <f t="shared" ref="AC47" si="277">AB47+1</f>
+        <f t="shared" ref="AC47" si="281">AB47+1</f>
         <v>44106</v>
       </c>
       <c r="AD47" s="74">
-        <f t="shared" ref="AD47" si="278">AC47+1</f>
+        <f t="shared" ref="AD47" si="282">AC47+1</f>
         <v>44107</v>
       </c>
       <c r="AF47" s="74">
-        <f t="shared" ref="AF47" si="279">AL45+1</f>
+        <f t="shared" ref="AF47" si="283">AL45+1</f>
         <v>44101</v>
       </c>
       <c r="AG47" s="74">
-        <f t="shared" ref="AG47" si="280">AF47+1</f>
+        <f t="shared" ref="AG47" si="284">AF47+1</f>
         <v>44102</v>
       </c>
       <c r="AH47" s="74">
-        <f t="shared" ref="AH47" si="281">AG47+1</f>
+        <f t="shared" ref="AH47" si="285">AG47+1</f>
         <v>44103</v>
       </c>
       <c r="AI47" s="74">
-        <f t="shared" ref="AI47" si="282">AH47+1</f>
+        <f t="shared" ref="AI47" si="286">AH47+1</f>
         <v>44104</v>
       </c>
       <c r="AJ47" s="74">
-        <f t="shared" ref="AJ47" si="283">AI47+1</f>
+        <f t="shared" ref="AJ47" si="287">AI47+1</f>
         <v>44105</v>
       </c>
       <c r="AK47" s="74">
-        <f t="shared" ref="AK47" si="284">AJ47+1</f>
+        <f t="shared" ref="AK47" si="288">AJ47+1</f>
         <v>44106</v>
       </c>
       <c r="AL47" s="74">
-        <f t="shared" ref="AL47" si="285">AK47+1</f>
+        <f t="shared" ref="AL47" si="289">AK47+1</f>
         <v>44107</v>
       </c>
-      <c r="AP47" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ47" s="14">
-        <f t="shared" si="119"/>
-        <v>12</v>
+      <c r="AP47" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ47" s="49">
+        <f t="shared" si="271"/>
+        <v>14</v>
       </c>
       <c r="AR47" s="56">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="AS47" s="11" t="str">
-        <f t="shared" si="120"/>
-        <v>Data Science</v>
+        <f t="shared" si="272"/>
+        <v>47</v>
+      </c>
+      <c r="AS47" s="38" t="str">
+        <f t="shared" si="273"/>
+        <v>SQL com MySQL</v>
       </c>
       <c r="AT47" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -7948,7 +7952,7 @@
         <v>5</v>
       </c>
       <c r="V48" s="60">
-        <f t="shared" ref="V48" si="286">SUM(O48:U48)</f>
+        <f t="shared" ref="V48" si="290">SUM(O48:U48)</f>
         <v>22</v>
       </c>
       <c r="X48" s="76"/>
@@ -7966,22 +7970,22 @@
       <c r="AK48" s="73"/>
       <c r="AL48" s="76"/>
       <c r="AP48" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AQ48" s="14">
-        <f t="shared" si="119"/>
-        <v>8</v>
+        <f t="shared" si="271"/>
+        <v>10</v>
       </c>
       <c r="AR48" s="56">
-        <f t="shared" si="3"/>
-        <v>73</v>
+        <f t="shared" si="272"/>
+        <v>48</v>
       </c>
       <c r="AS48" s="11" t="str">
-        <f t="shared" si="120"/>
-        <v>Data Science</v>
+        <f t="shared" si="273"/>
+        <v>SQL com MySQL</v>
       </c>
       <c r="AT48" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -8023,99 +8027,99 @@
         <v>44004</v>
       </c>
       <c r="Q49" s="75">
-        <f t="shared" ref="Q49:U49" si="287">P49+1</f>
+        <f t="shared" ref="Q49:U49" si="291">P49+1</f>
         <v>44005</v>
       </c>
       <c r="R49" s="75">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>44006</v>
       </c>
       <c r="S49" s="75">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>44007</v>
       </c>
       <c r="T49" s="75">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>44008</v>
       </c>
       <c r="U49" s="75">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>44009</v>
       </c>
       <c r="V49" s="54"/>
       <c r="X49" s="74">
-        <f t="shared" ref="X49" si="288">AD47+1</f>
+        <f t="shared" ref="X49" si="292">AD47+1</f>
         <v>44108</v>
       </c>
       <c r="Y49" s="74">
-        <f t="shared" ref="Y49" si="289">X49+1</f>
+        <f t="shared" ref="Y49" si="293">X49+1</f>
         <v>44109</v>
       </c>
       <c r="Z49" s="74">
-        <f t="shared" ref="Z49" si="290">Y49+1</f>
+        <f t="shared" ref="Z49" si="294">Y49+1</f>
         <v>44110</v>
       </c>
       <c r="AA49" s="74">
-        <f t="shared" ref="AA49" si="291">Z49+1</f>
+        <f t="shared" ref="AA49" si="295">Z49+1</f>
         <v>44111</v>
       </c>
       <c r="AB49" s="74">
-        <f t="shared" ref="AB49" si="292">AA49+1</f>
+        <f t="shared" ref="AB49" si="296">AA49+1</f>
         <v>44112</v>
       </c>
       <c r="AC49" s="74">
-        <f t="shared" ref="AC49" si="293">AB49+1</f>
+        <f t="shared" ref="AC49" si="297">AB49+1</f>
         <v>44113</v>
       </c>
       <c r="AD49" s="74">
-        <f t="shared" ref="AD49" si="294">AC49+1</f>
+        <f t="shared" ref="AD49" si="298">AC49+1</f>
         <v>44114</v>
       </c>
       <c r="AF49" s="74">
-        <f t="shared" ref="AF49" si="295">AL47+1</f>
+        <f t="shared" ref="AF49" si="299">AL47+1</f>
         <v>44108</v>
       </c>
       <c r="AG49" s="74">
-        <f t="shared" ref="AG49" si="296">AF49+1</f>
+        <f t="shared" ref="AG49" si="300">AF49+1</f>
         <v>44109</v>
       </c>
       <c r="AH49" s="74">
-        <f t="shared" ref="AH49" si="297">AG49+1</f>
+        <f t="shared" ref="AH49" si="301">AG49+1</f>
         <v>44110</v>
       </c>
       <c r="AI49" s="74">
-        <f t="shared" ref="AI49" si="298">AH49+1</f>
+        <f t="shared" ref="AI49" si="302">AH49+1</f>
         <v>44111</v>
       </c>
       <c r="AJ49" s="74">
-        <f t="shared" ref="AJ49" si="299">AI49+1</f>
+        <f t="shared" ref="AJ49" si="303">AI49+1</f>
         <v>44112</v>
       </c>
       <c r="AK49" s="74">
-        <f t="shared" ref="AK49" si="300">AJ49+1</f>
+        <f t="shared" ref="AK49" si="304">AJ49+1</f>
         <v>44113</v>
       </c>
       <c r="AL49" s="74">
-        <f t="shared" ref="AL49" si="301">AK49+1</f>
+        <f t="shared" ref="AL49" si="305">AK49+1</f>
         <v>44114</v>
       </c>
       <c r="AP49" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AQ49" s="14">
-        <f t="shared" si="119"/>
-        <v>12</v>
+        <f t="shared" si="271"/>
+        <v>14</v>
       </c>
       <c r="AR49" s="56">
-        <f t="shared" si="3"/>
-        <v>74</v>
+        <f t="shared" si="272"/>
+        <v>49</v>
       </c>
       <c r="AS49" s="11" t="str">
-        <f t="shared" si="120"/>
-        <v>Data Science</v>
+        <f t="shared" si="273"/>
+        <v>SQL com MySQL</v>
       </c>
       <c r="AT49" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -8170,7 +8174,7 @@
         <v>5</v>
       </c>
       <c r="V50" s="60">
-        <f t="shared" ref="V50" si="302">SUM(O50:U50)</f>
+        <f t="shared" ref="V50" si="306">SUM(O50:U50)</f>
         <v>22</v>
       </c>
       <c r="X50" s="76"/>
@@ -8187,23 +8191,23 @@
       <c r="AJ50" s="73"/>
       <c r="AK50" s="73"/>
       <c r="AL50" s="76"/>
-      <c r="AP50" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ50" s="14">
-        <f t="shared" si="119"/>
-        <v>5</v>
+      <c r="AP50" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ50" s="95">
+        <f t="shared" si="271"/>
+        <v>16</v>
       </c>
       <c r="AR50" s="56">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="AS50" s="11" t="str">
-        <f t="shared" si="120"/>
-        <v>Data Science</v>
+        <f t="shared" si="272"/>
+        <v>50</v>
+      </c>
+      <c r="AS50" s="96" t="str">
+        <f t="shared" si="273"/>
+        <v>SQL com MySQL</v>
       </c>
       <c r="AT50" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -8245,99 +8249,99 @@
         <v>44011</v>
       </c>
       <c r="Q51" s="75">
-        <f t="shared" ref="Q51:U51" si="303">P51+1</f>
+        <f t="shared" ref="Q51:U51" si="307">P51+1</f>
         <v>44012</v>
       </c>
       <c r="R51" s="75">
-        <f t="shared" si="303"/>
+        <f t="shared" si="307"/>
         <v>44013</v>
       </c>
       <c r="S51" s="75">
-        <f t="shared" si="303"/>
+        <f t="shared" si="307"/>
         <v>44014</v>
       </c>
       <c r="T51" s="75">
-        <f t="shared" si="303"/>
+        <f t="shared" si="307"/>
         <v>44015</v>
       </c>
       <c r="U51" s="75">
-        <f t="shared" si="303"/>
+        <f t="shared" si="307"/>
         <v>44016</v>
       </c>
       <c r="V51" s="54"/>
       <c r="X51" s="74">
-        <f t="shared" ref="X51" si="304">AD49+1</f>
+        <f t="shared" ref="X51" si="308">AD49+1</f>
         <v>44115</v>
       </c>
       <c r="Y51" s="74">
-        <f t="shared" ref="Y51" si="305">X51+1</f>
+        <f t="shared" ref="Y51" si="309">X51+1</f>
         <v>44116</v>
       </c>
       <c r="Z51" s="74">
-        <f t="shared" ref="Z51" si="306">Y51+1</f>
+        <f t="shared" ref="Z51" si="310">Y51+1</f>
         <v>44117</v>
       </c>
       <c r="AA51" s="74">
-        <f t="shared" ref="AA51" si="307">Z51+1</f>
+        <f t="shared" ref="AA51" si="311">Z51+1</f>
         <v>44118</v>
       </c>
       <c r="AB51" s="74">
-        <f t="shared" ref="AB51" si="308">AA51+1</f>
+        <f t="shared" ref="AB51" si="312">AA51+1</f>
         <v>44119</v>
       </c>
       <c r="AC51" s="74">
-        <f t="shared" ref="AC51" si="309">AB51+1</f>
+        <f t="shared" ref="AC51" si="313">AB51+1</f>
         <v>44120</v>
       </c>
       <c r="AD51" s="74">
-        <f t="shared" ref="AD51" si="310">AC51+1</f>
+        <f t="shared" ref="AD51" si="314">AC51+1</f>
         <v>44121</v>
       </c>
       <c r="AF51" s="74">
-        <f t="shared" ref="AF51" si="311">AL49+1</f>
+        <f t="shared" ref="AF51" si="315">AL49+1</f>
         <v>44115</v>
       </c>
       <c r="AG51" s="74">
-        <f t="shared" ref="AG51" si="312">AF51+1</f>
+        <f t="shared" ref="AG51" si="316">AF51+1</f>
         <v>44116</v>
       </c>
       <c r="AH51" s="74">
-        <f t="shared" ref="AH51" si="313">AG51+1</f>
+        <f t="shared" ref="AH51" si="317">AG51+1</f>
         <v>44117</v>
       </c>
       <c r="AI51" s="74">
-        <f t="shared" ref="AI51" si="314">AH51+1</f>
+        <f t="shared" ref="AI51" si="318">AH51+1</f>
         <v>44118</v>
       </c>
       <c r="AJ51" s="74">
-        <f t="shared" ref="AJ51" si="315">AI51+1</f>
+        <f t="shared" ref="AJ51" si="319">AI51+1</f>
         <v>44119</v>
       </c>
       <c r="AK51" s="74">
-        <f t="shared" ref="AK51" si="316">AJ51+1</f>
+        <f t="shared" ref="AK51" si="320">AJ51+1</f>
         <v>44120</v>
       </c>
       <c r="AL51" s="74">
-        <f t="shared" ref="AL51" si="317">AK51+1</f>
+        <f t="shared" ref="AL51" si="321">AK51+1</f>
         <v>44121</v>
       </c>
-      <c r="AP51" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ51" s="14">
-        <f t="shared" si="119"/>
-        <v>15</v>
+      <c r="AP51" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ51" s="49">
+        <f t="shared" si="271"/>
+        <v>12</v>
       </c>
       <c r="AR51" s="56">
-        <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="AS51" s="11" t="str">
-        <f t="shared" si="120"/>
-        <v>Data Science</v>
+        <f t="shared" si="272"/>
+        <v>125</v>
+      </c>
+      <c r="AS51" s="38" t="str">
+        <f t="shared" si="273"/>
+        <v>SQL com Microsoft</v>
       </c>
       <c r="AT51" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -8392,7 +8396,7 @@
         <v>5</v>
       </c>
       <c r="V52" s="60">
-        <f t="shared" ref="V52" si="318">SUM(O52:U52)</f>
+        <f t="shared" ref="V52" si="322">SUM(O52:U52)</f>
         <v>22</v>
       </c>
       <c r="X52" s="76"/>
@@ -8410,22 +8414,22 @@
       <c r="AK52" s="73"/>
       <c r="AL52" s="76"/>
       <c r="AP52" s="13" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AQ52" s="14">
-        <f t="shared" si="119"/>
-        <v>6</v>
+        <f t="shared" si="271"/>
+        <v>12</v>
       </c>
       <c r="AR52" s="56">
-        <f t="shared" si="3"/>
-        <v>77</v>
+        <f t="shared" si="272"/>
+        <v>126</v>
       </c>
       <c r="AS52" s="11" t="str">
-        <f t="shared" si="120"/>
-        <v>Data Science</v>
+        <f t="shared" si="273"/>
+        <v>SQL com Microsoft</v>
       </c>
       <c r="AT52" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -8467,99 +8471,99 @@
         <v>44018</v>
       </c>
       <c r="Q53" s="75">
-        <f t="shared" ref="Q53:U53" si="319">P53+1</f>
+        <f t="shared" ref="Q53:U53" si="323">P53+1</f>
         <v>44019</v>
       </c>
       <c r="R53" s="75">
-        <f t="shared" si="319"/>
+        <f t="shared" si="323"/>
         <v>44020</v>
       </c>
       <c r="S53" s="75">
-        <f t="shared" si="319"/>
+        <f t="shared" si="323"/>
         <v>44021</v>
       </c>
       <c r="T53" s="75">
-        <f t="shared" si="319"/>
+        <f t="shared" si="323"/>
         <v>44022</v>
       </c>
       <c r="U53" s="75">
-        <f t="shared" si="319"/>
+        <f t="shared" si="323"/>
         <v>44023</v>
       </c>
       <c r="V53" s="54"/>
       <c r="X53" s="74">
-        <f t="shared" ref="X53" si="320">AD51+1</f>
+        <f t="shared" ref="X53" si="324">AD51+1</f>
         <v>44122</v>
       </c>
       <c r="Y53" s="74">
-        <f t="shared" ref="Y53" si="321">X53+1</f>
+        <f t="shared" ref="Y53" si="325">X53+1</f>
         <v>44123</v>
       </c>
       <c r="Z53" s="74">
-        <f t="shared" ref="Z53" si="322">Y53+1</f>
+        <f t="shared" ref="Z53" si="326">Y53+1</f>
         <v>44124</v>
       </c>
       <c r="AA53" s="74">
-        <f t="shared" ref="AA53" si="323">Z53+1</f>
+        <f t="shared" ref="AA53" si="327">Z53+1</f>
         <v>44125</v>
       </c>
       <c r="AB53" s="74">
-        <f t="shared" ref="AB53" si="324">AA53+1</f>
+        <f t="shared" ref="AB53" si="328">AA53+1</f>
         <v>44126</v>
       </c>
       <c r="AC53" s="74">
-        <f t="shared" ref="AC53" si="325">AB53+1</f>
+        <f t="shared" ref="AC53" si="329">AB53+1</f>
         <v>44127</v>
       </c>
       <c r="AD53" s="74">
-        <f t="shared" ref="AD53" si="326">AC53+1</f>
+        <f t="shared" ref="AD53" si="330">AC53+1</f>
         <v>44128</v>
       </c>
       <c r="AF53" s="74">
-        <f t="shared" ref="AF53" si="327">AL51+1</f>
+        <f t="shared" ref="AF53" si="331">AL51+1</f>
         <v>44122</v>
       </c>
       <c r="AG53" s="74">
-        <f t="shared" ref="AG53" si="328">AF53+1</f>
+        <f t="shared" ref="AG53" si="332">AF53+1</f>
         <v>44123</v>
       </c>
       <c r="AH53" s="74">
-        <f t="shared" ref="AH53" si="329">AG53+1</f>
+        <f t="shared" ref="AH53" si="333">AG53+1</f>
         <v>44124</v>
       </c>
       <c r="AI53" s="74">
-        <f t="shared" ref="AI53" si="330">AH53+1</f>
+        <f t="shared" ref="AI53" si="334">AH53+1</f>
         <v>44125</v>
       </c>
       <c r="AJ53" s="74">
-        <f t="shared" ref="AJ53" si="331">AI53+1</f>
+        <f t="shared" ref="AJ53" si="335">AI53+1</f>
         <v>44126</v>
       </c>
       <c r="AK53" s="74">
-        <f t="shared" ref="AK53" si="332">AJ53+1</f>
+        <f t="shared" ref="AK53" si="336">AJ53+1</f>
         <v>44127</v>
       </c>
       <c r="AL53" s="74">
-        <f t="shared" ref="AL53" si="333">AK53+1</f>
+        <f t="shared" ref="AL53" si="337">AK53+1</f>
         <v>44128</v>
       </c>
-      <c r="AP53" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ53" s="16">
-        <f t="shared" si="119"/>
-        <v>6</v>
+      <c r="AP53" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ53" s="14">
+        <f t="shared" si="271"/>
+        <v>12</v>
       </c>
       <c r="AR53" s="56">
-        <f t="shared" si="3"/>
-        <v>78</v>
+        <f t="shared" si="272"/>
+        <v>127</v>
       </c>
       <c r="AS53" s="11" t="str">
-        <f t="shared" si="120"/>
-        <v>Data Science</v>
+        <f t="shared" si="273"/>
+        <v>SQL com Microsoft</v>
       </c>
       <c r="AT53" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -8614,7 +8618,7 @@
         <v>5</v>
       </c>
       <c r="V54" s="60">
-        <f t="shared" ref="V54" si="334">SUM(O54:U54)</f>
+        <f t="shared" ref="V54" si="338">SUM(O54:U54)</f>
         <v>26</v>
       </c>
       <c r="X54" s="76"/>
@@ -8631,23 +8635,23 @@
       <c r="AJ54" s="73"/>
       <c r="AK54" s="73"/>
       <c r="AL54" s="76"/>
-      <c r="AP54" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ54" s="92">
-        <f t="shared" si="119"/>
-        <v>12</v>
+      <c r="AP54" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ54" s="14">
+        <f t="shared" si="271"/>
+        <v>14</v>
       </c>
       <c r="AR54" s="56">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="AS54" s="93" t="str">
-        <f t="shared" si="120"/>
-        <v>Le commencement</v>
+        <f t="shared" si="272"/>
+        <v>128</v>
+      </c>
+      <c r="AS54" s="11" t="str">
+        <f t="shared" si="273"/>
+        <v>SQL com Microsoft</v>
       </c>
       <c r="AT54" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -8689,99 +8693,99 @@
         <v>44025</v>
       </c>
       <c r="Q55" s="75">
-        <f t="shared" ref="Q55:U55" si="335">P55+1</f>
+        <f t="shared" ref="Q55:U55" si="339">P55+1</f>
         <v>44026</v>
       </c>
       <c r="R55" s="75">
-        <f t="shared" si="335"/>
+        <f t="shared" si="339"/>
         <v>44027</v>
       </c>
       <c r="S55" s="75">
-        <f t="shared" si="335"/>
+        <f t="shared" si="339"/>
         <v>44028</v>
       </c>
       <c r="T55" s="75">
-        <f t="shared" si="335"/>
+        <f t="shared" si="339"/>
         <v>44029</v>
       </c>
       <c r="U55" s="75">
-        <f t="shared" si="335"/>
+        <f t="shared" si="339"/>
         <v>44030</v>
       </c>
       <c r="V55" s="54"/>
       <c r="X55" s="74">
-        <f t="shared" ref="X55" si="336">AD53+1</f>
+        <f t="shared" ref="X55" si="340">AD53+1</f>
         <v>44129</v>
       </c>
       <c r="Y55" s="74">
-        <f t="shared" ref="Y55" si="337">X55+1</f>
+        <f t="shared" ref="Y55" si="341">X55+1</f>
         <v>44130</v>
       </c>
       <c r="Z55" s="74">
-        <f t="shared" ref="Z55" si="338">Y55+1</f>
+        <f t="shared" ref="Z55" si="342">Y55+1</f>
         <v>44131</v>
       </c>
       <c r="AA55" s="74">
-        <f t="shared" ref="AA55" si="339">Z55+1</f>
+        <f t="shared" ref="AA55" si="343">Z55+1</f>
         <v>44132</v>
       </c>
       <c r="AB55" s="74">
-        <f t="shared" ref="AB55" si="340">AA55+1</f>
+        <f t="shared" ref="AB55" si="344">AA55+1</f>
         <v>44133</v>
       </c>
       <c r="AC55" s="74">
-        <f t="shared" ref="AC55" si="341">AB55+1</f>
+        <f t="shared" ref="AC55" si="345">AB55+1</f>
         <v>44134</v>
       </c>
       <c r="AD55" s="74">
-        <f t="shared" ref="AD55" si="342">AC55+1</f>
+        <f t="shared" ref="AD55" si="346">AC55+1</f>
         <v>44135</v>
       </c>
       <c r="AF55" s="74">
-        <f t="shared" ref="AF55" si="343">AL53+1</f>
+        <f t="shared" ref="AF55" si="347">AL53+1</f>
         <v>44129</v>
       </c>
       <c r="AG55" s="74">
-        <f t="shared" ref="AG55" si="344">AF55+1</f>
+        <f t="shared" ref="AG55" si="348">AF55+1</f>
         <v>44130</v>
       </c>
       <c r="AH55" s="74">
-        <f t="shared" ref="AH55" si="345">AG55+1</f>
+        <f t="shared" ref="AH55" si="349">AG55+1</f>
         <v>44131</v>
       </c>
       <c r="AI55" s="74">
-        <f t="shared" ref="AI55" si="346">AH55+1</f>
+        <f t="shared" ref="AI55" si="350">AH55+1</f>
         <v>44132</v>
       </c>
       <c r="AJ55" s="74">
-        <f t="shared" ref="AJ55" si="347">AI55+1</f>
+        <f t="shared" ref="AJ55" si="351">AI55+1</f>
         <v>44133</v>
       </c>
       <c r="AK55" s="74">
-        <f t="shared" ref="AK55" si="348">AJ55+1</f>
+        <f t="shared" ref="AK55" si="352">AJ55+1</f>
         <v>44134</v>
       </c>
       <c r="AL55" s="74">
-        <f t="shared" ref="AL55" si="349">AK55+1</f>
+        <f t="shared" ref="AL55" si="353">AK55+1</f>
         <v>44135</v>
       </c>
-      <c r="AP55" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ55" s="49">
-        <f t="shared" si="119"/>
-        <v>14</v>
+      <c r="AP55" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ55" s="16">
+        <f t="shared" si="271"/>
+        <v>12</v>
       </c>
       <c r="AR55" s="56">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="AS55" s="38" t="str">
-        <f t="shared" si="120"/>
-        <v>SQL com MySQL</v>
+        <f t="shared" si="272"/>
+        <v>129</v>
+      </c>
+      <c r="AS55" s="11" t="str">
+        <f t="shared" si="273"/>
+        <v>SQL com Microsoft</v>
       </c>
       <c r="AT55" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -8836,7 +8840,7 @@
         <v>5</v>
       </c>
       <c r="V56" s="60">
-        <f t="shared" ref="V56" si="350">SUM(O56:U56)</f>
+        <f t="shared" ref="V56" si="354">SUM(O56:U56)</f>
         <v>22</v>
       </c>
       <c r="X56" s="76"/>
@@ -8853,23 +8857,23 @@
       <c r="AJ56" s="73"/>
       <c r="AK56" s="73"/>
       <c r="AL56" s="76"/>
-      <c r="AP56" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ56" s="14">
-        <f t="shared" si="119"/>
-        <v>10</v>
+      <c r="AP56" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ56" s="49">
+        <f t="shared" si="271"/>
+        <v>6</v>
       </c>
       <c r="AR56" s="56">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="AS56" s="11" t="str">
-        <f t="shared" si="120"/>
-        <v>SQL com MySQL</v>
+        <f t="shared" si="272"/>
+        <v>71</v>
+      </c>
+      <c r="AS56" s="38" t="str">
+        <f t="shared" si="273"/>
+        <v>Data Science</v>
       </c>
       <c r="AT56" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -8911,99 +8915,99 @@
         <v>44032</v>
       </c>
       <c r="Q57" s="75">
-        <f t="shared" ref="Q57:U57" si="351">P57+1</f>
+        <f t="shared" ref="Q57:U57" si="355">P57+1</f>
         <v>44033</v>
       </c>
       <c r="R57" s="75">
-        <f t="shared" si="351"/>
+        <f t="shared" si="355"/>
         <v>44034</v>
       </c>
       <c r="S57" s="75">
-        <f t="shared" si="351"/>
+        <f t="shared" si="355"/>
         <v>44035</v>
       </c>
       <c r="T57" s="75">
-        <f t="shared" si="351"/>
+        <f t="shared" si="355"/>
         <v>44036</v>
       </c>
       <c r="U57" s="75">
-        <f t="shared" si="351"/>
+        <f t="shared" si="355"/>
         <v>44037</v>
       </c>
       <c r="V57" s="54"/>
       <c r="X57" s="74">
-        <f t="shared" ref="X57" si="352">AD55+1</f>
+        <f t="shared" ref="X57" si="356">AD55+1</f>
         <v>44136</v>
       </c>
       <c r="Y57" s="74">
-        <f t="shared" ref="Y57" si="353">X57+1</f>
+        <f t="shared" ref="Y57" si="357">X57+1</f>
         <v>44137</v>
       </c>
       <c r="Z57" s="74">
-        <f t="shared" ref="Z57" si="354">Y57+1</f>
+        <f t="shared" ref="Z57" si="358">Y57+1</f>
         <v>44138</v>
       </c>
       <c r="AA57" s="74">
-        <f t="shared" ref="AA57" si="355">Z57+1</f>
+        <f t="shared" ref="AA57" si="359">Z57+1</f>
         <v>44139</v>
       </c>
       <c r="AB57" s="74">
-        <f t="shared" ref="AB57" si="356">AA57+1</f>
+        <f t="shared" ref="AB57" si="360">AA57+1</f>
         <v>44140</v>
       </c>
       <c r="AC57" s="74">
-        <f t="shared" ref="AC57" si="357">AB57+1</f>
+        <f t="shared" ref="AC57" si="361">AB57+1</f>
         <v>44141</v>
       </c>
       <c r="AD57" s="74">
-        <f t="shared" ref="AD57" si="358">AC57+1</f>
+        <f t="shared" ref="AD57" si="362">AC57+1</f>
         <v>44142</v>
       </c>
       <c r="AF57" s="74">
-        <f t="shared" ref="AF57" si="359">AL55+1</f>
+        <f t="shared" ref="AF57" si="363">AL55+1</f>
         <v>44136</v>
       </c>
       <c r="AG57" s="74">
-        <f t="shared" ref="AG57" si="360">AF57+1</f>
+        <f t="shared" ref="AG57" si="364">AF57+1</f>
         <v>44137</v>
       </c>
       <c r="AH57" s="74">
-        <f t="shared" ref="AH57" si="361">AG57+1</f>
+        <f t="shared" ref="AH57" si="365">AG57+1</f>
         <v>44138</v>
       </c>
       <c r="AI57" s="74">
-        <f t="shared" ref="AI57" si="362">AH57+1</f>
+        <f t="shared" ref="AI57" si="366">AH57+1</f>
         <v>44139</v>
       </c>
       <c r="AJ57" s="74">
-        <f t="shared" ref="AJ57" si="363">AI57+1</f>
+        <f t="shared" ref="AJ57" si="367">AI57+1</f>
         <v>44140</v>
       </c>
       <c r="AK57" s="74">
-        <f t="shared" ref="AK57" si="364">AJ57+1</f>
+        <f t="shared" ref="AK57" si="368">AJ57+1</f>
         <v>44141</v>
       </c>
       <c r="AL57" s="74">
-        <f t="shared" ref="AL57" si="365">AK57+1</f>
+        <f t="shared" ref="AL57" si="369">AK57+1</f>
         <v>44142</v>
       </c>
-      <c r="AP57" s="13" t="s">
-        <v>88</v>
+      <c r="AP57" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="AQ57" s="14">
-        <f t="shared" ref="AQ57:AQ62" si="366">INDEX(E:E,MATCH(AP57,D:D,0))</f>
-        <v>14</v>
+        <f t="shared" si="271"/>
+        <v>12</v>
       </c>
       <c r="AR57" s="56">
-        <f t="shared" si="3"/>
-        <v>49</v>
+        <f t="shared" si="272"/>
+        <v>72</v>
       </c>
       <c r="AS57" s="11" t="str">
-        <f t="shared" ref="AS57:AS62" si="367">INDEX(G:G,MATCH(AP57,D:D,0))</f>
-        <v>SQL com MySQL</v>
+        <f t="shared" si="273"/>
+        <v>Data Science</v>
       </c>
       <c r="AT57" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -9058,7 +9062,7 @@
         <v>5</v>
       </c>
       <c r="V58" s="60">
-        <f t="shared" ref="V58" si="368">SUM(O58:U58)</f>
+        <f t="shared" ref="V58" si="370">SUM(O58:U58)</f>
         <v>22</v>
       </c>
       <c r="X58" s="76"/>
@@ -9075,23 +9079,23 @@
       <c r="AJ58" s="73"/>
       <c r="AK58" s="73"/>
       <c r="AL58" s="76"/>
-      <c r="AP58" s="94" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ58" s="95">
-        <f t="shared" si="366"/>
-        <v>16</v>
+      <c r="AP58" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ58" s="14">
+        <f t="shared" si="271"/>
+        <v>8</v>
       </c>
       <c r="AR58" s="56">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="AS58" s="96" t="str">
-        <f t="shared" si="367"/>
-        <v>SQL com MySQL</v>
+        <f t="shared" si="272"/>
+        <v>73</v>
+      </c>
+      <c r="AS58" s="11" t="str">
+        <f t="shared" si="273"/>
+        <v>Data Science</v>
       </c>
       <c r="AT58" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -9136,99 +9140,99 @@
         <v>44039</v>
       </c>
       <c r="Q59" s="75">
-        <f t="shared" ref="Q59:U59" si="369">P59+1</f>
+        <f t="shared" ref="Q59:U59" si="371">P59+1</f>
         <v>44040</v>
       </c>
       <c r="R59" s="75">
-        <f t="shared" si="369"/>
+        <f t="shared" si="371"/>
         <v>44041</v>
       </c>
       <c r="S59" s="75">
-        <f t="shared" si="369"/>
+        <f t="shared" si="371"/>
         <v>44042</v>
       </c>
       <c r="T59" s="75">
-        <f t="shared" si="369"/>
+        <f t="shared" si="371"/>
         <v>44043</v>
       </c>
       <c r="U59" s="75">
-        <f t="shared" si="369"/>
+        <f t="shared" si="371"/>
         <v>44044</v>
       </c>
       <c r="V59" s="54"/>
       <c r="X59" s="74">
-        <f t="shared" ref="X59" si="370">AD57+1</f>
+        <f t="shared" ref="X59" si="372">AD57+1</f>
         <v>44143</v>
       </c>
       <c r="Y59" s="74">
-        <f t="shared" ref="Y59" si="371">X59+1</f>
+        <f t="shared" ref="Y59" si="373">X59+1</f>
         <v>44144</v>
       </c>
       <c r="Z59" s="74">
-        <f t="shared" ref="Z59" si="372">Y59+1</f>
+        <f t="shared" ref="Z59" si="374">Y59+1</f>
         <v>44145</v>
       </c>
       <c r="AA59" s="74">
-        <f t="shared" ref="AA59" si="373">Z59+1</f>
+        <f t="shared" ref="AA59" si="375">Z59+1</f>
         <v>44146</v>
       </c>
       <c r="AB59" s="74">
-        <f t="shared" ref="AB59" si="374">AA59+1</f>
+        <f t="shared" ref="AB59" si="376">AA59+1</f>
         <v>44147</v>
       </c>
       <c r="AC59" s="74">
-        <f t="shared" ref="AC59" si="375">AB59+1</f>
+        <f t="shared" ref="AC59" si="377">AB59+1</f>
         <v>44148</v>
       </c>
       <c r="AD59" s="74">
-        <f t="shared" ref="AD59" si="376">AC59+1</f>
+        <f t="shared" ref="AD59" si="378">AC59+1</f>
         <v>44149</v>
       </c>
       <c r="AF59" s="74">
-        <f t="shared" ref="AF59" si="377">AL57+1</f>
+        <f t="shared" ref="AF59" si="379">AL57+1</f>
         <v>44143</v>
       </c>
       <c r="AG59" s="74">
-        <f t="shared" ref="AG59" si="378">AF59+1</f>
+        <f t="shared" ref="AG59" si="380">AF59+1</f>
         <v>44144</v>
       </c>
       <c r="AH59" s="74">
-        <f t="shared" ref="AH59" si="379">AG59+1</f>
+        <f t="shared" ref="AH59" si="381">AG59+1</f>
         <v>44145</v>
       </c>
       <c r="AI59" s="74">
-        <f t="shared" ref="AI59" si="380">AH59+1</f>
+        <f t="shared" ref="AI59" si="382">AH59+1</f>
         <v>44146</v>
       </c>
       <c r="AJ59" s="74">
-        <f t="shared" ref="AJ59" si="381">AI59+1</f>
+        <f t="shared" ref="AJ59" si="383">AI59+1</f>
         <v>44147</v>
       </c>
       <c r="AK59" s="74">
-        <f t="shared" ref="AK59" si="382">AJ59+1</f>
+        <f t="shared" ref="AK59" si="384">AJ59+1</f>
         <v>44148</v>
       </c>
       <c r="AL59" s="74">
-        <f t="shared" ref="AL59" si="383">AK59+1</f>
+        <f t="shared" ref="AL59" si="385">AK59+1</f>
         <v>44149</v>
       </c>
-      <c r="AP59" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ59" s="49">
-        <f t="shared" si="366"/>
+      <c r="AP59" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ59" s="14">
+        <f t="shared" si="271"/>
         <v>12</v>
       </c>
       <c r="AR59" s="56">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="AS59" s="38" t="str">
-        <f t="shared" si="367"/>
-        <v>SQL com Microsoft</v>
+        <f t="shared" si="272"/>
+        <v>74</v>
+      </c>
+      <c r="AS59" s="11" t="str">
+        <f t="shared" si="273"/>
+        <v>Data Science</v>
       </c>
       <c r="AT59" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -9283,7 +9287,7 @@
         <v>5</v>
       </c>
       <c r="V60" s="60">
-        <f t="shared" ref="V60" si="384">SUM(O60:U60)</f>
+        <f t="shared" ref="V60" si="386">SUM(O60:U60)</f>
         <v>22</v>
       </c>
       <c r="X60" s="76"/>
@@ -9301,22 +9305,22 @@
       <c r="AK60" s="73"/>
       <c r="AL60" s="76"/>
       <c r="AP60" s="13" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AQ60" s="14">
-        <f t="shared" si="366"/>
-        <v>12</v>
+        <f t="shared" si="271"/>
+        <v>5</v>
       </c>
       <c r="AR60" s="56">
-        <f t="shared" si="3"/>
-        <v>126</v>
+        <f t="shared" si="272"/>
+        <v>75</v>
       </c>
       <c r="AS60" s="11" t="str">
-        <f t="shared" si="367"/>
-        <v>SQL com Microsoft</v>
+        <f t="shared" si="273"/>
+        <v>Data Science</v>
       </c>
       <c r="AT60" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -9358,99 +9362,99 @@
         <v>44046</v>
       </c>
       <c r="Q61" s="75">
-        <f t="shared" ref="Q61:U61" si="385">P61+1</f>
+        <f t="shared" ref="Q61:U61" si="387">P61+1</f>
         <v>44047</v>
       </c>
       <c r="R61" s="75">
-        <f t="shared" si="385"/>
+        <f t="shared" si="387"/>
         <v>44048</v>
       </c>
       <c r="S61" s="75">
-        <f t="shared" si="385"/>
+        <f t="shared" si="387"/>
         <v>44049</v>
       </c>
       <c r="T61" s="75">
-        <f t="shared" si="385"/>
+        <f t="shared" si="387"/>
         <v>44050</v>
       </c>
       <c r="U61" s="75">
-        <f t="shared" si="385"/>
+        <f t="shared" si="387"/>
         <v>44051</v>
       </c>
       <c r="V61" s="54"/>
       <c r="X61" s="74">
-        <f t="shared" ref="X61" si="386">AD59+1</f>
+        <f t="shared" ref="X61" si="388">AD59+1</f>
         <v>44150</v>
       </c>
       <c r="Y61" s="74">
-        <f t="shared" ref="Y61" si="387">X61+1</f>
+        <f t="shared" ref="Y61" si="389">X61+1</f>
         <v>44151</v>
       </c>
       <c r="Z61" s="74">
-        <f t="shared" ref="Z61" si="388">Y61+1</f>
+        <f t="shared" ref="Z61" si="390">Y61+1</f>
         <v>44152</v>
       </c>
       <c r="AA61" s="74">
-        <f t="shared" ref="AA61" si="389">Z61+1</f>
+        <f t="shared" ref="AA61" si="391">Z61+1</f>
         <v>44153</v>
       </c>
       <c r="AB61" s="74">
-        <f t="shared" ref="AB61" si="390">AA61+1</f>
+        <f t="shared" ref="AB61" si="392">AA61+1</f>
         <v>44154</v>
       </c>
       <c r="AC61" s="74">
-        <f t="shared" ref="AC61" si="391">AB61+1</f>
+        <f t="shared" ref="AC61" si="393">AB61+1</f>
         <v>44155</v>
       </c>
       <c r="AD61" s="74">
-        <f t="shared" ref="AD61" si="392">AC61+1</f>
+        <f t="shared" ref="AD61" si="394">AC61+1</f>
         <v>44156</v>
       </c>
       <c r="AF61" s="74">
-        <f t="shared" ref="AF61" si="393">AL59+1</f>
+        <f t="shared" ref="AF61" si="395">AL59+1</f>
         <v>44150</v>
       </c>
       <c r="AG61" s="74">
-        <f t="shared" ref="AG61" si="394">AF61+1</f>
+        <f t="shared" ref="AG61" si="396">AF61+1</f>
         <v>44151</v>
       </c>
       <c r="AH61" s="74">
-        <f t="shared" ref="AH61" si="395">AG61+1</f>
+        <f t="shared" ref="AH61" si="397">AG61+1</f>
         <v>44152</v>
       </c>
       <c r="AI61" s="74">
-        <f t="shared" ref="AI61" si="396">AH61+1</f>
+        <f t="shared" ref="AI61" si="398">AH61+1</f>
         <v>44153</v>
       </c>
       <c r="AJ61" s="74">
-        <f t="shared" ref="AJ61" si="397">AI61+1</f>
+        <f t="shared" ref="AJ61" si="399">AI61+1</f>
         <v>44154</v>
       </c>
       <c r="AK61" s="74">
-        <f t="shared" ref="AK61" si="398">AJ61+1</f>
+        <f t="shared" ref="AK61" si="400">AJ61+1</f>
         <v>44155</v>
       </c>
       <c r="AL61" s="74">
-        <f t="shared" ref="AL61" si="399">AK61+1</f>
+        <f t="shared" ref="AL61" si="401">AK61+1</f>
         <v>44156</v>
       </c>
       <c r="AP61" s="13" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="AQ61" s="14">
-        <f t="shared" si="366"/>
-        <v>12</v>
+        <f t="shared" si="271"/>
+        <v>15</v>
       </c>
       <c r="AR61" s="56">
-        <f t="shared" si="3"/>
-        <v>127</v>
+        <f t="shared" si="272"/>
+        <v>76</v>
       </c>
       <c r="AS61" s="11" t="str">
-        <f t="shared" si="367"/>
-        <v>SQL com Microsoft</v>
+        <f t="shared" si="273"/>
+        <v>Data Science</v>
       </c>
       <c r="AT61" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -9505,7 +9509,7 @@
         <v>218</v>
       </c>
       <c r="V62" s="60">
-        <f t="shared" ref="V62" si="400">SUM(O62:U62)</f>
+        <f t="shared" ref="V62" si="402">SUM(O62:U62)</f>
         <v>17</v>
       </c>
       <c r="X62" s="76"/>
@@ -9523,22 +9527,22 @@
       <c r="AK62" s="73"/>
       <c r="AL62" s="76"/>
       <c r="AP62" s="13" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AQ62" s="14">
-        <f t="shared" si="366"/>
-        <v>14</v>
+        <f t="shared" si="271"/>
+        <v>6</v>
       </c>
       <c r="AR62" s="56">
-        <f t="shared" si="3"/>
-        <v>128</v>
+        <f t="shared" si="272"/>
+        <v>77</v>
       </c>
       <c r="AS62" s="11" t="str">
-        <f t="shared" si="367"/>
-        <v>SQL com Microsoft</v>
+        <f t="shared" si="273"/>
+        <v>Data Science</v>
       </c>
       <c r="AT62" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -9580,99 +9584,99 @@
         <v>44053</v>
       </c>
       <c r="Q63" s="75">
-        <f t="shared" ref="Q63:U63" si="401">P63+1</f>
+        <f t="shared" ref="Q63:U63" si="403">P63+1</f>
         <v>44054</v>
       </c>
       <c r="R63" s="75">
-        <f t="shared" si="401"/>
+        <f t="shared" si="403"/>
         <v>44055</v>
       </c>
       <c r="S63" s="75">
-        <f t="shared" si="401"/>
+        <f t="shared" si="403"/>
         <v>44056</v>
       </c>
       <c r="T63" s="75">
-        <f t="shared" si="401"/>
+        <f t="shared" si="403"/>
         <v>44057</v>
       </c>
       <c r="U63" s="75">
-        <f t="shared" si="401"/>
+        <f t="shared" si="403"/>
         <v>44058</v>
       </c>
       <c r="V63" s="54"/>
       <c r="X63" s="74">
-        <f t="shared" ref="X63" si="402">AD61+1</f>
+        <f t="shared" ref="X63" si="404">AD61+1</f>
         <v>44157</v>
       </c>
       <c r="Y63" s="74">
-        <f t="shared" ref="Y63" si="403">X63+1</f>
+        <f t="shared" ref="Y63" si="405">X63+1</f>
         <v>44158</v>
       </c>
       <c r="Z63" s="74">
-        <f t="shared" ref="Z63" si="404">Y63+1</f>
+        <f t="shared" ref="Z63" si="406">Y63+1</f>
         <v>44159</v>
       </c>
       <c r="AA63" s="74">
-        <f t="shared" ref="AA63" si="405">Z63+1</f>
+        <f t="shared" ref="AA63" si="407">Z63+1</f>
         <v>44160</v>
       </c>
       <c r="AB63" s="74">
-        <f t="shared" ref="AB63" si="406">AA63+1</f>
+        <f t="shared" ref="AB63" si="408">AA63+1</f>
         <v>44161</v>
       </c>
       <c r="AC63" s="74">
-        <f t="shared" ref="AC63" si="407">AB63+1</f>
+        <f t="shared" ref="AC63" si="409">AB63+1</f>
         <v>44162</v>
       </c>
       <c r="AD63" s="74">
-        <f t="shared" ref="AD63" si="408">AC63+1</f>
+        <f t="shared" ref="AD63" si="410">AC63+1</f>
         <v>44163</v>
       </c>
       <c r="AF63" s="74">
-        <f t="shared" ref="AF63" si="409">AL61+1</f>
+        <f t="shared" ref="AF63" si="411">AL61+1</f>
         <v>44157</v>
       </c>
       <c r="AG63" s="74">
-        <f t="shared" ref="AG63" si="410">AF63+1</f>
+        <f t="shared" ref="AG63" si="412">AF63+1</f>
         <v>44158</v>
       </c>
       <c r="AH63" s="74">
-        <f t="shared" ref="AH63" si="411">AG63+1</f>
+        <f t="shared" ref="AH63" si="413">AG63+1</f>
         <v>44159</v>
       </c>
       <c r="AI63" s="74">
-        <f t="shared" ref="AI63" si="412">AH63+1</f>
+        <f t="shared" ref="AI63" si="414">AH63+1</f>
         <v>44160</v>
       </c>
       <c r="AJ63" s="74">
-        <f t="shared" ref="AJ63" si="413">AI63+1</f>
+        <f t="shared" ref="AJ63" si="415">AI63+1</f>
         <v>44161</v>
       </c>
       <c r="AK63" s="74">
-        <f t="shared" ref="AK63" si="414">AJ63+1</f>
+        <f t="shared" ref="AK63" si="416">AJ63+1</f>
         <v>44162</v>
       </c>
       <c r="AL63" s="74">
-        <f t="shared" ref="AL63" si="415">AK63+1</f>
+        <f t="shared" ref="AL63" si="417">AK63+1</f>
         <v>44163</v>
       </c>
       <c r="AP63" s="15" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AQ63" s="16">
-        <f t="shared" ref="AQ63:AQ117" si="416">INDEX(E:E,MATCH(AP63,D:D,0))</f>
-        <v>12</v>
+        <f t="shared" si="271"/>
+        <v>6</v>
       </c>
       <c r="AR63" s="56">
-        <f t="shared" si="3"/>
-        <v>129</v>
+        <f t="shared" si="272"/>
+        <v>78</v>
       </c>
       <c r="AS63" s="11" t="str">
-        <f t="shared" ref="AS63:AS117" si="417">INDEX(G:G,MATCH(AP63,D:D,0))</f>
-        <v>SQL com Microsoft</v>
+        <f t="shared" si="273"/>
+        <v>Data Science</v>
       </c>
       <c r="AT63" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -9748,19 +9752,19 @@
         <v>166</v>
       </c>
       <c r="AQ64" s="52">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>4</v>
       </c>
       <c r="AR64" s="56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="272"/>
         <v>79</v>
       </c>
       <c r="AS64" s="45" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>DevOps</v>
       </c>
       <c r="AT64" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -9885,19 +9889,19 @@
         <v>167</v>
       </c>
       <c r="AQ65" s="29">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR65" s="56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="272"/>
         <v>80</v>
       </c>
       <c r="AS65" s="27" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>DevOps</v>
       </c>
       <c r="AT65" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -9970,19 +9974,19 @@
         <v>168</v>
       </c>
       <c r="AQ66" s="29">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>12</v>
       </c>
       <c r="AR66" s="56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="272"/>
         <v>81</v>
       </c>
       <c r="AS66" s="27" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>DevOps</v>
       </c>
       <c r="AT66" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -10104,19 +10108,19 @@
         <v>169</v>
       </c>
       <c r="AQ67" s="29">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>12</v>
       </c>
       <c r="AR67" s="56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="272"/>
         <v>82</v>
       </c>
       <c r="AS67" s="27" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>DevOps</v>
       </c>
       <c r="AT67" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -10192,19 +10196,19 @@
         <v>206</v>
       </c>
       <c r="AQ68" s="47">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>10</v>
       </c>
       <c r="AR68" s="56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="272"/>
         <v>83</v>
       </c>
       <c r="AS68" s="27" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>DevOps</v>
       </c>
       <c r="AT68" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -10326,19 +10330,19 @@
         <v>207</v>
       </c>
       <c r="AQ69" s="47">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>10</v>
       </c>
       <c r="AR69" s="56">
-        <f t="shared" ref="AR69:AR132" si="467">INDEX(F:F,MATCH(AP69,D:D,0))</f>
+        <f t="shared" si="272"/>
         <v>84</v>
       </c>
       <c r="AS69" s="27" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>DevOps</v>
       </c>
       <c r="AT69" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
@@ -10348,7 +10352,7 @@
         <v>N</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C133" si="468">COUNTIF($H:$J,$F70)</f>
+        <f t="shared" ref="C70:C133" si="467">COUNTIF($H:$J,$F70)</f>
         <v>1</v>
       </c>
       <c r="D70" s="12" t="s">
@@ -10393,7 +10397,7 @@
         <v>220</v>
       </c>
       <c r="V70" s="60">
-        <f t="shared" ref="V70" si="469">SUM(O70:U70)</f>
+        <f t="shared" ref="V70" si="468">SUM(O70:U70)</f>
         <v>14</v>
       </c>
       <c r="X70" s="76"/>
@@ -10414,29 +10418,29 @@
         <v>170</v>
       </c>
       <c r="AQ70" s="29">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR70" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>85</v>
       </c>
       <c r="AS70" s="27" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>DevOps</v>
       </c>
       <c r="AT70" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="str">
-        <f t="shared" ref="B71:B72" si="470">IF(OR(IF(H71="",0,H71&gt;F71),IF(I71="",0,I71&gt;F71),IF(J71="",0,J71&gt;F71)),"S","N")</f>
+        <f t="shared" ref="B71:B72" si="469">IF(OR(IF(H71="",0,H71&gt;F71),IF(I71="",0,I71&gt;F71),IF(J71="",0,J71&gt;F71)),"S","N")</f>
         <v>N</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D71" s="12" t="s">
@@ -10468,23 +10472,23 @@
         <v>44081</v>
       </c>
       <c r="Q71" s="75">
-        <f t="shared" ref="Q71:U71" si="471">P71+1</f>
+        <f t="shared" ref="Q71:U71" si="470">P71+1</f>
         <v>44082</v>
       </c>
       <c r="R71" s="75">
-        <f t="shared" si="471"/>
+        <f t="shared" si="470"/>
         <v>44083</v>
       </c>
       <c r="S71" s="75">
-        <f t="shared" si="471"/>
+        <f t="shared" si="470"/>
         <v>44084</v>
       </c>
       <c r="T71" s="75">
-        <f t="shared" si="471"/>
+        <f t="shared" si="470"/>
         <v>44085</v>
       </c>
       <c r="U71" s="75">
-        <f t="shared" si="471"/>
+        <f t="shared" si="470"/>
         <v>44086</v>
       </c>
       <c r="V71" s="54"/>
@@ -10492,75 +10496,75 @@
         <v>44200</v>
       </c>
       <c r="Z71" s="74">
-        <f t="shared" ref="Z71:AD71" si="472">Y71+1</f>
+        <f t="shared" ref="Z71:AD71" si="471">Y71+1</f>
         <v>44201</v>
       </c>
       <c r="AA71" s="74">
-        <f t="shared" si="472"/>
+        <f t="shared" si="471"/>
         <v>44202</v>
       </c>
       <c r="AB71" s="74">
-        <f t="shared" si="472"/>
+        <f t="shared" si="471"/>
         <v>44203</v>
       </c>
       <c r="AC71" s="74">
-        <f t="shared" si="472"/>
+        <f t="shared" si="471"/>
         <v>44204</v>
       </c>
       <c r="AD71" s="74">
-        <f t="shared" si="472"/>
+        <f t="shared" si="471"/>
         <v>44205</v>
       </c>
       <c r="AG71" s="74">
         <v>44200</v>
       </c>
       <c r="AH71" s="74">
-        <f t="shared" ref="AH71" si="473">AG71+1</f>
+        <f t="shared" ref="AH71" si="472">AG71+1</f>
         <v>44201</v>
       </c>
       <c r="AI71" s="74">
-        <f t="shared" ref="AI71" si="474">AH71+1</f>
+        <f t="shared" ref="AI71" si="473">AH71+1</f>
         <v>44202</v>
       </c>
       <c r="AJ71" s="74">
-        <f t="shared" ref="AJ71" si="475">AI71+1</f>
+        <f t="shared" ref="AJ71" si="474">AI71+1</f>
         <v>44203</v>
       </c>
       <c r="AK71" s="74">
-        <f t="shared" ref="AK71" si="476">AJ71+1</f>
+        <f t="shared" ref="AK71" si="475">AJ71+1</f>
         <v>44204</v>
       </c>
       <c r="AL71" s="74">
-        <f t="shared" ref="AL71" si="477">AK71+1</f>
+        <f t="shared" ref="AL71" si="476">AK71+1</f>
         <v>44205</v>
       </c>
       <c r="AP71" s="28" t="s">
         <v>171</v>
       </c>
       <c r="AQ71" s="29">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>10</v>
       </c>
       <c r="AR71" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>86</v>
       </c>
       <c r="AS71" s="27" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>DevOps</v>
       </c>
       <c r="AT71" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="str">
-        <f t="shared" si="470"/>
+        <f t="shared" si="469"/>
         <v>N</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D72" s="12" t="s">
@@ -10602,7 +10606,7 @@
         <v>5</v>
       </c>
       <c r="V72" s="60">
-        <f t="shared" ref="V72" si="478">SUM(O72:U72)</f>
+        <f t="shared" ref="V72" si="477">SUM(O72:U72)</f>
         <v>14</v>
       </c>
       <c r="Y72" s="73"/>
@@ -10621,29 +10625,29 @@
         <v>172</v>
       </c>
       <c r="AQ72" s="29">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>12</v>
       </c>
       <c r="AR72" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>87</v>
       </c>
       <c r="AS72" s="27" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>DevOps</v>
       </c>
       <c r="AT72" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="str">
-        <f t="shared" ref="B73:B136" si="479">IF(OR(IF(H73="",0,H73&gt;F73),IF(I73="",0,I73&gt;F73),IF(J73="",0,J73&gt;F73)),"S","N")</f>
+        <f t="shared" ref="B73:B136" si="478">IF(OR(IF(H73="",0,H73&gt;F73),IF(I73="",0,I73&gt;F73),IF(J73="",0,J73&gt;F73)),"S","N")</f>
         <v>N</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D73" s="39" t="s">
@@ -10672,23 +10676,23 @@
         <v>44088</v>
       </c>
       <c r="Q73" s="75">
-        <f t="shared" ref="Q73:U73" si="480">P73+1</f>
+        <f t="shared" ref="Q73:U73" si="479">P73+1</f>
         <v>44089</v>
       </c>
       <c r="R73" s="75">
-        <f t="shared" si="480"/>
+        <f t="shared" si="479"/>
         <v>44090</v>
       </c>
       <c r="S73" s="75">
-        <f t="shared" si="480"/>
+        <f t="shared" si="479"/>
         <v>44091</v>
       </c>
       <c r="T73" s="75">
-        <f t="shared" si="480"/>
+        <f t="shared" si="479"/>
         <v>44092</v>
       </c>
       <c r="U73" s="75">
-        <f t="shared" si="480"/>
+        <f t="shared" si="479"/>
         <v>44093</v>
       </c>
       <c r="V73" s="54"/>
@@ -10701,23 +10705,23 @@
         <v>44207</v>
       </c>
       <c r="Z73" s="74">
-        <f t="shared" ref="Z73:AD73" si="481">Y73+1</f>
+        <f t="shared" ref="Z73:AD73" si="480">Y73+1</f>
         <v>44208</v>
       </c>
       <c r="AA73" s="74">
-        <f t="shared" si="481"/>
+        <f t="shared" si="480"/>
         <v>44209</v>
       </c>
       <c r="AB73" s="74">
-        <f t="shared" si="481"/>
+        <f t="shared" si="480"/>
         <v>44210</v>
       </c>
       <c r="AC73" s="74">
-        <f t="shared" si="481"/>
+        <f t="shared" si="480"/>
         <v>44211</v>
       </c>
       <c r="AD73" s="74">
-        <f t="shared" si="481"/>
+        <f t="shared" si="480"/>
         <v>44212</v>
       </c>
       <c r="AF73" s="74">
@@ -10729,52 +10733,52 @@
         <v>44207</v>
       </c>
       <c r="AH73" s="74">
-        <f t="shared" ref="AH73" si="482">AG73+1</f>
+        <f t="shared" ref="AH73" si="481">AG73+1</f>
         <v>44208</v>
       </c>
       <c r="AI73" s="74">
-        <f t="shared" ref="AI73" si="483">AH73+1</f>
+        <f t="shared" ref="AI73" si="482">AH73+1</f>
         <v>44209</v>
       </c>
       <c r="AJ73" s="74">
-        <f t="shared" ref="AJ73" si="484">AI73+1</f>
+        <f t="shared" ref="AJ73" si="483">AI73+1</f>
         <v>44210</v>
       </c>
       <c r="AK73" s="74">
-        <f t="shared" ref="AK73" si="485">AJ73+1</f>
+        <f t="shared" ref="AK73" si="484">AJ73+1</f>
         <v>44211</v>
       </c>
       <c r="AL73" s="74">
-        <f t="shared" ref="AL73" si="486">AK73+1</f>
+        <f t="shared" ref="AL73" si="485">AK73+1</f>
         <v>44212</v>
       </c>
       <c r="AP73" s="28" t="s">
         <v>173</v>
       </c>
       <c r="AQ73" s="29">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>10</v>
       </c>
       <c r="AR73" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>88</v>
       </c>
       <c r="AS73" s="27" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>DevOps</v>
       </c>
       <c r="AT73" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D74" s="37" t="s">
@@ -10819,7 +10823,7 @@
         <v>5</v>
       </c>
       <c r="V74" s="60">
-        <f t="shared" ref="V74" si="487">SUM(O74:U74)</f>
+        <f t="shared" ref="V74" si="486">SUM(O74:U74)</f>
         <v>22</v>
       </c>
       <c r="X74" s="76"/>
@@ -10840,29 +10844,29 @@
         <v>174</v>
       </c>
       <c r="AQ74" s="29">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR74" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>89</v>
       </c>
       <c r="AS74" s="27" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>DevOps</v>
       </c>
       <c r="AT74" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C75" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D75" s="12" t="s">
@@ -10872,7 +10876,7 @@
         <v>12</v>
       </c>
       <c r="F75" s="56">
-        <f t="shared" ref="F75:F138" si="488">F74+1</f>
+        <f t="shared" ref="F75:F138" si="487">F74+1</f>
         <v>72</v>
       </c>
       <c r="G75" s="11" t="s">
@@ -10894,23 +10898,23 @@
         <v>44095</v>
       </c>
       <c r="Q75" s="75">
-        <f t="shared" ref="Q75:U75" si="489">P75+1</f>
+        <f t="shared" ref="Q75:U75" si="488">P75+1</f>
         <v>44096</v>
       </c>
       <c r="R75" s="75">
-        <f t="shared" si="489"/>
+        <f t="shared" si="488"/>
         <v>44097</v>
       </c>
       <c r="S75" s="75">
-        <f t="shared" si="489"/>
+        <f t="shared" si="488"/>
         <v>44098</v>
       </c>
       <c r="T75" s="75">
-        <f t="shared" si="489"/>
+        <f t="shared" si="488"/>
         <v>44099</v>
       </c>
       <c r="U75" s="75">
-        <f t="shared" si="489"/>
+        <f t="shared" si="488"/>
         <v>44100</v>
       </c>
       <c r="V75" s="54"/>
@@ -10923,15 +10927,15 @@
         <v>44214</v>
       </c>
       <c r="Z75" s="74">
-        <f t="shared" ref="Z75:AB75" si="490">Y75+1</f>
+        <f t="shared" ref="Z75:AB75" si="489">Y75+1</f>
         <v>44215</v>
       </c>
       <c r="AA75" s="74">
-        <f t="shared" si="490"/>
+        <f t="shared" si="489"/>
         <v>44216</v>
       </c>
       <c r="AB75" s="74">
-        <f t="shared" si="490"/>
+        <f t="shared" si="489"/>
         <v>44217</v>
       </c>
       <c r="AC75" s="2"/>
@@ -10945,15 +10949,15 @@
         <v>44214</v>
       </c>
       <c r="AH75" s="74">
-        <f t="shared" ref="AH75" si="491">AG75+1</f>
+        <f t="shared" ref="AH75" si="490">AG75+1</f>
         <v>44215</v>
       </c>
       <c r="AI75" s="74">
-        <f t="shared" ref="AI75" si="492">AH75+1</f>
+        <f t="shared" ref="AI75" si="491">AH75+1</f>
         <v>44216</v>
       </c>
       <c r="AJ75" s="74">
-        <f t="shared" ref="AJ75" si="493">AI75+1</f>
+        <f t="shared" ref="AJ75" si="492">AI75+1</f>
         <v>44217</v>
       </c>
       <c r="AK75" s="2"/>
@@ -10962,29 +10966,29 @@
         <v>175</v>
       </c>
       <c r="AQ75" s="29">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR75" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>90</v>
       </c>
       <c r="AS75" s="27" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>DevOps</v>
       </c>
       <c r="AT75" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D76" s="13" t="s">
@@ -10994,7 +10998,7 @@
         <v>8</v>
       </c>
       <c r="F76" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>73</v>
       </c>
       <c r="G76" s="11" t="s">
@@ -11029,7 +11033,7 @@
         <v>5</v>
       </c>
       <c r="V76" s="60">
-        <f t="shared" ref="V76" si="494">SUM(O76:U76)</f>
+        <f t="shared" ref="V76" si="493">SUM(O76:U76)</f>
         <v>22</v>
       </c>
       <c r="X76" s="76"/>
@@ -11050,29 +11054,29 @@
         <v>176</v>
       </c>
       <c r="AQ76" s="98">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>10</v>
       </c>
       <c r="AR76" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>91</v>
       </c>
       <c r="AS76" s="99" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>DevOps</v>
       </c>
       <c r="AT76" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D77" s="13" t="s">
@@ -11082,7 +11086,7 @@
         <v>12</v>
       </c>
       <c r="F77" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>74</v>
       </c>
       <c r="G77" s="11" t="s">
@@ -11104,23 +11108,23 @@
         <v>44102</v>
       </c>
       <c r="Q77" s="75">
-        <f t="shared" ref="Q77:U77" si="495">P77+1</f>
+        <f t="shared" ref="Q77:U77" si="494">P77+1</f>
         <v>44103</v>
       </c>
       <c r="R77" s="75">
-        <f t="shared" si="495"/>
+        <f t="shared" si="494"/>
         <v>44104</v>
       </c>
       <c r="S77" s="75">
-        <f t="shared" si="495"/>
+        <f t="shared" si="494"/>
         <v>44105</v>
       </c>
       <c r="T77" s="75">
-        <f t="shared" si="495"/>
+        <f t="shared" si="494"/>
         <v>44106</v>
       </c>
       <c r="U77" s="75">
-        <f t="shared" si="495"/>
+        <f t="shared" si="494"/>
         <v>44107</v>
       </c>
       <c r="V77" s="54"/>
@@ -11128,29 +11132,29 @@
         <v>16</v>
       </c>
       <c r="AQ77" s="6">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>10</v>
       </c>
       <c r="AR77" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>24</v>
       </c>
       <c r="AS77" s="3" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Le commencement</v>
       </c>
       <c r="AT77" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D78" s="13" t="s">
@@ -11160,7 +11164,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>75</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -11195,36 +11199,36 @@
         <v>5</v>
       </c>
       <c r="V78" s="60">
-        <f t="shared" ref="V78" si="496">SUM(O78:U78)</f>
+        <f t="shared" ref="V78" si="495">SUM(O78:U78)</f>
         <v>22</v>
       </c>
       <c r="AP78" s="42" t="s">
         <v>145</v>
       </c>
       <c r="AQ78" s="51">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>10</v>
       </c>
       <c r="AR78" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>92</v>
       </c>
       <c r="AS78" s="43" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Android</v>
       </c>
       <c r="AT78" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D79" s="13" t="s">
@@ -11234,7 +11238,7 @@
         <v>15</v>
       </c>
       <c r="F79" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>76</v>
       </c>
       <c r="G79" s="11" t="s">
@@ -11253,23 +11257,23 @@
         <v>44109</v>
       </c>
       <c r="Q79" s="75">
-        <f t="shared" ref="Q79:U79" si="497">P79+1</f>
+        <f t="shared" ref="Q79:U79" si="496">P79+1</f>
         <v>44110</v>
       </c>
       <c r="R79" s="75">
-        <f t="shared" si="497"/>
+        <f t="shared" si="496"/>
         <v>44111</v>
       </c>
       <c r="S79" s="75">
-        <f t="shared" si="497"/>
+        <f t="shared" si="496"/>
         <v>44112</v>
       </c>
       <c r="T79" s="75">
-        <f t="shared" si="497"/>
+        <f t="shared" si="496"/>
         <v>44113</v>
       </c>
       <c r="U79" s="75">
-        <f t="shared" si="497"/>
+        <f t="shared" si="496"/>
         <v>44114</v>
       </c>
       <c r="V79" s="54"/>
@@ -11277,29 +11281,29 @@
         <v>146</v>
       </c>
       <c r="AQ79" s="24">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>10</v>
       </c>
       <c r="AR79" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>93</v>
       </c>
       <c r="AS79" s="22" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Android</v>
       </c>
       <c r="AT79" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D80" s="13" t="s">
@@ -11309,7 +11313,7 @@
         <v>6</v>
       </c>
       <c r="F80" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>77</v>
       </c>
       <c r="G80" s="11" t="s">
@@ -11344,36 +11348,36 @@
         <v>5</v>
       </c>
       <c r="V80" s="60">
-        <f t="shared" ref="V80" si="498">SUM(O80:U80)</f>
+        <f t="shared" ref="V80" si="497">SUM(O80:U80)</f>
         <v>22</v>
       </c>
       <c r="AP80" s="23" t="s">
         <v>147</v>
       </c>
       <c r="AQ80" s="24">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>15</v>
       </c>
       <c r="AR80" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>94</v>
       </c>
       <c r="AS80" s="22" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Android</v>
       </c>
       <c r="AT80" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C81" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -11383,7 +11387,7 @@
         <v>6</v>
       </c>
       <c r="F81" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>78</v>
       </c>
       <c r="G81" s="11" t="s">
@@ -11405,23 +11409,23 @@
         <v>44116</v>
       </c>
       <c r="Q81" s="75">
-        <f t="shared" ref="Q81:U81" si="499">P81+1</f>
+        <f t="shared" ref="Q81:U81" si="498">P81+1</f>
         <v>44117</v>
       </c>
       <c r="R81" s="75">
-        <f t="shared" si="499"/>
+        <f t="shared" si="498"/>
         <v>44118</v>
       </c>
       <c r="S81" s="75">
-        <f t="shared" si="499"/>
+        <f t="shared" si="498"/>
         <v>44119</v>
       </c>
       <c r="T81" s="75">
-        <f t="shared" si="499"/>
+        <f t="shared" si="498"/>
         <v>44120</v>
       </c>
       <c r="U81" s="75">
-        <f t="shared" si="499"/>
+        <f t="shared" si="498"/>
         <v>44121</v>
       </c>
       <c r="V81" s="54"/>
@@ -11429,29 +11433,29 @@
         <v>148</v>
       </c>
       <c r="AQ81" s="24">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>17</v>
       </c>
       <c r="AR81" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>95</v>
       </c>
       <c r="AS81" s="22" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Android</v>
       </c>
       <c r="AT81" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>4</v>
       </c>
       <c r="D82" s="44" t="s">
@@ -11461,7 +11465,7 @@
         <v>4</v>
       </c>
       <c r="F82" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>79</v>
       </c>
       <c r="G82" s="45" t="s">
@@ -11493,36 +11497,36 @@
         <v>5</v>
       </c>
       <c r="V82" s="60">
-        <f t="shared" ref="V82" si="500">SUM(O82:U82)</f>
+        <f t="shared" ref="V82" si="499">SUM(O82:U82)</f>
         <v>24</v>
       </c>
       <c r="AP82" s="23" t="s">
         <v>149</v>
       </c>
       <c r="AQ82" s="24">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR82" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>96</v>
       </c>
       <c r="AS82" s="22" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Android</v>
       </c>
       <c r="AT82" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>4</v>
       </c>
       <c r="D83" s="28" t="s">
@@ -11532,7 +11536,7 @@
         <v>8</v>
       </c>
       <c r="F83" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>80</v>
       </c>
       <c r="G83" s="27" t="s">
@@ -11554,23 +11558,23 @@
         <v>44123</v>
       </c>
       <c r="Q83" s="75">
-        <f t="shared" ref="Q83:U83" si="501">P83+1</f>
+        <f t="shared" ref="Q83:U83" si="500">P83+1</f>
         <v>44124</v>
       </c>
       <c r="R83" s="75">
-        <f t="shared" si="501"/>
+        <f t="shared" si="500"/>
         <v>44125</v>
       </c>
       <c r="S83" s="75">
-        <f t="shared" si="501"/>
+        <f t="shared" si="500"/>
         <v>44126</v>
       </c>
       <c r="T83" s="75">
-        <f t="shared" si="501"/>
+        <f t="shared" si="500"/>
         <v>44127</v>
       </c>
       <c r="U83" s="75">
-        <f t="shared" si="501"/>
+        <f t="shared" si="500"/>
         <v>44128</v>
       </c>
       <c r="V83" s="54"/>
@@ -11578,29 +11582,29 @@
         <v>150</v>
       </c>
       <c r="AQ83" s="24">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR83" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>97</v>
       </c>
       <c r="AS83" s="22" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Android</v>
       </c>
       <c r="AT83" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C84" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>3</v>
       </c>
       <c r="D84" s="28" t="s">
@@ -11610,7 +11614,7 @@
         <v>12</v>
       </c>
       <c r="F84" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>81</v>
       </c>
       <c r="G84" s="27" t="s">
@@ -11645,36 +11649,36 @@
         <v>5</v>
       </c>
       <c r="V84" s="60">
-        <f t="shared" ref="V84" si="502">SUM(O84:U84)</f>
+        <f t="shared" ref="V84" si="501">SUM(O84:U84)</f>
         <v>22</v>
       </c>
       <c r="AP84" s="23" t="s">
         <v>151</v>
       </c>
       <c r="AQ84" s="24">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>10</v>
       </c>
       <c r="AR84" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>98</v>
       </c>
       <c r="AS84" s="22" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Android</v>
       </c>
       <c r="AT84" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D85" s="28" t="s">
@@ -11684,7 +11688,7 @@
         <v>12</v>
       </c>
       <c r="F85" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>82</v>
       </c>
       <c r="G85" s="27" t="s">
@@ -11706,23 +11710,23 @@
         <v>44130</v>
       </c>
       <c r="Q85" s="75">
-        <f t="shared" ref="Q85:U85" si="503">P85+1</f>
+        <f t="shared" ref="Q85:U85" si="502">P85+1</f>
         <v>44131</v>
       </c>
       <c r="R85" s="75">
-        <f t="shared" si="503"/>
+        <f t="shared" si="502"/>
         <v>44132</v>
       </c>
       <c r="S85" s="75">
-        <f t="shared" si="503"/>
+        <f t="shared" si="502"/>
         <v>44133</v>
       </c>
       <c r="T85" s="75">
-        <f t="shared" si="503"/>
+        <f t="shared" si="502"/>
         <v>44134</v>
       </c>
       <c r="U85" s="75">
-        <f t="shared" si="503"/>
+        <f t="shared" si="502"/>
         <v>44135</v>
       </c>
       <c r="V85" s="54"/>
@@ -11730,29 +11734,29 @@
         <v>152</v>
       </c>
       <c r="AQ85" s="24">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>10</v>
       </c>
       <c r="AR85" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>99</v>
       </c>
       <c r="AS85" s="22" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Android</v>
       </c>
       <c r="AT85" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>2</v>
       </c>
       <c r="D86" s="46" t="s">
@@ -11762,7 +11766,7 @@
         <v>10</v>
       </c>
       <c r="F86" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>83</v>
       </c>
       <c r="G86" s="27" t="s">
@@ -11794,36 +11798,36 @@
         <v>5</v>
       </c>
       <c r="V86" s="60">
-        <f t="shared" ref="V86" si="504">SUM(O86:U86)</f>
+        <f t="shared" ref="V86" si="503">SUM(O86:U86)</f>
         <v>22</v>
       </c>
       <c r="AP86" s="25" t="s">
         <v>153</v>
       </c>
       <c r="AQ86" s="26">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>10</v>
       </c>
       <c r="AR86" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>100</v>
       </c>
       <c r="AS86" s="22" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Android</v>
       </c>
       <c r="AT86" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C87" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>2</v>
       </c>
       <c r="D87" s="46" t="s">
@@ -11833,7 +11837,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>84</v>
       </c>
       <c r="G87" s="27" t="s">
@@ -11861,23 +11865,23 @@
         <v>44137</v>
       </c>
       <c r="Q87" s="75">
-        <f t="shared" ref="Q87:U87" si="505">P87+1</f>
+        <f t="shared" ref="Q87:U87" si="504">P87+1</f>
         <v>44138</v>
       </c>
       <c r="R87" s="75">
-        <f t="shared" si="505"/>
+        <f t="shared" si="504"/>
         <v>44139</v>
       </c>
       <c r="S87" s="75">
-        <f t="shared" si="505"/>
+        <f t="shared" si="504"/>
         <v>44140</v>
       </c>
       <c r="T87" s="75">
-        <f t="shared" si="505"/>
+        <f t="shared" si="504"/>
         <v>44141</v>
       </c>
       <c r="U87" s="75">
-        <f t="shared" si="505"/>
+        <f t="shared" si="504"/>
         <v>44142</v>
       </c>
       <c r="V87" s="54"/>
@@ -11885,29 +11889,29 @@
         <v>140</v>
       </c>
       <c r="AQ87" s="50">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>12</v>
       </c>
       <c r="AR87" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>101</v>
       </c>
       <c r="AS87" s="40" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>React</v>
       </c>
       <c r="AT87" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D88" s="28" t="s">
@@ -11917,7 +11921,7 @@
         <v>8</v>
       </c>
       <c r="F88" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>85</v>
       </c>
       <c r="G88" s="27" t="s">
@@ -11952,36 +11956,36 @@
         <v>5</v>
       </c>
       <c r="V88" s="60">
-        <f t="shared" ref="V88" si="506">SUM(O88:U88)</f>
+        <f t="shared" ref="V88" si="505">SUM(O88:U88)</f>
         <v>24</v>
       </c>
       <c r="AP88" s="18" t="s">
         <v>141</v>
       </c>
       <c r="AQ88" s="19">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>12</v>
       </c>
       <c r="AR88" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>102</v>
       </c>
       <c r="AS88" s="17" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>React</v>
       </c>
       <c r="AT88" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>5</v>
       </c>
       <c r="D89" s="28" t="s">
@@ -11991,7 +11995,7 @@
         <v>10</v>
       </c>
       <c r="F89" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>86</v>
       </c>
       <c r="G89" s="27" t="s">
@@ -12016,23 +12020,23 @@
         <v>44144</v>
       </c>
       <c r="Q89" s="75">
-        <f t="shared" ref="Q89:U89" si="507">P89+1</f>
+        <f t="shared" ref="Q89:U89" si="506">P89+1</f>
         <v>44145</v>
       </c>
       <c r="R89" s="75">
-        <f t="shared" si="507"/>
+        <f t="shared" si="506"/>
         <v>44146</v>
       </c>
       <c r="S89" s="75">
-        <f t="shared" si="507"/>
+        <f t="shared" si="506"/>
         <v>44147</v>
       </c>
       <c r="T89" s="75">
-        <f t="shared" si="507"/>
+        <f t="shared" si="506"/>
         <v>44148</v>
       </c>
       <c r="U89" s="75">
-        <f t="shared" si="507"/>
+        <f t="shared" si="506"/>
         <v>44149</v>
       </c>
       <c r="V89" s="54"/>
@@ -12040,29 +12044,29 @@
         <v>142</v>
       </c>
       <c r="AQ89" s="19">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>12</v>
       </c>
       <c r="AR89" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>103</v>
       </c>
       <c r="AS89" s="17" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>React</v>
       </c>
       <c r="AT89" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D90" s="28" t="s">
@@ -12072,7 +12076,7 @@
         <v>12</v>
       </c>
       <c r="F90" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>87</v>
       </c>
       <c r="G90" s="27" t="s">
@@ -12107,36 +12111,36 @@
         <v>5</v>
       </c>
       <c r="V90" s="60">
-        <f t="shared" ref="V90" si="508">SUM(O90:U90)</f>
+        <f t="shared" ref="V90" si="507">SUM(O90:U90)</f>
         <v>22</v>
       </c>
       <c r="AP90" s="18" t="s">
         <v>143</v>
       </c>
       <c r="AQ90" s="19">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR90" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>104</v>
       </c>
       <c r="AS90" s="17" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>React</v>
       </c>
       <c r="AT90" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C91" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D91" s="28" t="s">
@@ -12146,7 +12150,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>88</v>
       </c>
       <c r="G91" s="27" t="s">
@@ -12168,23 +12172,23 @@
         <v>44151</v>
       </c>
       <c r="Q91" s="75">
-        <f t="shared" ref="Q91:U91" si="509">P91+1</f>
+        <f t="shared" ref="Q91:U91" si="508">P91+1</f>
         <v>44152</v>
       </c>
       <c r="R91" s="75">
-        <f t="shared" si="509"/>
+        <f t="shared" si="508"/>
         <v>44153</v>
       </c>
       <c r="S91" s="75">
-        <f t="shared" si="509"/>
+        <f t="shared" si="508"/>
         <v>44154</v>
       </c>
       <c r="T91" s="75">
-        <f t="shared" si="509"/>
+        <f t="shared" si="508"/>
         <v>44155</v>
       </c>
       <c r="U91" s="75">
-        <f t="shared" si="509"/>
+        <f t="shared" si="508"/>
         <v>44156</v>
       </c>
       <c r="V91" s="54"/>
@@ -12192,29 +12196,29 @@
         <v>130</v>
       </c>
       <c r="AQ91" s="19">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>10</v>
       </c>
       <c r="AR91" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>105</v>
       </c>
       <c r="AS91" s="17" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>React</v>
       </c>
       <c r="AT91" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C92" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D92" s="28" t="s">
@@ -12224,7 +12228,7 @@
         <v>8</v>
       </c>
       <c r="F92" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>89</v>
       </c>
       <c r="G92" s="27" t="s">
@@ -12262,36 +12266,36 @@
         <v>5</v>
       </c>
       <c r="V92" s="60">
-        <f t="shared" ref="V92" si="510">SUM(O92:U92)</f>
+        <f t="shared" ref="V92" si="509">SUM(O92:U92)</f>
         <v>22</v>
       </c>
       <c r="AP92" s="18" t="s">
         <v>131</v>
       </c>
       <c r="AQ92" s="19">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>10</v>
       </c>
       <c r="AR92" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>106</v>
       </c>
       <c r="AS92" s="17" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>React</v>
       </c>
       <c r="AT92" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D93" s="28" t="s">
@@ -12301,7 +12305,7 @@
         <v>8</v>
       </c>
       <c r="F93" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>90</v>
       </c>
       <c r="G93" s="27" t="s">
@@ -12329,23 +12333,23 @@
         <v>44158</v>
       </c>
       <c r="Q93" s="75">
-        <f t="shared" ref="Q93:U93" si="511">P93+1</f>
+        <f t="shared" ref="Q93:U93" si="510">P93+1</f>
         <v>44159</v>
       </c>
       <c r="R93" s="75">
-        <f t="shared" si="511"/>
+        <f t="shared" si="510"/>
         <v>44160</v>
       </c>
       <c r="S93" s="75">
-        <f t="shared" si="511"/>
+        <f t="shared" si="510"/>
         <v>44161</v>
       </c>
       <c r="T93" s="75">
-        <f t="shared" si="511"/>
+        <f t="shared" si="510"/>
         <v>44162</v>
       </c>
       <c r="U93" s="75">
-        <f t="shared" si="511"/>
+        <f t="shared" si="510"/>
         <v>44163</v>
       </c>
       <c r="V93" s="54"/>
@@ -12353,29 +12357,29 @@
         <v>132</v>
       </c>
       <c r="AQ93" s="21">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR93" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>107</v>
       </c>
       <c r="AS93" s="17" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>React</v>
       </c>
       <c r="AT93" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C94" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D94" s="30" t="s">
@@ -12385,7 +12389,7 @@
         <v>10</v>
       </c>
       <c r="F94" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>91</v>
       </c>
       <c r="G94" s="27" t="s">
@@ -12423,36 +12427,36 @@
         <v>5</v>
       </c>
       <c r="V94" s="60">
-        <f t="shared" ref="V94" si="512">SUM(O94:U94)</f>
+        <f t="shared" ref="V94" si="511">SUM(O94:U94)</f>
         <v>22</v>
       </c>
       <c r="AP94" s="41" t="s">
         <v>75</v>
       </c>
       <c r="AQ94" s="50">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>12</v>
       </c>
       <c r="AR94" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>108</v>
       </c>
       <c r="AS94" s="40" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Node.js</v>
       </c>
       <c r="AT94" s="87" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D95" s="42" t="s">
@@ -12462,7 +12466,7 @@
         <v>10</v>
       </c>
       <c r="F95" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>92</v>
       </c>
       <c r="G95" s="43" t="s">
@@ -12484,23 +12488,23 @@
         <v>44165</v>
       </c>
       <c r="Q95" s="75">
-        <f t="shared" ref="Q95:U95" si="513">P95+1</f>
+        <f t="shared" ref="Q95:U95" si="512">P95+1</f>
         <v>44166</v>
       </c>
       <c r="R95" s="75">
-        <f t="shared" si="513"/>
+        <f t="shared" si="512"/>
         <v>44167</v>
       </c>
       <c r="S95" s="75">
-        <f t="shared" si="513"/>
+        <f t="shared" si="512"/>
         <v>44168</v>
       </c>
       <c r="T95" s="75">
-        <f t="shared" si="513"/>
+        <f t="shared" si="512"/>
         <v>44169</v>
       </c>
       <c r="U95" s="75">
-        <f t="shared" si="513"/>
+        <f t="shared" si="512"/>
         <v>44170</v>
       </c>
       <c r="V95" s="54"/>
@@ -12508,29 +12512,29 @@
         <v>76</v>
       </c>
       <c r="AQ95" s="19">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR95" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>109</v>
       </c>
       <c r="AS95" s="17" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Node.js</v>
       </c>
       <c r="AT95" s="87" t="str">
-        <f t="shared" ref="AT95:AT138" si="514">IF(COUNTIF(AF:AL,AR95)&lt;&gt;0,"OK","")</f>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>3</v>
       </c>
       <c r="D96" s="23" t="s">
@@ -12540,7 +12544,7 @@
         <v>10</v>
       </c>
       <c r="F96" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>93</v>
       </c>
       <c r="G96" s="22" t="s">
@@ -12575,36 +12579,36 @@
         <v>5</v>
       </c>
       <c r="V96" s="60">
-        <f t="shared" ref="V96" si="515">SUM(O96:U96)</f>
+        <f t="shared" ref="V96" si="513">SUM(O96:U96)</f>
         <v>22</v>
       </c>
       <c r="AP96" s="18" t="s">
         <v>139</v>
       </c>
       <c r="AQ96" s="19">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>16</v>
       </c>
       <c r="AR96" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>110</v>
       </c>
       <c r="AS96" s="17" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Node.js</v>
       </c>
       <c r="AT96" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C97" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D97" s="23" t="s">
@@ -12614,7 +12618,7 @@
         <v>15</v>
       </c>
       <c r="F97" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>94</v>
       </c>
       <c r="G97" s="22" t="s">
@@ -12636,23 +12640,23 @@
         <v>44172</v>
       </c>
       <c r="Q97" s="75">
-        <f t="shared" ref="Q97:U97" si="516">P97+1</f>
+        <f t="shared" ref="Q97:U97" si="514">P97+1</f>
         <v>44173</v>
       </c>
       <c r="R97" s="75">
-        <f t="shared" si="516"/>
+        <f t="shared" si="514"/>
         <v>44174</v>
       </c>
       <c r="S97" s="75">
-        <f t="shared" si="516"/>
+        <f t="shared" si="514"/>
         <v>44175</v>
       </c>
       <c r="T97" s="75">
-        <f t="shared" si="516"/>
+        <f t="shared" si="514"/>
         <v>44176</v>
       </c>
       <c r="U97" s="75">
-        <f t="shared" si="516"/>
+        <f t="shared" si="514"/>
         <v>44177</v>
       </c>
       <c r="V97" s="54"/>
@@ -12660,29 +12664,29 @@
         <v>80</v>
       </c>
       <c r="AQ97" s="21">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="AR97" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>111</v>
       </c>
       <c r="AS97" s="17" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Node.js</v>
       </c>
       <c r="AT97" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C98" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D98" s="23" t="s">
@@ -12692,7 +12696,7 @@
         <v>17</v>
       </c>
       <c r="F98" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>95</v>
       </c>
       <c r="G98" s="22" t="s">
@@ -12727,36 +12731,36 @@
         <v>5</v>
       </c>
       <c r="V98" s="60">
-        <f t="shared" ref="V98" si="517">SUM(O98:U98)</f>
+        <f t="shared" ref="V98" si="515">SUM(O98:U98)</f>
         <v>22</v>
       </c>
       <c r="AP98" s="41" t="s">
         <v>125</v>
       </c>
       <c r="AQ98" s="50">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>12</v>
       </c>
       <c r="AR98" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>112</v>
       </c>
       <c r="AS98" s="40" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Front-end</v>
       </c>
       <c r="AT98" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C99" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D99" s="23" t="s">
@@ -12766,7 +12770,7 @@
         <v>8</v>
       </c>
       <c r="F99" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>96</v>
       </c>
       <c r="G99" s="22" t="s">
@@ -12788,23 +12792,23 @@
         <v>44179</v>
       </c>
       <c r="Q99" s="75">
-        <f t="shared" ref="Q99:U99" si="518">P99+1</f>
+        <f t="shared" ref="Q99:U99" si="516">P99+1</f>
         <v>44180</v>
       </c>
       <c r="R99" s="75">
-        <f t="shared" si="518"/>
+        <f t="shared" si="516"/>
         <v>44181</v>
       </c>
       <c r="S99" s="75">
-        <f t="shared" si="518"/>
+        <f t="shared" si="516"/>
         <v>44182</v>
       </c>
       <c r="T99" s="75">
-        <f t="shared" si="518"/>
+        <f t="shared" si="516"/>
         <v>44183</v>
       </c>
       <c r="U99" s="75">
-        <f t="shared" si="518"/>
+        <f t="shared" si="516"/>
         <v>44184</v>
       </c>
       <c r="V99" s="54"/>
@@ -12812,29 +12816,29 @@
         <v>126</v>
       </c>
       <c r="AQ99" s="21">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>12</v>
       </c>
       <c r="AR99" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>113</v>
       </c>
       <c r="AS99" s="17" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Front-end</v>
       </c>
       <c r="AT99" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C100" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D100" s="23" t="s">
@@ -12844,7 +12848,7 @@
         <v>8</v>
       </c>
       <c r="F100" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>97</v>
       </c>
       <c r="G100" s="22" t="s">
@@ -12879,36 +12883,36 @@
         <v>5</v>
       </c>
       <c r="V100" s="60">
-        <f t="shared" ref="V100" si="519">SUM(O100:U100)</f>
+        <f t="shared" ref="V100" si="517">SUM(O100:U100)</f>
         <v>22</v>
       </c>
       <c r="AP100" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AQ100" s="8">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR100" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>17</v>
       </c>
       <c r="AS100" s="3" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Le commencement</v>
       </c>
       <c r="AT100" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C101" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D101" s="23" t="s">
@@ -12918,7 +12922,7 @@
         <v>10</v>
       </c>
       <c r="F101" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>98</v>
       </c>
       <c r="G101" s="22" t="s">
@@ -12935,29 +12939,29 @@
         <v>10</v>
       </c>
       <c r="AQ101" s="8">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR101" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>18</v>
       </c>
       <c r="AS101" s="3" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>Le commencement</v>
       </c>
       <c r="AT101" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C102" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D102" s="23" t="s">
@@ -12967,7 +12971,7 @@
         <v>10</v>
       </c>
       <c r="F102" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>99</v>
       </c>
       <c r="G102" s="22" t="s">
@@ -12984,29 +12988,29 @@
         <v>39</v>
       </c>
       <c r="AQ102" s="49">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR102" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>114</v>
       </c>
       <c r="AS102" s="38" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>.NET</v>
       </c>
       <c r="AT102" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C103" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D103" s="25" t="s">
@@ -13016,7 +13020,7 @@
         <v>10</v>
       </c>
       <c r="F103" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>100</v>
       </c>
       <c r="G103" s="22" t="s">
@@ -13030,29 +13034,29 @@
         <v>40</v>
       </c>
       <c r="AQ103" s="14">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR103" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>115</v>
       </c>
       <c r="AS103" s="11" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>.NET</v>
       </c>
       <c r="AT103" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C104" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D104" s="41" t="s">
@@ -13062,7 +13066,7 @@
         <v>12</v>
       </c>
       <c r="F104" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>101</v>
       </c>
       <c r="G104" s="40" t="s">
@@ -13079,29 +13083,29 @@
         <v>41</v>
       </c>
       <c r="AQ104" s="14">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR104" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>116</v>
       </c>
       <c r="AS104" s="11" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>.NET</v>
       </c>
       <c r="AT104" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C105" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>2</v>
       </c>
       <c r="D105" s="18" t="s">
@@ -13111,7 +13115,7 @@
         <v>12</v>
       </c>
       <c r="F105" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>102</v>
       </c>
       <c r="G105" s="17" t="s">
@@ -13128,29 +13132,29 @@
         <v>42</v>
       </c>
       <c r="AQ105" s="14">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR105" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>117</v>
       </c>
       <c r="AS105" s="11" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>.NET</v>
       </c>
       <c r="AT105" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C106" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D106" s="18" t="s">
@@ -13160,7 +13164,7 @@
         <v>12</v>
       </c>
       <c r="F106" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>103</v>
       </c>
       <c r="G106" s="17" t="s">
@@ -13177,29 +13181,29 @@
         <v>43</v>
       </c>
       <c r="AQ106" s="14">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR106" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>118</v>
       </c>
       <c r="AS106" s="11" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>.NET</v>
       </c>
       <c r="AT106" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C107" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D107" s="18" t="s">
@@ -13209,7 +13213,7 @@
         <v>8</v>
       </c>
       <c r="F107" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>104</v>
       </c>
       <c r="G107" s="17" t="s">
@@ -13223,29 +13227,29 @@
         <v>44</v>
       </c>
       <c r="AQ107" s="14">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR107" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>119</v>
       </c>
       <c r="AS107" s="11" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>.NET</v>
       </c>
       <c r="AT107" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C108" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>2</v>
       </c>
       <c r="D108" s="18" t="s">
@@ -13255,7 +13259,7 @@
         <v>10</v>
       </c>
       <c r="F108" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>105</v>
       </c>
       <c r="G108" s="17" t="s">
@@ -13272,29 +13276,29 @@
         <v>45</v>
       </c>
       <c r="AQ108" s="14">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>8</v>
       </c>
       <c r="AR108" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>120</v>
       </c>
       <c r="AS108" s="11" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>.NET</v>
       </c>
       <c r="AT108" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C109" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D109" s="18" t="s">
@@ -13304,7 +13308,7 @@
         <v>10</v>
       </c>
       <c r="F109" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>106</v>
       </c>
       <c r="G109" s="17" t="s">
@@ -13321,29 +13325,29 @@
         <v>46</v>
       </c>
       <c r="AQ109" s="14">
-        <f t="shared" si="416"/>
+        <f t="shared" si="271"/>
         <v>16</v>
       </c>
       <c r="AR109" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="272"/>
         <v>121</v>
       </c>
       <c r="AS109" s="11" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="273"/>
         <v>.NET</v>
       </c>
       <c r="AT109" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C110" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D110" s="20" t="s">
@@ -13353,7 +13357,7 @@
         <v>8</v>
       </c>
       <c r="F110" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>107</v>
       </c>
       <c r="G110" s="17" t="s">
@@ -13370,29 +13374,29 @@
         <v>47</v>
       </c>
       <c r="AQ110" s="14">
-        <f t="shared" si="416"/>
+        <f t="shared" ref="AQ110:AQ138" si="518">INDEX(E:E,MATCH(AP110,D:D,0))</f>
         <v>12</v>
       </c>
       <c r="AR110" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" ref="AR110:AR138" si="519">INDEX(F:F,MATCH(AP110,D:D,0))</f>
         <v>122</v>
       </c>
       <c r="AS110" s="11" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" ref="AS110:AS138" si="520">INDEX(G:G,MATCH(AP110,D:D,0))</f>
         <v>.NET</v>
       </c>
       <c r="AT110" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" ref="AT110:AT138" si="521">IF(COUNTIF(AF:AL,AR110)&lt;&gt;0,"OK","")</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C111" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>2</v>
       </c>
       <c r="D111" s="41" t="s">
@@ -13402,7 +13406,7 @@
         <v>12</v>
       </c>
       <c r="F111" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>108</v>
       </c>
       <c r="G111" s="40" t="s">
@@ -13419,29 +13423,29 @@
         <v>48</v>
       </c>
       <c r="AQ111" s="14">
-        <f t="shared" si="416"/>
+        <f t="shared" si="518"/>
         <v>4</v>
       </c>
       <c r="AR111" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="519"/>
         <v>123</v>
       </c>
       <c r="AS111" s="11" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="520"/>
         <v>.NET</v>
       </c>
       <c r="AT111" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="521"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C112" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D112" s="18" t="s">
@@ -13451,7 +13455,7 @@
         <v>8</v>
       </c>
       <c r="F112" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>109</v>
       </c>
       <c r="G112" s="17" t="s">
@@ -13468,29 +13472,29 @@
         <v>49</v>
       </c>
       <c r="AQ112" s="95">
-        <f t="shared" si="416"/>
+        <f t="shared" si="518"/>
         <v>6</v>
       </c>
       <c r="AR112" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="519"/>
         <v>124</v>
       </c>
       <c r="AS112" s="96" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="520"/>
         <v>.NET</v>
       </c>
       <c r="AT112" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="521"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C113" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D113" s="18" t="s">
@@ -13500,7 +13504,7 @@
         <v>16</v>
       </c>
       <c r="F113" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>110</v>
       </c>
       <c r="G113" s="17" t="s">
@@ -13517,29 +13521,29 @@
         <v>11</v>
       </c>
       <c r="AQ113" s="6">
-        <f t="shared" si="416"/>
+        <f t="shared" si="518"/>
         <v>8</v>
       </c>
       <c r="AR113" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="519"/>
         <v>20</v>
       </c>
       <c r="AS113" s="3" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="520"/>
         <v>Le commencement</v>
       </c>
       <c r="AT113" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="521"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C114" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D114" s="20" t="s">
@@ -13549,7 +13553,7 @@
         <v>6</v>
       </c>
       <c r="F114" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>111</v>
       </c>
       <c r="G114" s="17" t="s">
@@ -13563,29 +13567,29 @@
         <v>12</v>
       </c>
       <c r="AQ114" s="8">
-        <f t="shared" si="416"/>
+        <f t="shared" si="518"/>
         <v>8</v>
       </c>
       <c r="AR114" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="519"/>
         <v>21</v>
       </c>
       <c r="AS114" s="3" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="520"/>
         <v>Le commencement</v>
       </c>
       <c r="AT114" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="521"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C115" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D115" s="41" t="s">
@@ -13595,7 +13599,7 @@
         <v>12</v>
       </c>
       <c r="F115" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>112</v>
       </c>
       <c r="G115" s="40" t="s">
@@ -13612,29 +13616,29 @@
         <v>13</v>
       </c>
       <c r="AQ115" s="8">
-        <f t="shared" si="416"/>
+        <f t="shared" si="518"/>
         <v>8</v>
       </c>
       <c r="AR115" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="519"/>
         <v>22</v>
       </c>
       <c r="AS115" s="3" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="520"/>
         <v>Le commencement</v>
       </c>
       <c r="AT115" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="521"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C116" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D116" s="20" t="s">
@@ -13644,7 +13648,7 @@
         <v>12</v>
       </c>
       <c r="F116" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>113</v>
       </c>
       <c r="G116" s="17" t="s">
@@ -13661,29 +13665,29 @@
         <v>14</v>
       </c>
       <c r="AQ116" s="8">
-        <f t="shared" si="416"/>
+        <f t="shared" si="518"/>
         <v>8</v>
       </c>
       <c r="AR116" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="519"/>
         <v>23</v>
       </c>
       <c r="AS116" s="3" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="520"/>
         <v>Le commencement</v>
       </c>
       <c r="AT116" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="521"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C117" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D117" s="37" t="s">
@@ -13693,7 +13697,7 @@
         <v>8</v>
       </c>
       <c r="F117" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>114</v>
       </c>
       <c r="G117" s="38" t="s">
@@ -13710,29 +13714,29 @@
         <v>189</v>
       </c>
       <c r="AQ117" s="8">
-        <f t="shared" si="416"/>
+        <f t="shared" si="518"/>
         <v>20</v>
       </c>
       <c r="AR117" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="519"/>
         <v>19</v>
       </c>
       <c r="AS117" s="3" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="520"/>
         <v>Le commencement</v>
       </c>
       <c r="AT117" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="521"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C118" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D118" s="13" t="s">
@@ -13742,7 +13746,7 @@
         <v>8</v>
       </c>
       <c r="F118" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>115</v>
       </c>
       <c r="G118" s="11" t="s">
@@ -13759,29 +13763,29 @@
         <v>190</v>
       </c>
       <c r="AQ118" s="52">
-        <f t="shared" ref="AQ118:AQ138" si="520">INDEX(E:E,MATCH(AP118,D:D,0))</f>
+        <f t="shared" si="518"/>
         <v>12</v>
       </c>
       <c r="AR118" s="56">
-        <f t="shared" si="467"/>
+        <f t="shared" si="519"/>
         <v>130</v>
       </c>
       <c r="AS118" s="45" t="str">
-        <f t="shared" ref="AS118:AS138" si="521">INDEX(G:G,MATCH(AP118,D:D,0))</f>
+        <f t="shared" si="520"/>
         <v>Microcontroladores e Eletr. Aplicada</v>
       </c>
       <c r="AT118" s="87" t="str">
-        <f t="shared" si="514"/>
+        <f t="shared" si="521"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C119" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D119" s="13" t="s">
@@ -13791,7 +13795,7 @@
         <v>8</v>
       </c>
       <c r="F119" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>116</v>
       </c>
       <c r="G119" s="11" t="s">
@@ -13808,29 +13812,29 @@
         <v>208</v>
       </c>
       <c r="AQ119" s="29">
+        <f t="shared" si="518"/>
+        <v>8</v>
+      </c>
+      <c r="AR119" s="56">
+        <f t="shared" si="519"/>
+        <v>131</v>
+      </c>
+      <c r="AS119" s="27" t="str">
         <f t="shared" si="520"/>
-        <v>8</v>
-      </c>
-      <c r="AR119" s="56">
-        <f t="shared" si="467"/>
-        <v>131</v>
-      </c>
-      <c r="AS119" s="27" t="str">
+        <v>Microcontroladores e Eletr. Aplicada</v>
+      </c>
+      <c r="AT119" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>Microcontroladores e Eletr. Aplicada</v>
-      </c>
-      <c r="AT119" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C120" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D120" s="13" t="s">
@@ -13840,7 +13844,7 @@
         <v>8</v>
       </c>
       <c r="F120" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>117</v>
       </c>
       <c r="G120" s="11" t="s">
@@ -13857,29 +13861,29 @@
         <v>191</v>
       </c>
       <c r="AQ120" s="29">
+        <f t="shared" si="518"/>
+        <v>6</v>
+      </c>
+      <c r="AR120" s="56">
+        <f t="shared" si="519"/>
+        <v>132</v>
+      </c>
+      <c r="AS120" s="27" t="str">
         <f t="shared" si="520"/>
-        <v>6</v>
-      </c>
-      <c r="AR120" s="56">
-        <f t="shared" si="467"/>
-        <v>132</v>
-      </c>
-      <c r="AS120" s="27" t="str">
+        <v>Microcontroladores e Eletr. Aplicada</v>
+      </c>
+      <c r="AT120" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>Microcontroladores e Eletr. Aplicada</v>
-      </c>
-      <c r="AT120" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C121" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D121" s="13" t="s">
@@ -13889,7 +13893,7 @@
         <v>8</v>
       </c>
       <c r="F121" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>118</v>
       </c>
       <c r="G121" s="11" t="s">
@@ -13906,29 +13910,29 @@
         <v>209</v>
       </c>
       <c r="AQ121" s="31">
+        <f t="shared" si="518"/>
+        <v>8</v>
+      </c>
+      <c r="AR121" s="56">
+        <f t="shared" si="519"/>
+        <v>133</v>
+      </c>
+      <c r="AS121" s="27" t="str">
         <f t="shared" si="520"/>
-        <v>8</v>
-      </c>
-      <c r="AR121" s="56">
-        <f t="shared" si="467"/>
-        <v>133</v>
-      </c>
-      <c r="AS121" s="27" t="str">
+        <v>Microcontroladores e Eletr. Aplicada</v>
+      </c>
+      <c r="AT121" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>Microcontroladores e Eletr. Aplicada</v>
-      </c>
-      <c r="AT121" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C122" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D122" s="13" t="s">
@@ -13938,7 +13942,7 @@
         <v>8</v>
       </c>
       <c r="F122" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>119</v>
       </c>
       <c r="G122" s="11" t="s">
@@ -13955,29 +13959,29 @@
         <v>53</v>
       </c>
       <c r="AQ122" s="49">
+        <f t="shared" si="518"/>
+        <v>12</v>
+      </c>
+      <c r="AR122" s="56">
+        <f t="shared" si="519"/>
+        <v>140</v>
+      </c>
+      <c r="AS122" s="38" t="str">
         <f t="shared" si="520"/>
-        <v>12</v>
-      </c>
-      <c r="AR122" s="56">
-        <f t="shared" si="467"/>
-        <v>140</v>
-      </c>
-      <c r="AS122" s="38" t="str">
+        <v>PYTHON</v>
+      </c>
+      <c r="AT122" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>PYTHON</v>
-      </c>
-      <c r="AT122" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C123" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D123" s="13" t="s">
@@ -13987,7 +13991,7 @@
         <v>8</v>
       </c>
       <c r="F123" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>120</v>
       </c>
       <c r="G123" s="11" t="s">
@@ -14004,29 +14008,29 @@
         <v>54</v>
       </c>
       <c r="AQ123" s="14">
+        <f t="shared" si="518"/>
+        <v>10</v>
+      </c>
+      <c r="AR123" s="56">
+        <f t="shared" si="519"/>
+        <v>141</v>
+      </c>
+      <c r="AS123" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>10</v>
-      </c>
-      <c r="AR123" s="56">
-        <f t="shared" si="467"/>
-        <v>141</v>
-      </c>
-      <c r="AS123" s="11" t="str">
+        <v>PYTHON</v>
+      </c>
+      <c r="AT123" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>PYTHON</v>
-      </c>
-      <c r="AT123" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C124" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D124" s="13" t="s">
@@ -14036,7 +14040,7 @@
         <v>16</v>
       </c>
       <c r="F124" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>121</v>
       </c>
       <c r="G124" s="11" t="s">
@@ -14050,29 +14054,29 @@
         <v>52</v>
       </c>
       <c r="AQ124" s="14">
+        <f t="shared" si="518"/>
+        <v>7</v>
+      </c>
+      <c r="AR124" s="56">
+        <f t="shared" si="519"/>
+        <v>142</v>
+      </c>
+      <c r="AS124" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>7</v>
-      </c>
-      <c r="AR124" s="56">
-        <f t="shared" si="467"/>
-        <v>142</v>
-      </c>
-      <c r="AS124" s="11" t="str">
+        <v>PYTHON</v>
+      </c>
+      <c r="AT124" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>PYTHON</v>
-      </c>
-      <c r="AT124" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C125" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D125" s="13" t="s">
@@ -14082,7 +14086,7 @@
         <v>12</v>
       </c>
       <c r="F125" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>122</v>
       </c>
       <c r="G125" s="11" t="s">
@@ -14099,29 +14103,29 @@
         <v>55</v>
       </c>
       <c r="AQ125" s="14">
+        <f t="shared" si="518"/>
+        <v>8</v>
+      </c>
+      <c r="AR125" s="56">
+        <f t="shared" si="519"/>
+        <v>143</v>
+      </c>
+      <c r="AS125" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>8</v>
-      </c>
-      <c r="AR125" s="56">
-        <f t="shared" si="467"/>
-        <v>143</v>
-      </c>
-      <c r="AS125" s="11" t="str">
+        <v>PYTHON</v>
+      </c>
+      <c r="AT125" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>PYTHON</v>
-      </c>
-      <c r="AT125" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C126" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D126" s="13" t="s">
@@ -14131,7 +14135,7 @@
         <v>4</v>
       </c>
       <c r="F126" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>123</v>
       </c>
       <c r="G126" s="11" t="s">
@@ -14145,29 +14149,29 @@
         <v>56</v>
       </c>
       <c r="AQ126" s="14">
+        <f t="shared" si="518"/>
+        <v>9</v>
+      </c>
+      <c r="AR126" s="56">
+        <f t="shared" si="519"/>
+        <v>144</v>
+      </c>
+      <c r="AS126" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>9</v>
-      </c>
-      <c r="AR126" s="56">
-        <f t="shared" si="467"/>
-        <v>144</v>
-      </c>
-      <c r="AS126" s="11" t="str">
+        <v>PYTHON</v>
+      </c>
+      <c r="AT126" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>PYTHON</v>
-      </c>
-      <c r="AT126" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C127" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D127" s="15" t="s">
@@ -14177,7 +14181,7 @@
         <v>6</v>
       </c>
       <c r="F127" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>124</v>
       </c>
       <c r="G127" s="11" t="s">
@@ -14194,29 +14198,29 @@
         <v>57</v>
       </c>
       <c r="AQ127" s="14">
+        <f t="shared" si="518"/>
+        <v>7</v>
+      </c>
+      <c r="AR127" s="56">
+        <f t="shared" si="519"/>
+        <v>145</v>
+      </c>
+      <c r="AS127" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>7</v>
-      </c>
-      <c r="AR127" s="56">
-        <f t="shared" si="467"/>
-        <v>145</v>
-      </c>
-      <c r="AS127" s="11" t="str">
+        <v>PYTHON</v>
+      </c>
+      <c r="AT127" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>PYTHON</v>
-      </c>
-      <c r="AT127" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C128" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D128" s="37" t="s">
@@ -14226,7 +14230,7 @@
         <v>12</v>
       </c>
       <c r="F128" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>125</v>
       </c>
       <c r="G128" s="38" t="s">
@@ -14240,29 +14244,29 @@
         <v>58</v>
       </c>
       <c r="AQ128" s="16">
+        <f t="shared" si="518"/>
+        <v>6</v>
+      </c>
+      <c r="AR128" s="56">
+        <f t="shared" si="519"/>
+        <v>146</v>
+      </c>
+      <c r="AS128" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>6</v>
-      </c>
-      <c r="AR128" s="56">
-        <f t="shared" si="467"/>
-        <v>146</v>
-      </c>
-      <c r="AS128" s="11" t="str">
+        <v>PYTHON</v>
+      </c>
+      <c r="AT128" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>PYTHON</v>
-      </c>
-      <c r="AT128" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C129" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D129" s="13" t="s">
@@ -14272,7 +14276,7 @@
         <v>12</v>
       </c>
       <c r="F129" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>126</v>
       </c>
       <c r="G129" s="11" t="s">
@@ -14289,29 +14293,29 @@
         <v>98</v>
       </c>
       <c r="AQ129" s="49">
+        <f t="shared" si="518"/>
+        <v>8</v>
+      </c>
+      <c r="AR129" s="56">
+        <f t="shared" si="519"/>
+        <v>147</v>
+      </c>
+      <c r="AS129" s="38" t="str">
         <f t="shared" si="520"/>
-        <v>8</v>
-      </c>
-      <c r="AR129" s="56">
-        <f t="shared" si="467"/>
-        <v>147</v>
-      </c>
-      <c r="AS129" s="38" t="str">
+        <v>Machine Learning</v>
+      </c>
+      <c r="AT129" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>Machine Learning</v>
-      </c>
-      <c r="AT129" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C130" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D130" s="13" t="s">
@@ -14321,7 +14325,7 @@
         <v>12</v>
       </c>
       <c r="F130" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>127</v>
       </c>
       <c r="G130" s="11" t="s">
@@ -14338,29 +14342,29 @@
         <v>99</v>
       </c>
       <c r="AQ130" s="14">
+        <f t="shared" si="518"/>
+        <v>6</v>
+      </c>
+      <c r="AR130" s="56">
+        <f t="shared" si="519"/>
+        <v>148</v>
+      </c>
+      <c r="AS130" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>6</v>
-      </c>
-      <c r="AR130" s="56">
-        <f t="shared" si="467"/>
-        <v>148</v>
-      </c>
-      <c r="AS130" s="11" t="str">
+        <v>Machine Learning</v>
+      </c>
+      <c r="AT130" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>Machine Learning</v>
-      </c>
-      <c r="AT130" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C131" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D131" s="13" t="s">
@@ -14370,7 +14374,7 @@
         <v>14</v>
       </c>
       <c r="F131" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>128</v>
       </c>
       <c r="G131" s="11" t="s">
@@ -14387,29 +14391,29 @@
         <v>100</v>
       </c>
       <c r="AQ131" s="14">
+        <f t="shared" si="518"/>
+        <v>6</v>
+      </c>
+      <c r="AR131" s="56">
+        <f t="shared" si="519"/>
+        <v>149</v>
+      </c>
+      <c r="AS131" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>6</v>
-      </c>
-      <c r="AR131" s="56">
-        <f t="shared" si="467"/>
-        <v>149</v>
-      </c>
-      <c r="AS131" s="11" t="str">
+        <v>Machine Learning</v>
+      </c>
+      <c r="AT131" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>Machine Learning</v>
-      </c>
-      <c r="AT131" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C132" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="D132" s="15" t="s">
@@ -14419,7 +14423,7 @@
         <v>12</v>
       </c>
       <c r="F132" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>129</v>
       </c>
       <c r="G132" s="11" t="s">
@@ -14436,29 +14440,29 @@
         <v>101</v>
       </c>
       <c r="AQ132" s="14">
+        <f t="shared" si="518"/>
+        <v>4</v>
+      </c>
+      <c r="AR132" s="56">
+        <f t="shared" si="519"/>
+        <v>150</v>
+      </c>
+      <c r="AS132" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>4</v>
-      </c>
-      <c r="AR132" s="56">
-        <f t="shared" si="467"/>
-        <v>150</v>
-      </c>
-      <c r="AS132" s="11" t="str">
+        <v>Machine Learning</v>
+      </c>
+      <c r="AT132" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>Machine Learning</v>
-      </c>
-      <c r="AT132" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C133" s="4">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v>1</v>
       </c>
       <c r="D133" s="44" t="s">
@@ -14468,7 +14472,7 @@
         <v>12</v>
       </c>
       <c r="F133" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>130</v>
       </c>
       <c r="G133" s="45" t="s">
@@ -14485,29 +14489,29 @@
         <v>205</v>
       </c>
       <c r="AQ133" s="33">
+        <f t="shared" si="518"/>
+        <v>10</v>
+      </c>
+      <c r="AR133" s="56">
+        <f t="shared" si="519"/>
+        <v>151</v>
+      </c>
+      <c r="AS133" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>10</v>
-      </c>
-      <c r="AR133" s="56">
-        <f t="shared" ref="AR133:AR138" si="524">INDEX(F:F,MATCH(AP133,D:D,0))</f>
-        <v>151</v>
-      </c>
-      <c r="AS133" s="11" t="str">
+        <v>Machine Learning</v>
+      </c>
+      <c r="AT133" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>Machine Learning</v>
-      </c>
-      <c r="AT133" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C134" s="4">
-        <f t="shared" ref="C134:C197" si="525">COUNTIF($H:$J,$F134)</f>
+        <f t="shared" ref="C134:C197" si="524">COUNTIF($H:$J,$F134)</f>
         <v>2</v>
       </c>
       <c r="D134" s="30" t="s">
@@ -14517,7 +14521,7 @@
         <v>8</v>
       </c>
       <c r="F134" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>131</v>
       </c>
       <c r="G134" s="27" t="s">
@@ -14531,29 +14535,29 @@
         <v>102</v>
       </c>
       <c r="AQ134" s="14">
+        <f t="shared" si="518"/>
+        <v>5</v>
+      </c>
+      <c r="AR134" s="56">
+        <f t="shared" si="519"/>
+        <v>152</v>
+      </c>
+      <c r="AS134" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>5</v>
-      </c>
-      <c r="AR134" s="56">
-        <f t="shared" si="524"/>
-        <v>152</v>
-      </c>
-      <c r="AS134" s="11" t="str">
+        <v>Machine Learning</v>
+      </c>
+      <c r="AT134" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>Machine Learning</v>
-      </c>
-      <c r="AT134" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C135" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D135" s="28" t="s">
@@ -14563,7 +14567,7 @@
         <v>6</v>
       </c>
       <c r="F135" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>132</v>
       </c>
       <c r="G135" s="27" t="s">
@@ -14580,29 +14584,29 @@
         <v>103</v>
       </c>
       <c r="AQ135" s="14">
+        <f t="shared" si="518"/>
+        <v>8</v>
+      </c>
+      <c r="AR135" s="56">
+        <f t="shared" si="519"/>
+        <v>153</v>
+      </c>
+      <c r="AS135" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>8</v>
-      </c>
-      <c r="AR135" s="56">
-        <f t="shared" si="524"/>
-        <v>153</v>
-      </c>
-      <c r="AS135" s="11" t="str">
+        <v>Machine Learning</v>
+      </c>
+      <c r="AT135" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>Machine Learning</v>
-      </c>
-      <c r="AT135" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="4" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v>N</v>
       </c>
       <c r="C136" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D136" s="30" t="s">
@@ -14612,7 +14616,7 @@
         <v>8</v>
       </c>
       <c r="F136" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>133</v>
       </c>
       <c r="G136" s="27" t="s">
@@ -14632,29 +14636,29 @@
         <v>104</v>
       </c>
       <c r="AQ136" s="14">
+        <f t="shared" si="518"/>
+        <v>8</v>
+      </c>
+      <c r="AR136" s="56">
+        <f t="shared" si="519"/>
+        <v>154</v>
+      </c>
+      <c r="AS136" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>8</v>
-      </c>
-      <c r="AR136" s="56">
-        <f t="shared" si="524"/>
-        <v>154</v>
-      </c>
-      <c r="AS136" s="11" t="str">
+        <v>Machine Learning</v>
+      </c>
+      <c r="AT136" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>Machine Learning</v>
-      </c>
-      <c r="AT136" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="4" t="str">
-        <f t="shared" ref="B137:B199" si="526">IF(OR(IF(H137="",0,H137&gt;F137),IF(I137="",0,I137&gt;F137),IF(J137="",0,J137&gt;F137)),"S","N")</f>
+        <f t="shared" ref="B137:B199" si="525">IF(OR(IF(H137="",0,H137&gt;F137),IF(I137="",0,I137&gt;F137),IF(J137="",0,J137&gt;F137)),"S","N")</f>
         <v>N</v>
       </c>
       <c r="C137" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D137" s="37" t="s">
@@ -14664,7 +14668,7 @@
         <v>8</v>
       </c>
       <c r="F137" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>134</v>
       </c>
       <c r="G137" s="38" t="s">
@@ -14681,29 +14685,29 @@
         <v>105</v>
       </c>
       <c r="AQ137" s="14">
+        <f t="shared" si="518"/>
+        <v>9</v>
+      </c>
+      <c r="AR137" s="56">
+        <f t="shared" si="519"/>
+        <v>155</v>
+      </c>
+      <c r="AS137" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>9</v>
-      </c>
-      <c r="AR137" s="56">
-        <f t="shared" si="524"/>
-        <v>155</v>
-      </c>
-      <c r="AS137" s="11" t="str">
+        <v>Machine Learning</v>
+      </c>
+      <c r="AT137" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>Machine Learning</v>
-      </c>
-      <c r="AT137" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C138" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D138" s="13" t="s">
@@ -14713,7 +14717,7 @@
         <v>10</v>
       </c>
       <c r="F138" s="56">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v>135</v>
       </c>
       <c r="G138" s="11" t="s">
@@ -14730,29 +14734,29 @@
         <v>106</v>
       </c>
       <c r="AQ138" s="16">
+        <f t="shared" si="518"/>
+        <v>8</v>
+      </c>
+      <c r="AR138" s="56">
+        <f t="shared" si="519"/>
+        <v>156</v>
+      </c>
+      <c r="AS138" s="11" t="str">
         <f t="shared" si="520"/>
-        <v>8</v>
-      </c>
-      <c r="AR138" s="56">
-        <f t="shared" si="524"/>
-        <v>156</v>
-      </c>
-      <c r="AS138" s="11" t="str">
+        <v>Machine Learning</v>
+      </c>
+      <c r="AT138" s="87" t="str">
         <f t="shared" si="521"/>
-        <v>Machine Learning</v>
-      </c>
-      <c r="AT138" s="87" t="str">
-        <f t="shared" si="514"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C139" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D139" s="13" t="s">
@@ -14762,7 +14766,7 @@
         <v>7</v>
       </c>
       <c r="F139" s="56">
-        <f t="shared" ref="F139:F199" si="527">F138+1</f>
+        <f t="shared" ref="F139:F199" si="526">F138+1</f>
         <v>136</v>
       </c>
       <c r="G139" s="11" t="s">
@@ -14778,11 +14782,11 @@
     </row>
     <row r="140" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C140" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D140" s="13" t="s">
@@ -14792,7 +14796,7 @@
         <v>10</v>
       </c>
       <c r="F140" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>137</v>
       </c>
       <c r="G140" s="11" t="s">
@@ -14805,11 +14809,11 @@
     </row>
     <row r="141" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C141" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D141" s="37" t="s">
@@ -14819,7 +14823,7 @@
         <v>12</v>
       </c>
       <c r="F141" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>138</v>
       </c>
       <c r="G141" s="38" t="s">
@@ -14835,11 +14839,11 @@
     </row>
     <row r="142" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C142" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D142" s="12" t="s">
@@ -14849,7 +14853,7 @@
         <v>12</v>
       </c>
       <c r="F142" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>139</v>
       </c>
       <c r="G142" s="11" t="s">
@@ -14865,11 +14869,11 @@
     </row>
     <row r="143" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C143" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D143" s="12" t="s">
@@ -14879,7 +14883,7 @@
         <v>12</v>
       </c>
       <c r="F143" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>140</v>
       </c>
       <c r="G143" s="11" t="s">
@@ -14895,11 +14899,11 @@
     </row>
     <row r="144" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C144" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D144" s="12" t="s">
@@ -14909,7 +14913,7 @@
         <v>10</v>
       </c>
       <c r="F144" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>141</v>
       </c>
       <c r="G144" s="11" t="s">
@@ -14925,11 +14929,11 @@
     </row>
     <row r="145" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C145" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D145" s="12" t="s">
@@ -14939,7 +14943,7 @@
         <v>7</v>
       </c>
       <c r="F145" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>142</v>
       </c>
       <c r="G145" s="11" t="s">
@@ -14952,11 +14956,11 @@
     </row>
     <row r="146" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C146" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D146" s="13" t="s">
@@ -14966,7 +14970,7 @@
         <v>8</v>
       </c>
       <c r="F146" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>143</v>
       </c>
       <c r="G146" s="11" t="s">
@@ -14979,11 +14983,11 @@
     </row>
     <row r="147" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C147" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D147" s="13" t="s">
@@ -14993,7 +14997,7 @@
         <v>9</v>
       </c>
       <c r="F147" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>144</v>
       </c>
       <c r="G147" s="11" t="s">
@@ -15006,11 +15010,11 @@
     </row>
     <row r="148" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C148" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D148" s="13" t="s">
@@ -15020,7 +15024,7 @@
         <v>7</v>
       </c>
       <c r="F148" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>145</v>
       </c>
       <c r="G148" s="11" t="s">
@@ -15037,7 +15041,7 @@
         <v>8</v>
       </c>
       <c r="AR148" s="56">
-        <f t="shared" ref="AR148:AR179" si="528">INDEX(F:F,MATCH(AP148,D:D,0))</f>
+        <f t="shared" ref="AR148:AR179" si="527">INDEX(F:F,MATCH(AP148,D:D,0))</f>
         <v>134</v>
       </c>
       <c r="AS148" s="38" t="s">
@@ -15046,11 +15050,11 @@
     </row>
     <row r="149" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C149" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D149" s="15" t="s">
@@ -15060,7 +15064,7 @@
         <v>6</v>
       </c>
       <c r="F149" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>146</v>
       </c>
       <c r="G149" s="11" t="s">
@@ -15080,7 +15084,7 @@
         <v>10</v>
       </c>
       <c r="AR149" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>135</v>
       </c>
       <c r="AS149" s="11" t="s">
@@ -15089,11 +15093,11 @@
     </row>
     <row r="150" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C150" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>3</v>
       </c>
       <c r="D150" s="37" t="s">
@@ -15103,7 +15107,7 @@
         <v>8</v>
       </c>
       <c r="F150" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>147</v>
       </c>
       <c r="G150" s="38" t="s">
@@ -15123,7 +15127,7 @@
         <v>7</v>
       </c>
       <c r="AR150" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>136</v>
       </c>
       <c r="AS150" s="11" t="s">
@@ -15132,11 +15136,11 @@
     </row>
     <row r="151" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C151" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D151" s="12" t="s">
@@ -15146,7 +15150,7 @@
         <v>6</v>
       </c>
       <c r="F151" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>148</v>
       </c>
       <c r="G151" s="11" t="s">
@@ -15166,7 +15170,7 @@
         <v>10</v>
       </c>
       <c r="AR151" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>137</v>
       </c>
       <c r="AS151" s="11" t="s">
@@ -15175,11 +15179,11 @@
     </row>
     <row r="152" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C152" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D152" s="12" t="s">
@@ -15189,7 +15193,7 @@
         <v>6</v>
       </c>
       <c r="F152" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>149</v>
       </c>
       <c r="G152" s="11" t="s">
@@ -15209,7 +15213,7 @@
         <v>6</v>
       </c>
       <c r="AR152" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>157</v>
       </c>
       <c r="AS152" s="38" t="s">
@@ -15218,11 +15222,11 @@
     </row>
     <row r="153" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C153" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D153" s="12" t="s">
@@ -15232,7 +15236,7 @@
         <v>4</v>
       </c>
       <c r="F153" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>150</v>
       </c>
       <c r="G153" s="11" t="s">
@@ -15252,7 +15256,7 @@
         <v>8</v>
       </c>
       <c r="AR153" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>158</v>
       </c>
       <c r="AS153" s="11" t="s">
@@ -15261,11 +15265,11 @@
     </row>
     <row r="154" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C154" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D154" s="32" t="s">
@@ -15275,7 +15279,7 @@
         <v>10</v>
       </c>
       <c r="F154" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>151</v>
       </c>
       <c r="G154" s="11" t="s">
@@ -15295,7 +15299,7 @@
         <v>8</v>
       </c>
       <c r="AR154" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>159</v>
       </c>
       <c r="AS154" s="11" t="s">
@@ -15304,11 +15308,11 @@
     </row>
     <row r="155" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C155" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D155" s="12" t="s">
@@ -15318,7 +15322,7 @@
         <v>5</v>
       </c>
       <c r="F155" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>152</v>
       </c>
       <c r="G155" s="11" t="s">
@@ -15338,7 +15342,7 @@
         <v>10</v>
       </c>
       <c r="AR155" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>160</v>
       </c>
       <c r="AS155" s="11" t="s">
@@ -15347,11 +15351,11 @@
     </row>
     <row r="156" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C156" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D156" s="13" t="s">
@@ -15361,7 +15365,7 @@
         <v>8</v>
       </c>
       <c r="F156" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>153</v>
       </c>
       <c r="G156" s="11" t="s">
@@ -15381,7 +15385,7 @@
         <v>8</v>
       </c>
       <c r="AR156" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>161</v>
       </c>
       <c r="AS156" s="11" t="s">
@@ -15390,11 +15394,11 @@
     </row>
     <row r="157" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C157" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D157" s="13" t="s">
@@ -15404,7 +15408,7 @@
         <v>8</v>
       </c>
       <c r="F157" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>154</v>
       </c>
       <c r="G157" s="11" t="s">
@@ -15421,7 +15425,7 @@
         <v>10</v>
       </c>
       <c r="AR157" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>162</v>
       </c>
       <c r="AS157" s="11" t="s">
@@ -15430,11 +15434,11 @@
     </row>
     <row r="158" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C158" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D158" s="13" t="s">
@@ -15444,7 +15448,7 @@
         <v>9</v>
       </c>
       <c r="F158" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>155</v>
       </c>
       <c r="G158" s="11" t="s">
@@ -15464,7 +15468,7 @@
         <v>6</v>
       </c>
       <c r="AR158" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>163</v>
       </c>
       <c r="AS158" s="11" t="s">
@@ -15473,11 +15477,11 @@
     </row>
     <row r="159" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C159" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D159" s="15" t="s">
@@ -15487,7 +15491,7 @@
         <v>8</v>
       </c>
       <c r="F159" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>156</v>
       </c>
       <c r="G159" s="11" t="s">
@@ -15507,7 +15511,7 @@
         <v>8</v>
       </c>
       <c r="AR159" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>164</v>
       </c>
       <c r="AS159" s="11" t="s">
@@ -15516,11 +15520,11 @@
     </row>
     <row r="160" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C160" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D160" s="37" t="s">
@@ -15530,7 +15534,7 @@
         <v>6</v>
       </c>
       <c r="F160" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>157</v>
       </c>
       <c r="G160" s="38" t="s">
@@ -15550,7 +15554,7 @@
         <v>8</v>
       </c>
       <c r="AR160" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>165</v>
       </c>
       <c r="AS160" s="11" t="s">
@@ -15559,11 +15563,11 @@
     </row>
     <row r="161" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C161" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D161" s="13" t="s">
@@ -15573,7 +15577,7 @@
         <v>8</v>
       </c>
       <c r="F161" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>158</v>
       </c>
       <c r="G161" s="11" t="s">
@@ -15593,7 +15597,7 @@
         <v>10</v>
       </c>
       <c r="AR161" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>166</v>
       </c>
       <c r="AS161" s="11" t="s">
@@ -15602,11 +15606,11 @@
     </row>
     <row r="162" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C162" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D162" s="13" t="s">
@@ -15616,7 +15620,7 @@
         <v>8</v>
       </c>
       <c r="F162" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>159</v>
       </c>
       <c r="G162" s="11" t="s">
@@ -15636,7 +15640,7 @@
         <v>14</v>
       </c>
       <c r="AR162" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>167</v>
       </c>
       <c r="AS162" s="11" t="s">
@@ -15645,11 +15649,11 @@
     </row>
     <row r="163" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C163" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>3</v>
       </c>
       <c r="D163" s="13" t="s">
@@ -15659,7 +15663,7 @@
         <v>10</v>
       </c>
       <c r="F163" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>160</v>
       </c>
       <c r="G163" s="11" t="s">
@@ -15679,7 +15683,7 @@
         <v>6</v>
       </c>
       <c r="AR163" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>168</v>
       </c>
       <c r="AS163" s="11" t="s">
@@ -15688,11 +15692,11 @@
     </row>
     <row r="164" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C164" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D164" s="13" t="s">
@@ -15702,7 +15706,7 @@
         <v>8</v>
       </c>
       <c r="F164" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>161</v>
       </c>
       <c r="G164" s="11" t="s">
@@ -15719,7 +15723,7 @@
         <v>10</v>
       </c>
       <c r="AR164" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>169</v>
       </c>
       <c r="AS164" s="11" t="s">
@@ -15728,11 +15732,11 @@
     </row>
     <row r="165" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C165" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D165" s="13" t="s">
@@ -15742,7 +15746,7 @@
         <v>10</v>
       </c>
       <c r="F165" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>162</v>
       </c>
       <c r="G165" s="11" t="s">
@@ -15762,7 +15766,7 @@
         <v>10</v>
       </c>
       <c r="AR165" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>170</v>
       </c>
       <c r="AS165" s="11" t="s">
@@ -15771,11 +15775,11 @@
     </row>
     <row r="166" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C166" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D166" s="13" t="s">
@@ -15785,7 +15789,7 @@
         <v>6</v>
       </c>
       <c r="F166" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>163</v>
       </c>
       <c r="G166" s="11" t="s">
@@ -15805,7 +15809,7 @@
         <v>8</v>
       </c>
       <c r="AR166" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>171</v>
       </c>
       <c r="AS166" s="45" t="s">
@@ -15814,11 +15818,11 @@
     </row>
     <row r="167" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>S</v>
       </c>
       <c r="C167" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>2</v>
       </c>
       <c r="D167" s="13" t="s">
@@ -15828,7 +15832,7 @@
         <v>8</v>
       </c>
       <c r="F167" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>164</v>
       </c>
       <c r="G167" s="11" t="s">
@@ -15851,7 +15855,7 @@
         <v>8</v>
       </c>
       <c r="AR167" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>172</v>
       </c>
       <c r="AS167" s="27" t="s">
@@ -15860,11 +15864,11 @@
     </row>
     <row r="168" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C168" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D168" s="13" t="s">
@@ -15874,7 +15878,7 @@
         <v>8</v>
       </c>
       <c r="F168" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>165</v>
       </c>
       <c r="G168" s="11" t="s">
@@ -15894,7 +15898,7 @@
         <v>8</v>
       </c>
       <c r="AR168" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>173</v>
       </c>
       <c r="AS168" s="27" t="s">
@@ -15903,11 +15907,11 @@
     </row>
     <row r="169" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C169" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D169" s="13" t="s">
@@ -15917,7 +15921,7 @@
         <v>10</v>
       </c>
       <c r="F169" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>166</v>
       </c>
       <c r="G169" s="11" t="s">
@@ -15937,7 +15941,7 @@
         <v>8</v>
       </c>
       <c r="AR169" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>174</v>
       </c>
       <c r="AS169" s="27" t="s">
@@ -15946,11 +15950,11 @@
     </row>
     <row r="170" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C170" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>2</v>
       </c>
       <c r="D170" s="13" t="s">
@@ -15960,7 +15964,7 @@
         <v>14</v>
       </c>
       <c r="F170" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>167</v>
       </c>
       <c r="G170" s="11" t="s">
@@ -15986,7 +15990,7 @@
         <v>5</v>
       </c>
       <c r="AR170" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>175</v>
       </c>
       <c r="AS170" s="27" t="s">
@@ -15995,11 +15999,11 @@
     </row>
     <row r="171" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C171" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D171" s="13" t="s">
@@ -16009,7 +16013,7 @@
         <v>6</v>
       </c>
       <c r="F171" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>168</v>
       </c>
       <c r="G171" s="11" t="s">
@@ -16029,7 +16033,7 @@
         <v>5</v>
       </c>
       <c r="AR171" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>176</v>
       </c>
       <c r="AS171" s="27" t="s">
@@ -16038,11 +16042,11 @@
     </row>
     <row r="172" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C172" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D172" s="13" t="s">
@@ -16052,7 +16056,7 @@
         <v>10</v>
       </c>
       <c r="F172" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>169</v>
       </c>
       <c r="G172" s="11" t="s">
@@ -16072,7 +16076,7 @@
         <v>4</v>
       </c>
       <c r="AR172" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>177</v>
       </c>
       <c r="AS172" s="27" t="s">
@@ -16081,11 +16085,11 @@
     </row>
     <row r="173" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C173" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D173" s="15" t="s">
@@ -16095,7 +16099,7 @@
         <v>10</v>
       </c>
       <c r="F173" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>170</v>
       </c>
       <c r="G173" s="11" t="s">
@@ -16115,7 +16119,7 @@
         <v>5</v>
       </c>
       <c r="AR173" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>178</v>
       </c>
       <c r="AS173" s="27" t="s">
@@ -16124,11 +16128,11 @@
     </row>
     <row r="174" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C174" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D174" s="44" t="s">
@@ -16138,7 +16142,7 @@
         <v>8</v>
       </c>
       <c r="F174" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>171</v>
       </c>
       <c r="G174" s="45" t="s">
@@ -16158,7 +16162,7 @@
         <v>4</v>
       </c>
       <c r="AR174" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>179</v>
       </c>
       <c r="AS174" s="27" t="s">
@@ -16167,11 +16171,11 @@
     </row>
     <row r="175" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C175" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D175" s="28" t="s">
@@ -16181,7 +16185,7 @@
         <v>8</v>
       </c>
       <c r="F175" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>172</v>
       </c>
       <c r="G175" s="27" t="s">
@@ -16201,7 +16205,7 @@
         <v>4</v>
       </c>
       <c r="AR175" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>180</v>
       </c>
       <c r="AS175" s="27" t="s">
@@ -16210,11 +16214,11 @@
     </row>
     <row r="176" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C176" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D176" s="28" t="s">
@@ -16224,14 +16228,14 @@
         <v>8</v>
       </c>
       <c r="F176" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>173</v>
       </c>
       <c r="G176" s="27" t="s">
         <v>163</v>
       </c>
       <c r="H176" s="64">
-        <f t="shared" ref="H176:H185" si="529">F175</f>
+        <f t="shared" ref="H176:H185" si="528">F175</f>
         <v>172</v>
       </c>
       <c r="I176" s="64"/>
@@ -16244,7 +16248,7 @@
         <v>4</v>
       </c>
       <c r="AR176" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>181</v>
       </c>
       <c r="AS176" s="27" t="s">
@@ -16253,11 +16257,11 @@
     </row>
     <row r="177" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C177" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D177" s="28" t="s">
@@ -16267,14 +16271,14 @@
         <v>8</v>
       </c>
       <c r="F177" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>174</v>
       </c>
       <c r="G177" s="27" t="s">
         <v>163</v>
       </c>
       <c r="H177" s="64">
-        <f t="shared" si="529"/>
+        <f t="shared" si="528"/>
         <v>173</v>
       </c>
       <c r="I177" s="64"/>
@@ -16287,7 +16291,7 @@
         <v>4</v>
       </c>
       <c r="AR177" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>182</v>
       </c>
       <c r="AS177" s="27" t="s">
@@ -16296,11 +16300,11 @@
     </row>
     <row r="178" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C178" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D178" s="28" t="s">
@@ -16310,14 +16314,14 @@
         <v>5</v>
       </c>
       <c r="F178" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>175</v>
       </c>
       <c r="G178" s="27" t="s">
         <v>163</v>
       </c>
       <c r="H178" s="64">
-        <f t="shared" si="529"/>
+        <f t="shared" si="528"/>
         <v>174</v>
       </c>
       <c r="I178" s="64"/>
@@ -16330,7 +16334,7 @@
         <v>6</v>
       </c>
       <c r="AR178" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>183</v>
       </c>
       <c r="AS178" s="45" t="s">
@@ -16339,11 +16343,11 @@
     </row>
     <row r="179" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C179" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D179" s="28" t="s">
@@ -16353,14 +16357,14 @@
         <v>5</v>
       </c>
       <c r="F179" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>176</v>
       </c>
       <c r="G179" s="27" t="s">
         <v>163</v>
       </c>
       <c r="H179" s="64">
-        <f t="shared" si="529"/>
+        <f t="shared" si="528"/>
         <v>175</v>
       </c>
       <c r="I179" s="64"/>
@@ -16373,7 +16377,7 @@
         <v>8</v>
       </c>
       <c r="AR179" s="56">
-        <f t="shared" si="528"/>
+        <f t="shared" si="527"/>
         <v>184</v>
       </c>
       <c r="AS179" s="27" t="s">
@@ -16382,11 +16386,11 @@
     </row>
     <row r="180" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C180" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D180" s="28" t="s">
@@ -16396,14 +16400,14 @@
         <v>4</v>
       </c>
       <c r="F180" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>177</v>
       </c>
       <c r="G180" s="27" t="s">
         <v>163</v>
       </c>
       <c r="H180" s="64">
-        <f t="shared" si="529"/>
+        <f t="shared" si="528"/>
         <v>176</v>
       </c>
       <c r="I180" s="64"/>
@@ -16416,7 +16420,7 @@
         <v>10</v>
       </c>
       <c r="AR180" s="56">
-        <f t="shared" ref="AR180:AR208" si="530">INDEX(F:F,MATCH(AP180,D:D,0))</f>
+        <f t="shared" ref="AR180:AR208" si="529">INDEX(F:F,MATCH(AP180,D:D,0))</f>
         <v>185</v>
       </c>
       <c r="AS180" s="27" t="s">
@@ -16425,11 +16429,11 @@
     </row>
     <row r="181" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C181" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D181" s="28" t="s">
@@ -16439,14 +16443,14 @@
         <v>5</v>
       </c>
       <c r="F181" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>178</v>
       </c>
       <c r="G181" s="27" t="s">
         <v>163</v>
       </c>
       <c r="H181" s="64">
-        <f t="shared" si="529"/>
+        <f t="shared" si="528"/>
         <v>177</v>
       </c>
       <c r="I181" s="64"/>
@@ -16459,7 +16463,7 @@
         <v>8</v>
       </c>
       <c r="AR181" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>186</v>
       </c>
       <c r="AS181" s="27" t="s">
@@ -16468,11 +16472,11 @@
     </row>
     <row r="182" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C182" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D182" s="28" t="s">
@@ -16482,14 +16486,14 @@
         <v>4</v>
       </c>
       <c r="F182" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>179</v>
       </c>
       <c r="G182" s="27" t="s">
         <v>163</v>
       </c>
       <c r="H182" s="64">
-        <f t="shared" si="529"/>
+        <f t="shared" si="528"/>
         <v>178</v>
       </c>
       <c r="I182" s="64"/>
@@ -16502,7 +16506,7 @@
         <v>8</v>
       </c>
       <c r="AR182" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>187</v>
       </c>
       <c r="AS182" s="27" t="s">
@@ -16511,11 +16515,11 @@
     </row>
     <row r="183" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C183" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D183" s="28" t="s">
@@ -16525,14 +16529,14 @@
         <v>4</v>
       </c>
       <c r="F183" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>180</v>
       </c>
       <c r="G183" s="27" t="s">
         <v>163</v>
       </c>
       <c r="H183" s="64">
-        <f t="shared" si="529"/>
+        <f t="shared" si="528"/>
         <v>179</v>
       </c>
       <c r="I183" s="64"/>
@@ -16545,7 +16549,7 @@
         <v>8</v>
       </c>
       <c r="AR183" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>188</v>
       </c>
       <c r="AS183" s="27" t="s">
@@ -16554,11 +16558,11 @@
     </row>
     <row r="184" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C184" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D184" s="28" t="s">
@@ -16568,14 +16572,14 @@
         <v>4</v>
       </c>
       <c r="F184" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>181</v>
       </c>
       <c r="G184" s="27" t="s">
         <v>163</v>
       </c>
       <c r="H184" s="64">
-        <f t="shared" si="529"/>
+        <f t="shared" si="528"/>
         <v>180</v>
       </c>
       <c r="I184" s="64"/>
@@ -16588,7 +16592,7 @@
         <v>7</v>
       </c>
       <c r="AR184" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>25</v>
       </c>
       <c r="AS184" s="3" t="s">
@@ -16597,11 +16601,11 @@
     </row>
     <row r="185" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C185" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D185" s="30" t="s">
@@ -16611,14 +16615,14 @@
         <v>4</v>
       </c>
       <c r="F185" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>182</v>
       </c>
       <c r="G185" s="27" t="s">
         <v>163</v>
       </c>
       <c r="H185" s="64">
-        <f t="shared" si="529"/>
+        <f t="shared" si="528"/>
         <v>181</v>
       </c>
       <c r="I185" s="64"/>
@@ -16631,7 +16635,7 @@
         <v>8</v>
       </c>
       <c r="AR185" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>189</v>
       </c>
       <c r="AS185" s="43" t="s">
@@ -16640,11 +16644,11 @@
     </row>
     <row r="186" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C186" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D186" s="44" t="s">
@@ -16654,7 +16658,7 @@
         <v>6</v>
       </c>
       <c r="F186" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>183</v>
       </c>
       <c r="G186" s="45" t="s">
@@ -16674,7 +16678,7 @@
         <v>6</v>
       </c>
       <c r="AR186" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>190</v>
       </c>
       <c r="AS186" s="22" t="s">
@@ -16683,11 +16687,11 @@
     </row>
     <row r="187" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C187" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>2</v>
       </c>
       <c r="D187" s="28" t="s">
@@ -16697,7 +16701,7 @@
         <v>8</v>
       </c>
       <c r="F187" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>184</v>
       </c>
       <c r="G187" s="27" t="s">
@@ -16717,7 +16721,7 @@
         <v>10</v>
       </c>
       <c r="AR187" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>191</v>
       </c>
       <c r="AS187" s="22" t="s">
@@ -16726,11 +16730,11 @@
     </row>
     <row r="188" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C188" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D188" s="28" t="s">
@@ -16740,7 +16744,7 @@
         <v>10</v>
       </c>
       <c r="F188" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>185</v>
       </c>
       <c r="G188" s="27" t="s">
@@ -16760,7 +16764,7 @@
         <v>10</v>
       </c>
       <c r="AR188" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>192</v>
       </c>
       <c r="AS188" s="22" t="s">
@@ -16769,11 +16773,11 @@
     </row>
     <row r="189" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C189" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D189" s="28" t="s">
@@ -16783,7 +16787,7 @@
         <v>8</v>
       </c>
       <c r="F189" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>186</v>
       </c>
       <c r="G189" s="27" t="s">
@@ -16812,7 +16816,7 @@
         <v>10</v>
       </c>
       <c r="AR189" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>193</v>
       </c>
       <c r="AS189" s="22" t="s">
@@ -16821,11 +16825,11 @@
     </row>
     <row r="190" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C190" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D190" s="28" t="s">
@@ -16835,7 +16839,7 @@
         <v>8</v>
       </c>
       <c r="F190" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>187</v>
       </c>
       <c r="G190" s="27" t="s">
@@ -16858,7 +16862,7 @@
         <v>8</v>
       </c>
       <c r="AR190" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>194</v>
       </c>
       <c r="AS190" s="22" t="s">
@@ -16867,11 +16871,11 @@
     </row>
     <row r="191" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C191" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D191" s="30" t="s">
@@ -16881,7 +16885,7 @@
         <v>8</v>
       </c>
       <c r="F191" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>188</v>
       </c>
       <c r="G191" s="27" t="s">
@@ -16901,7 +16905,7 @@
         <v>8</v>
       </c>
       <c r="AR191" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>195</v>
       </c>
       <c r="AS191" s="22" t="s">
@@ -16910,11 +16914,11 @@
     </row>
     <row r="192" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C192" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D192" s="42" t="s">
@@ -16924,7 +16928,7 @@
         <v>8</v>
       </c>
       <c r="F192" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>189</v>
       </c>
       <c r="G192" s="43" t="s">
@@ -16944,7 +16948,7 @@
         <v>8</v>
       </c>
       <c r="AR192" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>196</v>
       </c>
       <c r="AS192" s="22" t="s">
@@ -16953,11 +16957,11 @@
     </row>
     <row r="193" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C193" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>2</v>
       </c>
       <c r="D193" s="23" t="s">
@@ -16967,7 +16971,7 @@
         <v>6</v>
       </c>
       <c r="F193" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>190</v>
       </c>
       <c r="G193" s="22" t="s">
@@ -16987,7 +16991,7 @@
         <v>12</v>
       </c>
       <c r="AR193" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>26</v>
       </c>
       <c r="AS193" s="36" t="s">
@@ -16996,11 +17000,11 @@
     </row>
     <row r="194" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C194" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D194" s="23" t="s">
@@ -17010,7 +17014,7 @@
         <v>10</v>
       </c>
       <c r="F194" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>191</v>
       </c>
       <c r="G194" s="22" t="s">
@@ -17030,7 +17034,7 @@
         <v>12</v>
       </c>
       <c r="AR194" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>27</v>
       </c>
       <c r="AS194" s="3" t="s">
@@ -17039,11 +17043,11 @@
     </row>
     <row r="195" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C195" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>0</v>
       </c>
       <c r="D195" s="23" t="s">
@@ -17053,7 +17057,7 @@
         <v>10</v>
       </c>
       <c r="F195" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>192</v>
       </c>
       <c r="G195" s="22" t="s">
@@ -17073,7 +17077,7 @@
         <v>12</v>
       </c>
       <c r="AR195" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>28</v>
       </c>
       <c r="AS195" s="36" t="s">
@@ -17082,11 +17086,11 @@
     </row>
     <row r="196" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C196" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D196" s="23" t="s">
@@ -17096,7 +17100,7 @@
         <v>10</v>
       </c>
       <c r="F196" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>193</v>
       </c>
       <c r="G196" s="22" t="s">
@@ -17116,7 +17120,7 @@
         <v>12</v>
       </c>
       <c r="AR196" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>29</v>
       </c>
       <c r="AS196" s="3" t="s">
@@ -17125,11 +17129,11 @@
     </row>
     <row r="197" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C197" s="4">
-        <f t="shared" si="525"/>
+        <f t="shared" si="524"/>
         <v>1</v>
       </c>
       <c r="D197" s="23" t="s">
@@ -17139,7 +17143,7 @@
         <v>8</v>
       </c>
       <c r="F197" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>194</v>
       </c>
       <c r="G197" s="22" t="s">
@@ -17159,7 +17163,7 @@
         <v>12</v>
       </c>
       <c r="AR197" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>51</v>
       </c>
       <c r="AS197" s="38" t="s">
@@ -17168,11 +17172,11 @@
     </row>
     <row r="198" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C198" s="4">
-        <f t="shared" ref="C198:C199" si="531">COUNTIF($H:$J,$F198)</f>
+        <f t="shared" ref="C198:C199" si="530">COUNTIF($H:$J,$F198)</f>
         <v>1</v>
       </c>
       <c r="D198" s="23" t="s">
@@ -17182,7 +17186,7 @@
         <v>8</v>
       </c>
       <c r="F198" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>195</v>
       </c>
       <c r="G198" s="22" t="s">
@@ -17202,7 +17206,7 @@
         <v>12</v>
       </c>
       <c r="AR198" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>52</v>
       </c>
       <c r="AS198" s="11" t="s">
@@ -17211,11 +17215,11 @@
     </row>
     <row r="199" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="4" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="525"/>
         <v>N</v>
       </c>
       <c r="C199" s="4">
-        <f t="shared" si="531"/>
+        <f t="shared" si="530"/>
         <v>0</v>
       </c>
       <c r="D199" s="25" t="s">
@@ -17225,7 +17229,7 @@
         <v>8</v>
       </c>
       <c r="F199" s="56">
-        <f t="shared" si="527"/>
+        <f t="shared" si="526"/>
         <v>196</v>
       </c>
       <c r="G199" s="22" t="s">
@@ -17245,7 +17249,7 @@
         <v>12</v>
       </c>
       <c r="AR199" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>53</v>
       </c>
       <c r="AS199" s="11" t="s">
@@ -17260,7 +17264,7 @@
         <v>20</v>
       </c>
       <c r="AR200" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>54</v>
       </c>
       <c r="AS200" s="11" t="s">
@@ -17275,7 +17279,7 @@
         <v>6</v>
       </c>
       <c r="AR201" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>55</v>
       </c>
       <c r="AS201" s="11" t="s">
@@ -17290,7 +17294,7 @@
         <v>8</v>
       </c>
       <c r="AR202" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>56</v>
       </c>
       <c r="AS202" s="11" t="s">
@@ -17305,7 +17309,7 @@
         <v>10</v>
       </c>
       <c r="AR203" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>57</v>
       </c>
       <c r="AS203" s="11" t="s">
@@ -17320,7 +17324,7 @@
         <v>14</v>
       </c>
       <c r="AR204" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>58</v>
       </c>
       <c r="AS204" s="11" t="s">
@@ -17335,7 +17339,7 @@
         <v>20</v>
       </c>
       <c r="AR205" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>59</v>
       </c>
       <c r="AS205" s="11" t="s">
@@ -17350,7 +17354,7 @@
         <v>15</v>
       </c>
       <c r="AR206" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>60</v>
       </c>
       <c r="AS206" s="11" t="s">
@@ -17365,7 +17369,7 @@
         <v>17</v>
       </c>
       <c r="AR207" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>61</v>
       </c>
       <c r="AS207" s="11" t="s">
@@ -17380,7 +17384,7 @@
         <v>12</v>
       </c>
       <c r="AR208" s="56">
-        <f t="shared" si="530"/>
+        <f t="shared" si="529"/>
         <v>62</v>
       </c>
       <c r="AS208" s="11" t="s">
@@ -17433,53 +17437,53 @@
       <formula>NOT(ISERROR(SEARCH("X",X75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT1:AT1048576">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="ok">
+  <conditionalFormatting sqref="AT1:AT45 AT147:AT1048576 AT54:AT138">
+    <cfRule type="containsText" dxfId="1" priority="19" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",AT1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG71">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",AG71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG72:AL72">
-    <cfRule type="containsText" dxfId="7" priority="16" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",AG72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH71:AL71">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",AH71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF73:AL74">
-    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",AF73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF75:AJ75 AG76:AJ76">
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",AF75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF76">
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",AF76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR210 AR148:AR208 AR228:AR1048576 AR1:AR138">
-    <cfRule type="expression" dxfId="2" priority="58">
+    <cfRule type="expression" dxfId="0" priority="58">
       <formula>COUNTIF($X:$AD,$AR1)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X74:AD74">
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",X74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X76">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",X76)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Gandorphi\Documents\Estudos\Alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5FDD20-BE26-4E21-B4C3-57C0E854744B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6BE99F-562F-4432-B224-4E6E1057D576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="724" xr2:uid="{2ADBD83B-F3FB-4BB6-B18E-95839D6004A8}"/>
   </bookViews>
@@ -1914,14 +1914,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1929,6 +1922,37 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2006,25 +2030,11 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2452,8 +2462,8 @@
   </sheetPr>
   <dimension ref="A2:AZ208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X44" sqref="X44"/>
+    <sheetView tabSelected="1" topLeftCell="P15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG36" sqref="AG36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2701,7 +2711,7 @@
         <v>10</v>
       </c>
       <c r="AR5" s="56">
-        <f t="shared" ref="AR5:AR68" si="3">INDEX(F:F,MATCH(AP5,D:D,0))</f>
+        <f t="shared" ref="AR5:AR45" si="3">INDEX(F:F,MATCH(AP5,D:D,0))</f>
         <v>2</v>
       </c>
       <c r="AS5" s="3" t="str">
@@ -6576,7 +6586,9 @@
       <c r="AD36" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="AF36" s="76"/>
+      <c r="AF36" s="76">
+        <v>12</v>
+      </c>
       <c r="AG36" s="73"/>
       <c r="AH36" s="73"/>
       <c r="AI36" s="73"/>
@@ -7764,7 +7776,7 @@
       </c>
       <c r="AT46" s="87" t="str">
         <f t="shared" ref="AT46:AT109" si="274">IF(COUNTIF(AF:AL,AR46)&lt;&gt;0,"OK","")</f>
-        <v/>
+        <v>OK</v>
       </c>
     </row>
     <row r="47" spans="2:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -17393,98 +17405,103 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B2 B4:B1048576">
-    <cfRule type="containsText" dxfId="18" priority="57" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="19" priority="58" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:AD70 AF6:AL70">
-    <cfRule type="containsText" dxfId="17" priority="56" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="18" priority="57" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",X6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="16" priority="55">
+    <cfRule type="expression" dxfId="17" priority="56">
       <formula>COUNTIF($X:$AD,$F1)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:K1048576">
-    <cfRule type="expression" dxfId="15" priority="54">
+    <cfRule type="expression" dxfId="16" priority="55">
       <formula>COUNTIF($X:$AD,H1)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y71">
-    <cfRule type="containsText" dxfId="14" priority="53" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="15" priority="54" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Y71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y72:AD72">
-    <cfRule type="containsText" dxfId="13" priority="52" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="14" priority="53" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Y72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z71:AD71">
-    <cfRule type="containsText" dxfId="12" priority="51" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="13" priority="52" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Z71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X73:AD73">
-    <cfRule type="containsText" dxfId="11" priority="50" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="12" priority="51" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",X73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X75:AB75 Y76:AB76">
-    <cfRule type="containsText" dxfId="10" priority="49" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="11" priority="50" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",X75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT1:AT45 AT147:AT1048576 AT54:AT138">
-    <cfRule type="containsText" dxfId="1" priority="19" operator="containsText" text="ok">
+  <conditionalFormatting sqref="AT1:AT45 AT147:AT1048576">
+    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",AT1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG71">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",AG71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG72:AL72">
-    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",AG72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH71:AL71">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="7" priority="16" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",AH71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF73:AL74">
-    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",AF73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF75:AJ75 AG76:AJ76">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",AF75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF76">
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",AF76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR210 AR148:AR208 AR228:AR1048576 AR1:AR138">
-    <cfRule type="expression" dxfId="0" priority="58">
+    <cfRule type="expression" dxfId="3" priority="59">
       <formula>COUNTIF($X:$AD,$AR1)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X74:AD74">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",X74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X76">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",X76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT46:AT138">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="ok">
+      <formula>NOT(ISERROR(SEARCH("ok",AT46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
